--- a/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.08863487075619</v>
+        <v>12.08863487075616</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.143607017450484</v>
+        <v>3.14360701745043</v>
       </c>
       <c r="E2">
-        <v>10.56333079025795</v>
+        <v>10.56333079025811</v>
       </c>
       <c r="F2">
-        <v>34.35653822882082</v>
+        <v>34.35653822882087</v>
       </c>
       <c r="G2">
-        <v>26.79859111668501</v>
+        <v>26.79859111668505</v>
       </c>
       <c r="H2">
-        <v>12.20479936015189</v>
+        <v>12.20479936015193</v>
       </c>
       <c r="I2">
-        <v>8.061790003339771</v>
+        <v>8.061790003339921</v>
       </c>
       <c r="J2">
-        <v>34.02053036333693</v>
+        <v>34.0205303633369</v>
       </c>
       <c r="K2">
-        <v>21.6897343068265</v>
+        <v>21.68973430682642</v>
       </c>
       <c r="L2">
-        <v>19.33531075292837</v>
+        <v>19.33531075292829</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.28557155241281</v>
+        <v>11.28557155241278</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.901206103056523</v>
+        <v>2.901206103056445</v>
       </c>
       <c r="E3">
-        <v>10.16220277023046</v>
+        <v>10.16220277023047</v>
       </c>
       <c r="F3">
-        <v>32.35452952388702</v>
+        <v>32.354529523887</v>
       </c>
       <c r="G3">
-        <v>25.30986711579945</v>
+        <v>25.30986711579943</v>
       </c>
       <c r="H3">
         <v>12.82481511502324</v>
       </c>
       <c r="I3">
-        <v>7.930586747401359</v>
+        <v>7.930586747401394</v>
       </c>
       <c r="J3">
-        <v>31.67689493888414</v>
+        <v>31.67689493888419</v>
       </c>
       <c r="K3">
-        <v>20.13686440477337</v>
+        <v>20.13686440477342</v>
       </c>
       <c r="L3">
-        <v>18.02288652577779</v>
+        <v>18.02288652577782</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.76510605022278</v>
+        <v>10.76510605022281</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.748776654749437</v>
+        <v>2.748776654749395</v>
       </c>
       <c r="E4">
-        <v>9.911069638900546</v>
+        <v>9.911069638900601</v>
       </c>
       <c r="F4">
-        <v>31.12589321059098</v>
+        <v>31.12589321059099</v>
       </c>
       <c r="G4">
-        <v>24.40237487649058</v>
+        <v>24.4023748764906</v>
       </c>
       <c r="H4">
         <v>13.21197582612388</v>
       </c>
       <c r="I4">
-        <v>7.850540840909873</v>
+        <v>7.850540840909963</v>
       </c>
       <c r="J4">
-        <v>30.16504821880622</v>
+        <v>30.16504821880624</v>
       </c>
       <c r="K4">
-        <v>19.13694837892899</v>
+        <v>19.13694837892898</v>
       </c>
       <c r="L4">
-        <v>17.17689185117857</v>
+        <v>17.17689185117858</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.54606718209552</v>
+        <v>10.5460671820955</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.685674039248845</v>
+        <v>2.68567403924881</v>
       </c>
       <c r="E5">
-        <v>9.80752625089465</v>
+        <v>9.807526250894819</v>
       </c>
       <c r="F5">
         <v>30.62566150017119</v>
       </c>
       <c r="G5">
-        <v>24.03443018367164</v>
+        <v>24.03443018367165</v>
       </c>
       <c r="H5">
-        <v>13.37150604012268</v>
+        <v>13.37150604012272</v>
       </c>
       <c r="I5">
-        <v>7.818041872853736</v>
+        <v>7.818041872853887</v>
       </c>
       <c r="J5">
-        <v>29.53032444425838</v>
+        <v>29.53032444425844</v>
       </c>
       <c r="K5">
-        <v>18.71753270285125</v>
+        <v>18.71753270285128</v>
       </c>
       <c r="L5">
-        <v>16.82188622353256</v>
+        <v>16.82188622353255</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.50927488845016</v>
+        <v>10.50927488845011</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.675134097425717</v>
+        <v>2.675134097425807</v>
       </c>
       <c r="E6">
-        <v>9.790260914064822</v>
+        <v>9.790260914064659</v>
       </c>
       <c r="F6">
-        <v>30.5426369594546</v>
+        <v>30.54263695945465</v>
       </c>
       <c r="G6">
-        <v>23.97345399420549</v>
+        <v>23.97345399420551</v>
       </c>
       <c r="H6">
-        <v>13.39810590092006</v>
+        <v>13.3981059009201</v>
       </c>
       <c r="I6">
-        <v>7.812652534107993</v>
+        <v>7.812652534107841</v>
       </c>
       <c r="J6">
-        <v>29.42379498610885</v>
+        <v>29.42379498610884</v>
       </c>
       <c r="K6">
-        <v>18.64716051641826</v>
+        <v>18.64716051641829</v>
       </c>
       <c r="L6">
-        <v>16.76231419552892</v>
+        <v>16.76231419552893</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.7621802089023</v>
+        <v>10.76218020890233</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.747929726580836</v>
+        <v>2.747929726580729</v>
       </c>
       <c r="E7">
-        <v>9.909678064076969</v>
+        <v>9.909678064076873</v>
       </c>
       <c r="F7">
-        <v>31.11914459853488</v>
+        <v>31.11914459853483</v>
       </c>
       <c r="G7">
-        <v>24.39740474068843</v>
+        <v>24.39740474068838</v>
       </c>
       <c r="H7">
-        <v>13.21412001354612</v>
+        <v>13.21412001354589</v>
       </c>
       <c r="I7">
-        <v>7.850102069690312</v>
+        <v>7.850102069690286</v>
       </c>
       <c r="J7">
-        <v>30.15656395480443</v>
+        <v>30.15656395480447</v>
       </c>
       <c r="K7">
-        <v>19.13134067634786</v>
+        <v>19.1313406763479</v>
       </c>
       <c r="L7">
-        <v>17.17214583939721</v>
+        <v>17.17214583939726</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.8173833047374</v>
+        <v>11.81738330473741</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.060720242665012</v>
+        <v>3.06072024266497</v>
       </c>
       <c r="E8">
-        <v>10.42602727044142</v>
+        <v>10.42602727044158</v>
       </c>
       <c r="F8">
-        <v>33.66624879849333</v>
+        <v>33.66624879849325</v>
       </c>
       <c r="G8">
-        <v>26.28400265821503</v>
+        <v>26.28400265821498</v>
       </c>
       <c r="H8">
-        <v>12.41732011984264</v>
+        <v>12.4173201198426</v>
       </c>
       <c r="I8">
-        <v>8.016437955758033</v>
+        <v>8.016437955758091</v>
       </c>
       <c r="J8">
-        <v>33.22736239743638</v>
+        <v>33.22736239743647</v>
       </c>
       <c r="K8">
-        <v>21.16378032317356</v>
+        <v>21.16378032317362</v>
       </c>
       <c r="L8">
-        <v>18.89102074845908</v>
+        <v>18.89102074845913</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.67248112997367</v>
+        <v>13.67248112997366</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.64990464699664</v>
+        <v>3.649904646996831</v>
       </c>
       <c r="E9">
-        <v>11.40081921573354</v>
+        <v>11.40081921573358</v>
       </c>
       <c r="F9">
-        <v>38.6617039804437</v>
+        <v>38.66170398044365</v>
       </c>
       <c r="G9">
-        <v>30.07570673681372</v>
+        <v>30.07570673681369</v>
       </c>
       <c r="H9">
-        <v>10.89983016714426</v>
+        <v>10.89983016714419</v>
       </c>
       <c r="I9">
         <v>8.347366739243729</v>
       </c>
       <c r="J9">
-        <v>38.68745773888823</v>
+        <v>38.68745773888821</v>
       </c>
       <c r="K9">
-        <v>24.79394514759051</v>
+        <v>24.79394514759048</v>
       </c>
       <c r="L9">
-        <v>21.9513900009254</v>
+        <v>21.95139000092538</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.90982102358171</v>
+        <v>14.90982102358169</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.0751345340982</v>
+        <v>4.075134534098128</v>
       </c>
       <c r="E10">
-        <v>12.0968211762993</v>
+        <v>12.09682117629926</v>
       </c>
       <c r="F10">
-        <v>42.63240028198597</v>
+        <v>42.63240028198579</v>
       </c>
       <c r="G10">
-        <v>33.29657817751901</v>
+        <v>33.29657817751886</v>
       </c>
       <c r="H10">
-        <v>9.803431127359337</v>
+        <v>9.803431127359422</v>
       </c>
       <c r="I10">
-        <v>8.59486642939882</v>
+        <v>8.594866429398781</v>
       </c>
       <c r="J10">
-        <v>42.3826666585863</v>
+        <v>42.38266665858624</v>
       </c>
       <c r="K10">
-        <v>27.26497434936941</v>
+        <v>27.26497434936933</v>
       </c>
       <c r="L10">
-        <v>24.02426715838563</v>
+        <v>24.02426715838557</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.44673237877536</v>
+        <v>15.44673237877544</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.268886825058972</v>
+        <v>4.268886825058943</v>
       </c>
       <c r="E11">
-        <v>12.41034007402685</v>
+        <v>12.41034007402695</v>
       </c>
       <c r="F11">
-        <v>44.44267953928369</v>
+        <v>44.44267953928378</v>
       </c>
       <c r="G11">
-        <v>34.75107769170621</v>
+        <v>34.75107769170629</v>
       </c>
       <c r="H11">
-        <v>9.306800968044056</v>
+        <v>9.306800968043913</v>
       </c>
       <c r="I11">
-        <v>8.708929917512565</v>
+        <v>8.708929917512609</v>
       </c>
       <c r="J11">
-        <v>44.00201536343411</v>
+        <v>44.00201536343415</v>
       </c>
       <c r="K11">
-        <v>28.35197501226608</v>
+        <v>28.35197501226605</v>
       </c>
       <c r="L11">
-        <v>24.93283520528811</v>
+        <v>24.93283520528813</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.64643687304586</v>
+        <v>15.64643687304593</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.342502292365321</v>
+        <v>4.342502292365282</v>
       </c>
       <c r="E12">
-        <v>12.52877530839093</v>
+        <v>12.52877530839099</v>
       </c>
       <c r="F12">
-        <v>45.12782614041117</v>
+        <v>45.12782614041109</v>
       </c>
       <c r="G12">
-        <v>35.3011777073894</v>
+        <v>35.30117770738935</v>
       </c>
       <c r="H12">
-        <v>9.118920335840281</v>
+        <v>9.118920335840194</v>
       </c>
       <c r="I12">
-        <v>8.752396313556789</v>
+        <v>8.752396313556851</v>
       </c>
       <c r="J12">
-        <v>44.60705633237818</v>
+        <v>44.60705633237821</v>
       </c>
       <c r="K12">
-        <v>28.7587999107225</v>
+        <v>28.75879991072248</v>
       </c>
       <c r="L12">
-        <v>25.27230891270005</v>
+        <v>25.27230891270007</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.60358548068276</v>
+        <v>15.60358548068271</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.326633349326756</v>
+        <v>4.326633349326688</v>
       </c>
       <c r="E13">
-        <v>12.50327789692431</v>
+        <v>12.50327789692436</v>
       </c>
       <c r="F13">
-        <v>44.98026526931169</v>
+        <v>44.98026526931179</v>
       </c>
       <c r="G13">
-        <v>35.18271847606987</v>
+        <v>35.18271847606994</v>
       </c>
       <c r="H13">
-        <v>9.159377163246685</v>
+        <v>9.159377163246589</v>
       </c>
       <c r="I13">
-        <v>8.743021736018862</v>
+        <v>8.743021736018958</v>
       </c>
       <c r="J13">
-        <v>44.47710109438968</v>
+        <v>44.47710109438975</v>
       </c>
       <c r="K13">
-        <v>28.67138685077574</v>
+        <v>28.67138685077578</v>
       </c>
       <c r="L13">
-        <v>25.19939445114057</v>
+        <v>25.19939445114059</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.46323382788719</v>
+        <v>15.46323382788717</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -877,25 +877,25 @@
         <v>4.274937004294726</v>
       </c>
       <c r="E14">
-        <v>12.42008849245828</v>
+        <v>12.42008849245818</v>
       </c>
       <c r="F14">
         <v>44.49904770707281</v>
       </c>
       <c r="G14">
-        <v>34.79634286783243</v>
+        <v>34.79634286783241</v>
       </c>
       <c r="H14">
-        <v>9.291340811288199</v>
+        <v>9.291340811288197</v>
       </c>
       <c r="I14">
-        <v>8.712500037730306</v>
+        <v>8.71250003773025</v>
       </c>
       <c r="J14">
-        <v>44.05195184019404</v>
+        <v>44.051951840194</v>
       </c>
       <c r="K14">
-        <v>28.38553753900602</v>
+        <v>28.38553753900605</v>
       </c>
       <c r="L14">
         <v>24.96085341663895</v>
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.37679785257605</v>
+        <v>15.3767978525761</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.243310097510204</v>
+        <v>4.243310097510142</v>
       </c>
       <c r="E15">
-        <v>12.36910066371447</v>
+        <v>12.36910066371445</v>
       </c>
       <c r="F15">
-        <v>44.20427409673928</v>
+        <v>44.20427409673931</v>
       </c>
       <c r="G15">
-        <v>34.55961612432336</v>
+        <v>34.55961612432337</v>
       </c>
       <c r="H15">
-        <v>9.372193167537009</v>
+        <v>9.372193167536985</v>
       </c>
       <c r="I15">
-        <v>8.693842291418992</v>
+        <v>8.693842291419012</v>
       </c>
       <c r="J15">
         <v>43.79049397756587</v>
       </c>
       <c r="K15">
-        <v>28.20983900235177</v>
+        <v>28.20983900235173</v>
       </c>
       <c r="L15">
-        <v>24.81415540244984</v>
+        <v>24.81415540244983</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.87422017142475</v>
+        <v>14.87422017142477</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.062494983667932</v>
+        <v>4.062494983667921</v>
       </c>
       <c r="E16">
-        <v>12.07628204578451</v>
+        <v>12.07628204578446</v>
       </c>
       <c r="F16">
-        <v>42.51398341520877</v>
+        <v>42.51398341520875</v>
       </c>
       <c r="G16">
-        <v>33.20137583114984</v>
+        <v>33.20137583114981</v>
       </c>
       <c r="H16">
-        <v>9.835918465803832</v>
+        <v>9.835918465803793</v>
       </c>
       <c r="I16">
-        <v>8.587446599690168</v>
+        <v>8.587446599690175</v>
       </c>
       <c r="J16">
-        <v>42.27565482673414</v>
+        <v>42.27565482673413</v>
       </c>
       <c r="K16">
-        <v>27.19323378540114</v>
+        <v>27.19323378540112</v>
       </c>
       <c r="L16">
         <v>23.96422779483948</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.5593368507594</v>
+        <v>14.55933685075944</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.951782453905993</v>
+        <v>3.951782453906076</v>
       </c>
       <c r="E17">
         <v>11.89595148820507</v>
@@ -1003,16 +1003,16 @@
         <v>10.12084498122276</v>
       </c>
       <c r="I17">
-        <v>8.522591992783969</v>
+        <v>8.522591992783973</v>
       </c>
       <c r="J17">
-        <v>41.3310234623189</v>
+        <v>41.33102346231895</v>
       </c>
       <c r="K17">
-        <v>26.56043518047485</v>
+        <v>26.56043518047487</v>
       </c>
       <c r="L17">
-        <v>23.43425643536976</v>
+        <v>23.43425643536979</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.37577260526316</v>
+        <v>14.37577260526318</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.88811903932732</v>
+        <v>3.888119039327375</v>
       </c>
       <c r="E18">
         <v>11.79192661780001</v>
       </c>
       <c r="F18">
-        <v>40.87685849951339</v>
+        <v>40.87685849951326</v>
       </c>
       <c r="G18">
-        <v>31.88434865769355</v>
+        <v>31.88434865769347</v>
       </c>
       <c r="H18">
-        <v>10.28493345235229</v>
+        <v>10.28493345235236</v>
       </c>
       <c r="I18">
-        <v>8.485423559289073</v>
+        <v>8.485423559289011</v>
       </c>
       <c r="J18">
-        <v>40.78184913645358</v>
+        <v>40.78184913645353</v>
       </c>
       <c r="K18">
-        <v>26.19293924380425</v>
+        <v>26.19293924380418</v>
       </c>
       <c r="L18">
-        <v>23.12616852193675</v>
+        <v>23.12616852193673</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.31319640463026</v>
+        <v>14.31319640463027</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.866560836861371</v>
+        <v>3.866560836861438</v>
       </c>
       <c r="E19">
         <v>11.75664943624228</v>
       </c>
       <c r="F19">
-        <v>40.67406074659207</v>
+        <v>40.6740607465921</v>
       </c>
       <c r="G19">
-        <v>31.72108432445669</v>
+        <v>31.72108432445672</v>
       </c>
       <c r="H19">
         <v>10.3405307534938</v>
       </c>
       <c r="I19">
-        <v>8.472860440799151</v>
+        <v>8.472860440799055</v>
       </c>
       <c r="J19">
-        <v>40.59488465934159</v>
+        <v>40.5948846593416</v>
       </c>
       <c r="K19">
-        <v>26.06789078349889</v>
+        <v>26.06789078349888</v>
       </c>
       <c r="L19">
         <v>23.02128478257375</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.59310963431277</v>
+        <v>14.59310963431281</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.963565050506305</v>
+        <v>3.963565050506367</v>
       </c>
       <c r="E20">
         <v>11.91517840875755</v>
       </c>
       <c r="F20">
-        <v>41.58592620341891</v>
+        <v>41.5859262034189</v>
       </c>
       <c r="G20">
-        <v>32.45497795821456</v>
+        <v>32.45497795821458</v>
       </c>
       <c r="H20">
-        <v>10.09049373324227</v>
+        <v>10.09049373324217</v>
       </c>
       <c r="I20">
-        <v>8.529481599137263</v>
+        <v>8.529481599137261</v>
       </c>
       <c r="J20">
-        <v>41.43218162762565</v>
+        <v>41.43218162762569</v>
       </c>
       <c r="K20">
-        <v>26.62815909983801</v>
+        <v>26.62815909983803</v>
       </c>
       <c r="L20">
-        <v>23.49100798856788</v>
+        <v>23.4910079885679</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.50455549569578</v>
+        <v>15.50455549569577</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.290113016893196</v>
+        <v>4.290113016893185</v>
       </c>
       <c r="E21">
         <v>12.44452953438048</v>
       </c>
       <c r="F21">
-        <v>44.64039372939547</v>
+        <v>44.6403937293955</v>
       </c>
       <c r="G21">
-        <v>34.90984152845957</v>
+        <v>34.90984152845959</v>
       </c>
       <c r="H21">
-        <v>9.252575705652081</v>
+        <v>9.252575705652077</v>
       </c>
       <c r="I21">
         <v>8.721457013615368</v>
       </c>
       <c r="J21">
-        <v>44.17704416302832</v>
+        <v>44.17704416302834</v>
       </c>
       <c r="K21">
-        <v>28.46962394864056</v>
+        <v>28.46962394864058</v>
       </c>
       <c r="L21">
-        <v>25.03103981988156</v>
+        <v>25.03103981988157</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.07925254438848</v>
+        <v>16.07925254438844</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.50508558009389</v>
+        <v>4.505085580093889</v>
       </c>
       <c r="E22">
-        <v>12.78892657472333</v>
+        <v>12.78892657472334</v>
       </c>
       <c r="F22">
-        <v>46.63519180617443</v>
+        <v>46.63519180617448</v>
       </c>
       <c r="G22">
-        <v>36.51079171745227</v>
+        <v>36.51079171745231</v>
       </c>
       <c r="H22">
-        <v>8.705993125343767</v>
+        <v>8.705993125343909</v>
       </c>
       <c r="I22">
-        <v>8.848557872198485</v>
+        <v>8.848557872198571</v>
       </c>
       <c r="J22">
         <v>45.92375310467708</v>
       </c>
       <c r="K22">
-        <v>29.64547357183143</v>
+        <v>29.64547357183145</v>
       </c>
       <c r="L22">
-        <v>26.01105336998527</v>
+        <v>26.01105336998526</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.77440151588712</v>
+        <v>15.77440151588715</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.390131669383313</v>
+        <v>4.390131669383263</v>
       </c>
       <c r="E23">
-        <v>12.60519274514747</v>
+        <v>12.60519274514744</v>
       </c>
       <c r="F23">
-        <v>45.57026627588849</v>
+        <v>45.57026627588846</v>
       </c>
       <c r="G23">
-        <v>35.65630903325826</v>
+        <v>35.65630903325822</v>
       </c>
       <c r="H23">
-        <v>8.997646385670716</v>
+        <v>8.997646385670643</v>
       </c>
       <c r="I23">
-        <v>8.780547102232301</v>
+        <v>8.780547102232283</v>
       </c>
       <c r="J23">
-        <v>44.99556191949801</v>
+        <v>44.995561919498</v>
       </c>
       <c r="K23">
-        <v>29.02023016202363</v>
+        <v>29.0202301620236</v>
       </c>
       <c r="L23">
-        <v>25.49028772010415</v>
+        <v>25.49028772010416</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.57784885945231</v>
+        <v>14.5778488594523</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.958238194553976</v>
+        <v>3.958238194553958</v>
       </c>
       <c r="E24">
-        <v>11.90648702053125</v>
+        <v>11.90648702053135</v>
       </c>
       <c r="F24">
-        <v>41.53589775935482</v>
+        <v>41.53589775935477</v>
       </c>
       <c r="G24">
-        <v>32.41472755590543</v>
+        <v>32.41472755590537</v>
       </c>
       <c r="H24">
-        <v>10.10421464907415</v>
+        <v>10.10421464907424</v>
       </c>
       <c r="I24">
-        <v>8.526366446874915</v>
+        <v>8.526366446875006</v>
       </c>
       <c r="J24">
-        <v>41.38646705021868</v>
+        <v>41.3864670502187</v>
       </c>
       <c r="K24">
-        <v>26.59755265333864</v>
+        <v>26.59755265333862</v>
       </c>
       <c r="L24">
-        <v>23.46536122918646</v>
+        <v>23.46536122918644</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1292,31 +1292,31 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.492438821695382</v>
+        <v>3.492438821695437</v>
       </c>
       <c r="E25">
         <v>11.14096717311449</v>
       </c>
       <c r="F25">
-        <v>37.310095021441</v>
+        <v>37.31009502144105</v>
       </c>
       <c r="G25">
-        <v>29.01338521128354</v>
+        <v>29.01338521128358</v>
       </c>
       <c r="H25">
-        <v>11.30644626789683</v>
+        <v>11.30644626789686</v>
       </c>
       <c r="I25">
-        <v>8.25721238848287</v>
+        <v>8.257212388482808</v>
       </c>
       <c r="J25">
-        <v>37.26801207003507</v>
+        <v>37.26801207003503</v>
       </c>
       <c r="K25">
         <v>23.8479655741152</v>
       </c>
       <c r="L25">
-        <v>21.15541837821186</v>
+        <v>21.15541837821187</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.08863487075616</v>
+        <v>12.08863487075619</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.14360701745043</v>
+        <v>3.143607017450484</v>
       </c>
       <c r="E2">
-        <v>10.56333079025811</v>
+        <v>10.56333079025795</v>
       </c>
       <c r="F2">
-        <v>34.35653822882087</v>
+        <v>34.35653822882082</v>
       </c>
       <c r="G2">
-        <v>26.79859111668505</v>
+        <v>26.79859111668501</v>
       </c>
       <c r="H2">
-        <v>12.20479936015193</v>
+        <v>12.20479936015189</v>
       </c>
       <c r="I2">
-        <v>8.061790003339921</v>
+        <v>8.061790003339771</v>
       </c>
       <c r="J2">
-        <v>34.0205303633369</v>
+        <v>34.02053036333693</v>
       </c>
       <c r="K2">
-        <v>21.68973430682642</v>
+        <v>21.6897343068265</v>
       </c>
       <c r="L2">
-        <v>19.33531075292829</v>
+        <v>19.33531075292837</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.28557155241278</v>
+        <v>11.28557155241281</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.901206103056445</v>
+        <v>2.901206103056523</v>
       </c>
       <c r="E3">
-        <v>10.16220277023047</v>
+        <v>10.16220277023046</v>
       </c>
       <c r="F3">
-        <v>32.354529523887</v>
+        <v>32.35452952388702</v>
       </c>
       <c r="G3">
-        <v>25.30986711579943</v>
+        <v>25.30986711579945</v>
       </c>
       <c r="H3">
         <v>12.82481511502324</v>
       </c>
       <c r="I3">
-        <v>7.930586747401394</v>
+        <v>7.930586747401359</v>
       </c>
       <c r="J3">
-        <v>31.67689493888419</v>
+        <v>31.67689493888414</v>
       </c>
       <c r="K3">
-        <v>20.13686440477342</v>
+        <v>20.13686440477337</v>
       </c>
       <c r="L3">
-        <v>18.02288652577782</v>
+        <v>18.02288652577779</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.76510605022281</v>
+        <v>10.76510605022278</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.748776654749395</v>
+        <v>2.748776654749437</v>
       </c>
       <c r="E4">
-        <v>9.911069638900601</v>
+        <v>9.911069638900546</v>
       </c>
       <c r="F4">
-        <v>31.12589321059099</v>
+        <v>31.12589321059098</v>
       </c>
       <c r="G4">
-        <v>24.4023748764906</v>
+        <v>24.40237487649058</v>
       </c>
       <c r="H4">
         <v>13.21197582612388</v>
       </c>
       <c r="I4">
-        <v>7.850540840909963</v>
+        <v>7.850540840909873</v>
       </c>
       <c r="J4">
-        <v>30.16504821880624</v>
+        <v>30.16504821880622</v>
       </c>
       <c r="K4">
-        <v>19.13694837892898</v>
+        <v>19.13694837892899</v>
       </c>
       <c r="L4">
-        <v>17.17689185117858</v>
+        <v>17.17689185117857</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.5460671820955</v>
+        <v>10.54606718209552</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.68567403924881</v>
+        <v>2.685674039248845</v>
       </c>
       <c r="E5">
-        <v>9.807526250894819</v>
+        <v>9.80752625089465</v>
       </c>
       <c r="F5">
         <v>30.62566150017119</v>
       </c>
       <c r="G5">
-        <v>24.03443018367165</v>
+        <v>24.03443018367164</v>
       </c>
       <c r="H5">
-        <v>13.37150604012272</v>
+        <v>13.37150604012268</v>
       </c>
       <c r="I5">
-        <v>7.818041872853887</v>
+        <v>7.818041872853736</v>
       </c>
       <c r="J5">
-        <v>29.53032444425844</v>
+        <v>29.53032444425838</v>
       </c>
       <c r="K5">
-        <v>18.71753270285128</v>
+        <v>18.71753270285125</v>
       </c>
       <c r="L5">
-        <v>16.82188622353255</v>
+        <v>16.82188622353256</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.50927488845011</v>
+        <v>10.50927488845016</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.675134097425807</v>
+        <v>2.675134097425717</v>
       </c>
       <c r="E6">
-        <v>9.790260914064659</v>
+        <v>9.790260914064822</v>
       </c>
       <c r="F6">
-        <v>30.54263695945465</v>
+        <v>30.5426369594546</v>
       </c>
       <c r="G6">
-        <v>23.97345399420551</v>
+        <v>23.97345399420549</v>
       </c>
       <c r="H6">
-        <v>13.3981059009201</v>
+        <v>13.39810590092006</v>
       </c>
       <c r="I6">
-        <v>7.812652534107841</v>
+        <v>7.812652534107993</v>
       </c>
       <c r="J6">
-        <v>29.42379498610884</v>
+        <v>29.42379498610885</v>
       </c>
       <c r="K6">
-        <v>18.64716051641829</v>
+        <v>18.64716051641826</v>
       </c>
       <c r="L6">
-        <v>16.76231419552893</v>
+        <v>16.76231419552892</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.76218020890233</v>
+        <v>10.7621802089023</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.747929726580729</v>
+        <v>2.747929726580836</v>
       </c>
       <c r="E7">
-        <v>9.909678064076873</v>
+        <v>9.909678064076969</v>
       </c>
       <c r="F7">
-        <v>31.11914459853483</v>
+        <v>31.11914459853488</v>
       </c>
       <c r="G7">
-        <v>24.39740474068838</v>
+        <v>24.39740474068843</v>
       </c>
       <c r="H7">
-        <v>13.21412001354589</v>
+        <v>13.21412001354612</v>
       </c>
       <c r="I7">
-        <v>7.850102069690286</v>
+        <v>7.850102069690312</v>
       </c>
       <c r="J7">
-        <v>30.15656395480447</v>
+        <v>30.15656395480443</v>
       </c>
       <c r="K7">
-        <v>19.1313406763479</v>
+        <v>19.13134067634786</v>
       </c>
       <c r="L7">
-        <v>17.17214583939726</v>
+        <v>17.17214583939721</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.81738330473741</v>
+        <v>11.8173833047374</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.06072024266497</v>
+        <v>3.060720242665012</v>
       </c>
       <c r="E8">
-        <v>10.42602727044158</v>
+        <v>10.42602727044142</v>
       </c>
       <c r="F8">
-        <v>33.66624879849325</v>
+        <v>33.66624879849333</v>
       </c>
       <c r="G8">
-        <v>26.28400265821498</v>
+        <v>26.28400265821503</v>
       </c>
       <c r="H8">
-        <v>12.4173201198426</v>
+        <v>12.41732011984264</v>
       </c>
       <c r="I8">
-        <v>8.016437955758091</v>
+        <v>8.016437955758033</v>
       </c>
       <c r="J8">
-        <v>33.22736239743647</v>
+        <v>33.22736239743638</v>
       </c>
       <c r="K8">
-        <v>21.16378032317362</v>
+        <v>21.16378032317356</v>
       </c>
       <c r="L8">
-        <v>18.89102074845913</v>
+        <v>18.89102074845908</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.67248112997366</v>
+        <v>13.67248112997367</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.649904646996831</v>
+        <v>3.64990464699664</v>
       </c>
       <c r="E9">
-        <v>11.40081921573358</v>
+        <v>11.40081921573354</v>
       </c>
       <c r="F9">
-        <v>38.66170398044365</v>
+        <v>38.6617039804437</v>
       </c>
       <c r="G9">
-        <v>30.07570673681369</v>
+        <v>30.07570673681372</v>
       </c>
       <c r="H9">
-        <v>10.89983016714419</v>
+        <v>10.89983016714426</v>
       </c>
       <c r="I9">
         <v>8.347366739243729</v>
       </c>
       <c r="J9">
-        <v>38.68745773888821</v>
+        <v>38.68745773888823</v>
       </c>
       <c r="K9">
-        <v>24.79394514759048</v>
+        <v>24.79394514759051</v>
       </c>
       <c r="L9">
-        <v>21.95139000092538</v>
+        <v>21.9513900009254</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.90982102358169</v>
+        <v>14.90982102358171</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.075134534098128</v>
+        <v>4.0751345340982</v>
       </c>
       <c r="E10">
-        <v>12.09682117629926</v>
+        <v>12.0968211762993</v>
       </c>
       <c r="F10">
-        <v>42.63240028198579</v>
+        <v>42.63240028198597</v>
       </c>
       <c r="G10">
-        <v>33.29657817751886</v>
+        <v>33.29657817751901</v>
       </c>
       <c r="H10">
-        <v>9.803431127359422</v>
+        <v>9.803431127359337</v>
       </c>
       <c r="I10">
-        <v>8.594866429398781</v>
+        <v>8.59486642939882</v>
       </c>
       <c r="J10">
-        <v>42.38266665858624</v>
+        <v>42.3826666585863</v>
       </c>
       <c r="K10">
-        <v>27.26497434936933</v>
+        <v>27.26497434936941</v>
       </c>
       <c r="L10">
-        <v>24.02426715838557</v>
+        <v>24.02426715838563</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.44673237877544</v>
+        <v>15.44673237877536</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.268886825058943</v>
+        <v>4.268886825058972</v>
       </c>
       <c r="E11">
-        <v>12.41034007402695</v>
+        <v>12.41034007402685</v>
       </c>
       <c r="F11">
-        <v>44.44267953928378</v>
+        <v>44.44267953928369</v>
       </c>
       <c r="G11">
-        <v>34.75107769170629</v>
+        <v>34.75107769170621</v>
       </c>
       <c r="H11">
-        <v>9.306800968043913</v>
+        <v>9.306800968044056</v>
       </c>
       <c r="I11">
-        <v>8.708929917512609</v>
+        <v>8.708929917512565</v>
       </c>
       <c r="J11">
-        <v>44.00201536343415</v>
+        <v>44.00201536343411</v>
       </c>
       <c r="K11">
-        <v>28.35197501226605</v>
+        <v>28.35197501226608</v>
       </c>
       <c r="L11">
-        <v>24.93283520528813</v>
+        <v>24.93283520528811</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.64643687304593</v>
+        <v>15.64643687304586</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.342502292365282</v>
+        <v>4.342502292365321</v>
       </c>
       <c r="E12">
-        <v>12.52877530839099</v>
+        <v>12.52877530839093</v>
       </c>
       <c r="F12">
-        <v>45.12782614041109</v>
+        <v>45.12782614041117</v>
       </c>
       <c r="G12">
-        <v>35.30117770738935</v>
+        <v>35.3011777073894</v>
       </c>
       <c r="H12">
-        <v>9.118920335840194</v>
+        <v>9.118920335840281</v>
       </c>
       <c r="I12">
-        <v>8.752396313556851</v>
+        <v>8.752396313556789</v>
       </c>
       <c r="J12">
-        <v>44.60705633237821</v>
+        <v>44.60705633237818</v>
       </c>
       <c r="K12">
-        <v>28.75879991072248</v>
+        <v>28.7587999107225</v>
       </c>
       <c r="L12">
-        <v>25.27230891270007</v>
+        <v>25.27230891270005</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.60358548068271</v>
+        <v>15.60358548068276</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.326633349326688</v>
+        <v>4.326633349326756</v>
       </c>
       <c r="E13">
-        <v>12.50327789692436</v>
+        <v>12.50327789692431</v>
       </c>
       <c r="F13">
-        <v>44.98026526931179</v>
+        <v>44.98026526931169</v>
       </c>
       <c r="G13">
-        <v>35.18271847606994</v>
+        <v>35.18271847606987</v>
       </c>
       <c r="H13">
-        <v>9.159377163246589</v>
+        <v>9.159377163246685</v>
       </c>
       <c r="I13">
-        <v>8.743021736018958</v>
+        <v>8.743021736018862</v>
       </c>
       <c r="J13">
-        <v>44.47710109438975</v>
+        <v>44.47710109438968</v>
       </c>
       <c r="K13">
-        <v>28.67138685077578</v>
+        <v>28.67138685077574</v>
       </c>
       <c r="L13">
-        <v>25.19939445114059</v>
+        <v>25.19939445114057</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.46323382788717</v>
+        <v>15.46323382788719</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -877,25 +877,25 @@
         <v>4.274937004294726</v>
       </c>
       <c r="E14">
-        <v>12.42008849245818</v>
+        <v>12.42008849245828</v>
       </c>
       <c r="F14">
         <v>44.49904770707281</v>
       </c>
       <c r="G14">
-        <v>34.79634286783241</v>
+        <v>34.79634286783243</v>
       </c>
       <c r="H14">
-        <v>9.291340811288197</v>
+        <v>9.291340811288199</v>
       </c>
       <c r="I14">
-        <v>8.71250003773025</v>
+        <v>8.712500037730306</v>
       </c>
       <c r="J14">
-        <v>44.051951840194</v>
+        <v>44.05195184019404</v>
       </c>
       <c r="K14">
-        <v>28.38553753900605</v>
+        <v>28.38553753900602</v>
       </c>
       <c r="L14">
         <v>24.96085341663895</v>
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.3767978525761</v>
+        <v>15.37679785257605</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.243310097510142</v>
+        <v>4.243310097510204</v>
       </c>
       <c r="E15">
-        <v>12.36910066371445</v>
+        <v>12.36910066371447</v>
       </c>
       <c r="F15">
-        <v>44.20427409673931</v>
+        <v>44.20427409673928</v>
       </c>
       <c r="G15">
-        <v>34.55961612432337</v>
+        <v>34.55961612432336</v>
       </c>
       <c r="H15">
-        <v>9.372193167536985</v>
+        <v>9.372193167537009</v>
       </c>
       <c r="I15">
-        <v>8.693842291419012</v>
+        <v>8.693842291418992</v>
       </c>
       <c r="J15">
         <v>43.79049397756587</v>
       </c>
       <c r="K15">
-        <v>28.20983900235173</v>
+        <v>28.20983900235177</v>
       </c>
       <c r="L15">
-        <v>24.81415540244983</v>
+        <v>24.81415540244984</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.87422017142477</v>
+        <v>14.87422017142475</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.062494983667921</v>
+        <v>4.062494983667932</v>
       </c>
       <c r="E16">
-        <v>12.07628204578446</v>
+        <v>12.07628204578451</v>
       </c>
       <c r="F16">
-        <v>42.51398341520875</v>
+        <v>42.51398341520877</v>
       </c>
       <c r="G16">
-        <v>33.20137583114981</v>
+        <v>33.20137583114984</v>
       </c>
       <c r="H16">
-        <v>9.835918465803793</v>
+        <v>9.835918465803832</v>
       </c>
       <c r="I16">
-        <v>8.587446599690175</v>
+        <v>8.587446599690168</v>
       </c>
       <c r="J16">
-        <v>42.27565482673413</v>
+        <v>42.27565482673414</v>
       </c>
       <c r="K16">
-        <v>27.19323378540112</v>
+        <v>27.19323378540114</v>
       </c>
       <c r="L16">
         <v>23.96422779483948</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.55933685075944</v>
+        <v>14.5593368507594</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.951782453906076</v>
+        <v>3.951782453905993</v>
       </c>
       <c r="E17">
         <v>11.89595148820507</v>
@@ -1003,16 +1003,16 @@
         <v>10.12084498122276</v>
       </c>
       <c r="I17">
-        <v>8.522591992783973</v>
+        <v>8.522591992783969</v>
       </c>
       <c r="J17">
-        <v>41.33102346231895</v>
+        <v>41.3310234623189</v>
       </c>
       <c r="K17">
-        <v>26.56043518047487</v>
+        <v>26.56043518047485</v>
       </c>
       <c r="L17">
-        <v>23.43425643536979</v>
+        <v>23.43425643536976</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.37577260526318</v>
+        <v>14.37577260526316</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.888119039327375</v>
+        <v>3.88811903932732</v>
       </c>
       <c r="E18">
         <v>11.79192661780001</v>
       </c>
       <c r="F18">
-        <v>40.87685849951326</v>
+        <v>40.87685849951339</v>
       </c>
       <c r="G18">
-        <v>31.88434865769347</v>
+        <v>31.88434865769355</v>
       </c>
       <c r="H18">
-        <v>10.28493345235236</v>
+        <v>10.28493345235229</v>
       </c>
       <c r="I18">
-        <v>8.485423559289011</v>
+        <v>8.485423559289073</v>
       </c>
       <c r="J18">
-        <v>40.78184913645353</v>
+        <v>40.78184913645358</v>
       </c>
       <c r="K18">
-        <v>26.19293924380418</v>
+        <v>26.19293924380425</v>
       </c>
       <c r="L18">
-        <v>23.12616852193673</v>
+        <v>23.12616852193675</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.31319640463027</v>
+        <v>14.31319640463026</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.866560836861438</v>
+        <v>3.866560836861371</v>
       </c>
       <c r="E19">
         <v>11.75664943624228</v>
       </c>
       <c r="F19">
-        <v>40.6740607465921</v>
+        <v>40.67406074659207</v>
       </c>
       <c r="G19">
-        <v>31.72108432445672</v>
+        <v>31.72108432445669</v>
       </c>
       <c r="H19">
         <v>10.3405307534938</v>
       </c>
       <c r="I19">
-        <v>8.472860440799055</v>
+        <v>8.472860440799151</v>
       </c>
       <c r="J19">
-        <v>40.5948846593416</v>
+        <v>40.59488465934159</v>
       </c>
       <c r="K19">
-        <v>26.06789078349888</v>
+        <v>26.06789078349889</v>
       </c>
       <c r="L19">
         <v>23.02128478257375</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.59310963431281</v>
+        <v>14.59310963431277</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.963565050506367</v>
+        <v>3.963565050506305</v>
       </c>
       <c r="E20">
         <v>11.91517840875755</v>
       </c>
       <c r="F20">
-        <v>41.5859262034189</v>
+        <v>41.58592620341891</v>
       </c>
       <c r="G20">
-        <v>32.45497795821458</v>
+        <v>32.45497795821456</v>
       </c>
       <c r="H20">
-        <v>10.09049373324217</v>
+        <v>10.09049373324227</v>
       </c>
       <c r="I20">
-        <v>8.529481599137261</v>
+        <v>8.529481599137263</v>
       </c>
       <c r="J20">
-        <v>41.43218162762569</v>
+        <v>41.43218162762565</v>
       </c>
       <c r="K20">
-        <v>26.62815909983803</v>
+        <v>26.62815909983801</v>
       </c>
       <c r="L20">
-        <v>23.4910079885679</v>
+        <v>23.49100798856788</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.50455549569577</v>
+        <v>15.50455549569578</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.290113016893185</v>
+        <v>4.290113016893196</v>
       </c>
       <c r="E21">
         <v>12.44452953438048</v>
       </c>
       <c r="F21">
-        <v>44.6403937293955</v>
+        <v>44.64039372939547</v>
       </c>
       <c r="G21">
-        <v>34.90984152845959</v>
+        <v>34.90984152845957</v>
       </c>
       <c r="H21">
-        <v>9.252575705652077</v>
+        <v>9.252575705652081</v>
       </c>
       <c r="I21">
         <v>8.721457013615368</v>
       </c>
       <c r="J21">
-        <v>44.17704416302834</v>
+        <v>44.17704416302832</v>
       </c>
       <c r="K21">
-        <v>28.46962394864058</v>
+        <v>28.46962394864056</v>
       </c>
       <c r="L21">
-        <v>25.03103981988157</v>
+        <v>25.03103981988156</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.07925254438844</v>
+        <v>16.07925254438848</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.505085580093889</v>
+        <v>4.50508558009389</v>
       </c>
       <c r="E22">
-        <v>12.78892657472334</v>
+        <v>12.78892657472333</v>
       </c>
       <c r="F22">
-        <v>46.63519180617448</v>
+        <v>46.63519180617443</v>
       </c>
       <c r="G22">
-        <v>36.51079171745231</v>
+        <v>36.51079171745227</v>
       </c>
       <c r="H22">
-        <v>8.705993125343909</v>
+        <v>8.705993125343767</v>
       </c>
       <c r="I22">
-        <v>8.848557872198571</v>
+        <v>8.848557872198485</v>
       </c>
       <c r="J22">
         <v>45.92375310467708</v>
       </c>
       <c r="K22">
-        <v>29.64547357183145</v>
+        <v>29.64547357183143</v>
       </c>
       <c r="L22">
-        <v>26.01105336998526</v>
+        <v>26.01105336998527</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.77440151588715</v>
+        <v>15.77440151588712</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.390131669383263</v>
+        <v>4.390131669383313</v>
       </c>
       <c r="E23">
-        <v>12.60519274514744</v>
+        <v>12.60519274514747</v>
       </c>
       <c r="F23">
-        <v>45.57026627588846</v>
+        <v>45.57026627588849</v>
       </c>
       <c r="G23">
-        <v>35.65630903325822</v>
+        <v>35.65630903325826</v>
       </c>
       <c r="H23">
-        <v>8.997646385670643</v>
+        <v>8.997646385670716</v>
       </c>
       <c r="I23">
-        <v>8.780547102232283</v>
+        <v>8.780547102232301</v>
       </c>
       <c r="J23">
-        <v>44.995561919498</v>
+        <v>44.99556191949801</v>
       </c>
       <c r="K23">
-        <v>29.0202301620236</v>
+        <v>29.02023016202363</v>
       </c>
       <c r="L23">
-        <v>25.49028772010416</v>
+        <v>25.49028772010415</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.5778488594523</v>
+        <v>14.57784885945231</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.958238194553958</v>
+        <v>3.958238194553976</v>
       </c>
       <c r="E24">
-        <v>11.90648702053135</v>
+        <v>11.90648702053125</v>
       </c>
       <c r="F24">
-        <v>41.53589775935477</v>
+        <v>41.53589775935482</v>
       </c>
       <c r="G24">
-        <v>32.41472755590537</v>
+        <v>32.41472755590543</v>
       </c>
       <c r="H24">
-        <v>10.10421464907424</v>
+        <v>10.10421464907415</v>
       </c>
       <c r="I24">
-        <v>8.526366446875006</v>
+        <v>8.526366446874915</v>
       </c>
       <c r="J24">
-        <v>41.3864670502187</v>
+        <v>41.38646705021868</v>
       </c>
       <c r="K24">
-        <v>26.59755265333862</v>
+        <v>26.59755265333864</v>
       </c>
       <c r="L24">
-        <v>23.46536122918644</v>
+        <v>23.46536122918646</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1292,31 +1292,31 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.492438821695437</v>
+        <v>3.492438821695382</v>
       </c>
       <c r="E25">
         <v>11.14096717311449</v>
       </c>
       <c r="F25">
-        <v>37.31009502144105</v>
+        <v>37.310095021441</v>
       </c>
       <c r="G25">
-        <v>29.01338521128358</v>
+        <v>29.01338521128354</v>
       </c>
       <c r="H25">
-        <v>11.30644626789686</v>
+        <v>11.30644626789683</v>
       </c>
       <c r="I25">
-        <v>8.257212388482808</v>
+        <v>8.25721238848287</v>
       </c>
       <c r="J25">
-        <v>37.26801207003503</v>
+        <v>37.26801207003507</v>
       </c>
       <c r="K25">
         <v>23.8479655741152</v>
       </c>
       <c r="L25">
-        <v>21.15541837821187</v>
+        <v>21.15541837821186</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.08863487075619</v>
+        <v>12.09055160475126</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.143607017450484</v>
+        <v>3.137811461082959</v>
       </c>
       <c r="E2">
-        <v>10.56333079025795</v>
+        <v>10.55780614904345</v>
       </c>
       <c r="F2">
-        <v>34.35653822882082</v>
+        <v>34.32959037510173</v>
       </c>
       <c r="G2">
-        <v>26.79859111668501</v>
+        <v>26.36861981252273</v>
       </c>
       <c r="H2">
-        <v>12.20479936015189</v>
+        <v>26.83941037612957</v>
       </c>
       <c r="I2">
-        <v>8.061790003339771</v>
+        <v>12.2026250511201</v>
       </c>
       <c r="J2">
-        <v>34.02053036333693</v>
+        <v>8.060185054740385</v>
       </c>
       <c r="K2">
-        <v>21.6897343068265</v>
+        <v>34.01169434626298</v>
       </c>
       <c r="L2">
-        <v>19.33531075292837</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>21.68405536572948</v>
+      </c>
+      <c r="M2">
+        <v>19.33248464478583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.28557155241281</v>
+        <v>11.28740394411127</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.901206103056523</v>
+        <v>2.895991537201088</v>
       </c>
       <c r="E3">
-        <v>10.16220277023046</v>
+        <v>10.15751643047782</v>
       </c>
       <c r="F3">
-        <v>32.35452952388702</v>
+        <v>32.32964624107853</v>
       </c>
       <c r="G3">
-        <v>25.30986711579945</v>
+        <v>24.6232568308174</v>
       </c>
       <c r="H3">
-        <v>12.82481511502324</v>
+        <v>25.34854465450946</v>
       </c>
       <c r="I3">
-        <v>7.930586747401359</v>
+        <v>12.82267283152863</v>
       </c>
       <c r="J3">
-        <v>31.67689493888414</v>
+        <v>7.929294937393064</v>
       </c>
       <c r="K3">
-        <v>20.13686440477337</v>
+        <v>31.66901075124171</v>
       </c>
       <c r="L3">
-        <v>18.02288652577779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>20.13176950471672</v>
+      </c>
+      <c r="M3">
+        <v>18.02042203768114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.76510605022278</v>
+        <v>10.76688022154605</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.748776654749437</v>
+        <v>2.743932778818607</v>
       </c>
       <c r="E4">
-        <v>9.911069638900546</v>
+        <v>9.906919705535907</v>
       </c>
       <c r="F4">
-        <v>31.12589321059098</v>
+        <v>31.10228473182136</v>
       </c>
       <c r="G4">
-        <v>24.40237487649058</v>
+        <v>23.53940356709342</v>
       </c>
       <c r="H4">
-        <v>13.21197582612388</v>
+        <v>24.43974580965165</v>
       </c>
       <c r="I4">
-        <v>7.850540840909873</v>
+        <v>13.20984259784202</v>
       </c>
       <c r="J4">
-        <v>30.16504821880622</v>
+        <v>7.849446621162401</v>
       </c>
       <c r="K4">
-        <v>19.13694837892899</v>
+        <v>30.15775460296949</v>
       </c>
       <c r="L4">
-        <v>17.17689185117857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>19.13221061073599</v>
+      </c>
+      <c r="M4">
+        <v>17.17464932302346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.54606718209552</v>
+        <v>10.54781608060685</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.685674039248845</v>
+        <v>2.680985068200483</v>
       </c>
       <c r="E5">
-        <v>9.80752625089465</v>
+        <v>9.803600643527446</v>
       </c>
       <c r="F5">
-        <v>30.62566150017119</v>
+        <v>30.60257499840805</v>
       </c>
       <c r="G5">
-        <v>24.03443018367164</v>
+        <v>23.0948217107272</v>
       </c>
       <c r="H5">
-        <v>13.37150604012268</v>
+        <v>24.0712719071133</v>
       </c>
       <c r="I5">
-        <v>7.818041872853736</v>
+        <v>13.36937435902896</v>
       </c>
       <c r="J5">
-        <v>29.53032444425838</v>
+        <v>7.817029597547942</v>
       </c>
       <c r="K5">
-        <v>18.71753270285125</v>
+        <v>29.52327391526746</v>
       </c>
       <c r="L5">
-        <v>16.82188622353256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>18.71294060855002</v>
+      </c>
+      <c r="M5">
+        <v>16.81973453638122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.50927488845016</v>
+        <v>10.511019498855</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.675134097425717</v>
+        <v>2.670471090084777</v>
       </c>
       <c r="E6">
-        <v>9.790260914064822</v>
+        <v>9.786372909144497</v>
       </c>
       <c r="F6">
-        <v>30.5426369594546</v>
+        <v>30.51963729624009</v>
       </c>
       <c r="G6">
-        <v>23.97345399420549</v>
+        <v>23.02083148045343</v>
       </c>
       <c r="H6">
-        <v>13.39810590092006</v>
+        <v>24.01020807288199</v>
       </c>
       <c r="I6">
-        <v>7.812652534107993</v>
+        <v>13.39597436029497</v>
       </c>
       <c r="J6">
-        <v>29.42379498610885</v>
+        <v>7.811653953768281</v>
       </c>
       <c r="K6">
-        <v>18.64716051641826</v>
+        <v>29.41678499249971</v>
       </c>
       <c r="L6">
-        <v>16.76231419552892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>18.64259263325789</v>
+      </c>
+      <c r="M6">
+        <v>16.76017762747987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.7621802089023</v>
+        <v>10.76395404556699</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.747929726580836</v>
+        <v>2.743087923745147</v>
       </c>
       <c r="E7">
-        <v>9.909678064076969</v>
+        <v>9.905531132505864</v>
       </c>
       <c r="F7">
-        <v>31.11914459853488</v>
+        <v>31.09554314857125</v>
       </c>
       <c r="G7">
-        <v>24.39740474068843</v>
+        <v>23.53341921288087</v>
       </c>
       <c r="H7">
-        <v>13.21412001354612</v>
+        <v>24.43476852207418</v>
       </c>
       <c r="I7">
-        <v>7.850102069690312</v>
+        <v>13.2119868142047</v>
       </c>
       <c r="J7">
-        <v>30.15656395480443</v>
+        <v>7.849008949207054</v>
       </c>
       <c r="K7">
-        <v>19.13134067634786</v>
+        <v>30.14927360638891</v>
       </c>
       <c r="L7">
-        <v>17.17214583939721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>19.12660487157222</v>
+      </c>
+      <c r="M7">
+        <v>17.16990453425429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.8173833047374</v>
+        <v>11.81927233815026</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.060720242665012</v>
+        <v>3.055122321281749</v>
       </c>
       <c r="E8">
-        <v>10.42602727044142</v>
+        <v>10.42078736879789</v>
       </c>
       <c r="F8">
-        <v>33.66624879849333</v>
+        <v>33.64001182930171</v>
       </c>
       <c r="G8">
-        <v>26.28400265821503</v>
+        <v>25.76940187267974</v>
       </c>
       <c r="H8">
-        <v>12.41732011984264</v>
+        <v>26.32408235879405</v>
       </c>
       <c r="I8">
-        <v>8.016437955758033</v>
+        <v>12.4151594148011</v>
       </c>
       <c r="J8">
-        <v>33.22736239743638</v>
+        <v>8.014939932530405</v>
       </c>
       <c r="K8">
-        <v>21.16378032317356</v>
+        <v>33.21885384657026</v>
       </c>
       <c r="L8">
-        <v>18.89102074845908</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>21.15830339399428</v>
+      </c>
+      <c r="M8">
+        <v>18.8883195998738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.67248112997367</v>
+        <v>13.67454125198058</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.64990464699664</v>
+        <v>3.64291851977684</v>
       </c>
       <c r="E9">
-        <v>11.40081921573354</v>
+        <v>11.39359101087021</v>
       </c>
       <c r="F9">
-        <v>38.6617039804437</v>
+        <v>38.63030780736398</v>
       </c>
       <c r="G9">
-        <v>30.07570673681372</v>
+        <v>30.12155546965469</v>
       </c>
       <c r="H9">
-        <v>10.89983016714426</v>
+        <v>30.07844695610384</v>
       </c>
       <c r="I9">
-        <v>8.347366739243729</v>
+        <v>10.89749831157167</v>
       </c>
       <c r="J9">
-        <v>38.68745773888823</v>
+        <v>8.345111543181503</v>
       </c>
       <c r="K9">
-        <v>24.79394514759051</v>
+        <v>38.67656486002094</v>
       </c>
       <c r="L9">
-        <v>21.9513900009254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>24.78697586921243</v>
+      </c>
+      <c r="M9">
+        <v>21.94776582040326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.90982102358171</v>
+        <v>14.91196693412407</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.0751345340982</v>
+        <v>4.067160525538402</v>
       </c>
       <c r="E10">
-        <v>12.0968211762993</v>
+        <v>12.08819554127604</v>
       </c>
       <c r="F10">
-        <v>42.63240028198597</v>
+        <v>42.5961282650313</v>
       </c>
       <c r="G10">
-        <v>33.29657817751901</v>
+        <v>33.34675806533356</v>
       </c>
       <c r="H10">
-        <v>9.803431127359337</v>
+        <v>33.16360889693212</v>
       </c>
       <c r="I10">
-        <v>8.59486642939882</v>
+        <v>9.800833237968156</v>
       </c>
       <c r="J10">
-        <v>42.3826666585863</v>
+        <v>8.592067032962216</v>
       </c>
       <c r="K10">
-        <v>27.26497434936941</v>
+        <v>42.369952506369</v>
       </c>
       <c r="L10">
-        <v>24.02426715838563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>27.2568379403841</v>
+      </c>
+      <c r="M10">
+        <v>24.01991790969753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.44673237877536</v>
+        <v>15.44890670304297</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.268886825058972</v>
+        <v>4.260463320274295</v>
       </c>
       <c r="E11">
-        <v>12.41034007402685</v>
+        <v>12.40108297745001</v>
       </c>
       <c r="F11">
-        <v>44.44267953928369</v>
+        <v>44.40459084626711</v>
       </c>
       <c r="G11">
-        <v>34.75107769170621</v>
+        <v>34.80317355714282</v>
       </c>
       <c r="H11">
-        <v>9.306800968044056</v>
+        <v>34.57280530460322</v>
       </c>
       <c r="I11">
-        <v>8.708929917512565</v>
+        <v>9.304025693858854</v>
       </c>
       <c r="J11">
-        <v>44.00201536343411</v>
+        <v>8.705882204022936</v>
       </c>
       <c r="K11">
-        <v>28.35197501226608</v>
+        <v>43.98843700593952</v>
       </c>
       <c r="L11">
-        <v>24.93283520528811</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>28.34327839326408</v>
+      </c>
+      <c r="M11">
+        <v>24.92813621798246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.64643687304586</v>
+        <v>15.64862021464234</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.342502292365321</v>
+        <v>4.333907815877554</v>
       </c>
       <c r="E12">
-        <v>12.52877530839093</v>
+        <v>12.51927866070367</v>
       </c>
       <c r="F12">
-        <v>45.12782614041117</v>
+        <v>45.08903816670484</v>
       </c>
       <c r="G12">
-        <v>35.3011777073894</v>
+        <v>35.35399022085562</v>
       </c>
       <c r="H12">
-        <v>9.118920335840281</v>
+        <v>35.10671461185331</v>
       </c>
       <c r="I12">
-        <v>8.752396313556789</v>
+        <v>9.116066339703821</v>
       </c>
       <c r="J12">
-        <v>44.60705633237818</v>
+        <v>8.749254072544774</v>
       </c>
       <c r="K12">
-        <v>28.7587999107225</v>
+        <v>44.59314337576613</v>
       </c>
       <c r="L12">
-        <v>25.27230891270005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>28.74988541988584</v>
+      </c>
+      <c r="M12">
+        <v>25.26747357952996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.60358548068276</v>
+        <v>15.60576696177966</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.326633349326756</v>
+        <v>4.318075741997951</v>
       </c>
       <c r="E13">
-        <v>12.50327789692431</v>
+        <v>12.49383287930308</v>
       </c>
       <c r="F13">
-        <v>44.98026526931169</v>
+        <v>44.94162847158147</v>
       </c>
       <c r="G13">
-        <v>35.18271847606987</v>
+        <v>35.23537706197731</v>
       </c>
       <c r="H13">
-        <v>9.159377163246685</v>
+        <v>34.99170051210143</v>
       </c>
       <c r="I13">
-        <v>8.743021736018862</v>
+        <v>9.156540706096441</v>
       </c>
       <c r="J13">
-        <v>44.47710109438968</v>
+        <v>8.739899882553475</v>
       </c>
       <c r="K13">
-        <v>28.67138685077574</v>
+        <v>44.46326056719941</v>
       </c>
       <c r="L13">
-        <v>25.19939445114057</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>28.66251956587407</v>
+      </c>
+      <c r="M13">
+        <v>25.19458867566403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.46323382788719</v>
+        <v>15.46540893037407</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.274937004294726</v>
+        <v>4.266499453600703</v>
       </c>
       <c r="E14">
-        <v>12.42008849245828</v>
+        <v>12.41081170335471</v>
       </c>
       <c r="F14">
-        <v>44.49904770707281</v>
+        <v>44.46090173561053</v>
       </c>
       <c r="G14">
-        <v>34.79634286783243</v>
+        <v>34.84849787764659</v>
       </c>
       <c r="H14">
-        <v>9.291340811288199</v>
+        <v>34.616719517383</v>
       </c>
       <c r="I14">
-        <v>8.712500037730306</v>
+        <v>9.28855931713597</v>
       </c>
       <c r="J14">
-        <v>44.05195184019404</v>
+        <v>8.709444559930121</v>
       </c>
       <c r="K14">
-        <v>28.38553753900602</v>
+        <v>44.0383461167447</v>
       </c>
       <c r="L14">
-        <v>24.96085341663895</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>28.37682312052902</v>
+      </c>
+      <c r="M14">
+        <v>24.95614329727861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.37679785257605</v>
+        <v>15.37896881370973</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.243310097510204</v>
+        <v>4.234945961454217</v>
       </c>
       <c r="E15">
-        <v>12.36910066371447</v>
+        <v>12.35992682823892</v>
       </c>
       <c r="F15">
-        <v>44.20427409673928</v>
+        <v>44.16642716808659</v>
       </c>
       <c r="G15">
-        <v>34.55961612432336</v>
+        <v>34.61146148486687</v>
       </c>
       <c r="H15">
-        <v>9.372193167537009</v>
+        <v>34.38709590358103</v>
       </c>
       <c r="I15">
-        <v>8.693842291418992</v>
+        <v>9.369443708384987</v>
       </c>
       <c r="J15">
-        <v>43.79049397756587</v>
+        <v>8.690827392834843</v>
       </c>
       <c r="K15">
-        <v>28.20983900235177</v>
+        <v>43.77703104735734</v>
       </c>
       <c r="L15">
-        <v>24.81415540244984</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>28.20121742079703</v>
+      </c>
+      <c r="M15">
+        <v>24.80950333106167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.87422017142475</v>
+        <v>14.87636399424142</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.062494983667932</v>
+        <v>4.054550288868473</v>
       </c>
       <c r="E16">
-        <v>12.07628204578451</v>
+        <v>12.0676976801747</v>
       </c>
       <c r="F16">
-        <v>42.51398341520877</v>
+        <v>42.47782875496405</v>
       </c>
       <c r="G16">
-        <v>33.20137583114984</v>
+        <v>33.25142932552732</v>
       </c>
       <c r="H16">
-        <v>9.835918465803832</v>
+        <v>33.07150595844745</v>
       </c>
       <c r="I16">
-        <v>8.587446599690168</v>
+        <v>9.83333077167001</v>
       </c>
       <c r="J16">
-        <v>42.27565482673414</v>
+        <v>8.584663385445765</v>
       </c>
       <c r="K16">
-        <v>27.19323378540114</v>
+        <v>42.26299625652562</v>
       </c>
       <c r="L16">
-        <v>23.96422779483948</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>27.18513327645792</v>
+      </c>
+      <c r="M16">
+        <v>23.95990091799595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.5593368507594</v>
+        <v>14.56146116943431</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.951782453905993</v>
+        <v>3.944094567003457</v>
       </c>
       <c r="E17">
-        <v>11.89595148820507</v>
+        <v>11.88772916296543</v>
       </c>
       <c r="F17">
-        <v>41.47525969172161</v>
+        <v>41.44012716967399</v>
       </c>
       <c r="G17">
-        <v>32.36593909238349</v>
+        <v>32.41487872674814</v>
       </c>
       <c r="H17">
-        <v>10.12084498122276</v>
+        <v>32.26402672229501</v>
       </c>
       <c r="I17">
-        <v>8.522591992783969</v>
+        <v>10.11834005208243</v>
       </c>
       <c r="J17">
-        <v>41.3310234623189</v>
+        <v>8.519950472112754</v>
       </c>
       <c r="K17">
-        <v>26.56043518047485</v>
+        <v>41.31884777813303</v>
       </c>
       <c r="L17">
-        <v>23.43425643536976</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>26.55264586181153</v>
+      </c>
+      <c r="M17">
+        <v>23.43012328666637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.37577260526316</v>
+        <v>14.37788472250342</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.88811903932732</v>
+        <v>3.880578904304784</v>
       </c>
       <c r="E18">
-        <v>11.79192661780001</v>
+        <v>11.7839130022319</v>
       </c>
       <c r="F18">
-        <v>40.87685849951339</v>
+        <v>40.84230911654057</v>
       </c>
       <c r="G18">
-        <v>31.88434865769355</v>
+        <v>31.93264259371731</v>
       </c>
       <c r="H18">
-        <v>10.28493345235229</v>
+        <v>31.7991991330716</v>
       </c>
       <c r="I18">
-        <v>8.485423559289073</v>
+        <v>10.28247109296246</v>
       </c>
       <c r="J18">
-        <v>40.78184913645358</v>
+        <v>8.482863494199552</v>
       </c>
       <c r="K18">
-        <v>26.19293924380425</v>
+        <v>40.76994799321919</v>
       </c>
       <c r="L18">
-        <v>23.12616852193675</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>26.18532626768608</v>
+      </c>
+      <c r="M18">
+        <v>23.12214500210812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.31319640463026</v>
+        <v>14.31530422755992</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.866560836861371</v>
+        <v>3.859070755489316</v>
       </c>
       <c r="E19">
-        <v>11.75664943624228</v>
+        <v>11.74870659533395</v>
       </c>
       <c r="F19">
-        <v>40.67406074659207</v>
+        <v>40.63970808202208</v>
       </c>
       <c r="G19">
-        <v>31.72108432445669</v>
+        <v>31.7691588027429</v>
       </c>
       <c r="H19">
-        <v>10.3405307534938</v>
+        <v>31.64172993785681</v>
       </c>
       <c r="I19">
-        <v>8.472860440799151</v>
+        <v>10.33808202610582</v>
       </c>
       <c r="J19">
-        <v>40.59488465934159</v>
+        <v>8.470327957939276</v>
       </c>
       <c r="K19">
-        <v>26.06789078349889</v>
+        <v>40.58307598031393</v>
       </c>
       <c r="L19">
-        <v>23.02128478257375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>26.06033710011923</v>
+      </c>
+      <c r="M19">
+        <v>23.01729810036716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.59310963431277</v>
+        <v>14.59523613238849</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.963565050506305</v>
+        <v>3.955849826401001</v>
       </c>
       <c r="E20">
-        <v>11.91517840875755</v>
+        <v>11.90691750144058</v>
       </c>
       <c r="F20">
-        <v>41.58592620341891</v>
+        <v>41.55068538994184</v>
       </c>
       <c r="G20">
-        <v>32.45497795821456</v>
+        <v>32.50403669315644</v>
       </c>
       <c r="H20">
-        <v>10.09049373324227</v>
+        <v>32.35001938111907</v>
       </c>
       <c r="I20">
-        <v>8.529481599137263</v>
+        <v>10.08798053523427</v>
       </c>
       <c r="J20">
-        <v>41.43218162762565</v>
+        <v>8.526825001842868</v>
       </c>
       <c r="K20">
-        <v>26.62815909983801</v>
+        <v>41.41995488523412</v>
       </c>
       <c r="L20">
-        <v>23.49100798856788</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>26.62033693814725</v>
+      </c>
+      <c r="M20">
+        <v>23.48685441011379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.50455549569578</v>
+        <v>15.50673252102456</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.290113016893196</v>
+        <v>4.281640229969453</v>
       </c>
       <c r="E21">
-        <v>12.44452953438048</v>
+        <v>12.4352033537139</v>
       </c>
       <c r="F21">
-        <v>44.64039372939547</v>
+        <v>44.60210393225831</v>
       </c>
       <c r="G21">
-        <v>34.90984152845957</v>
+        <v>34.96214470200615</v>
       </c>
       <c r="H21">
-        <v>9.252575705652081</v>
+        <v>34.72684566460417</v>
       </c>
       <c r="I21">
-        <v>8.721457013615368</v>
+        <v>9.249778415876145</v>
       </c>
       <c r="J21">
-        <v>44.17704416302832</v>
+        <v>8.71838205673312</v>
       </c>
       <c r="K21">
-        <v>28.46962394864056</v>
+        <v>44.16336969156715</v>
       </c>
       <c r="L21">
-        <v>25.03103981988156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>28.46086479920227</v>
+      </c>
+      <c r="M21">
+        <v>25.02630171963808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.07925254438848</v>
+        <v>16.08145229210543</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.50508558009389</v>
+        <v>4.496112789410426</v>
       </c>
       <c r="E22">
-        <v>12.78892657472333</v>
+        <v>12.77890098681306</v>
       </c>
       <c r="F22">
-        <v>46.63519180617443</v>
+        <v>46.59484073145846</v>
       </c>
       <c r="G22">
-        <v>36.51079171745227</v>
+        <v>36.56516277551343</v>
       </c>
       <c r="H22">
-        <v>8.705993125343767</v>
+        <v>36.28238773177159</v>
       </c>
       <c r="I22">
-        <v>8.848557872198485</v>
+        <v>8.702940020083092</v>
       </c>
       <c r="J22">
-        <v>45.92375310467708</v>
+        <v>8.845206342311135</v>
       </c>
       <c r="K22">
-        <v>29.64547357183143</v>
+        <v>45.90908821449872</v>
       </c>
       <c r="L22">
-        <v>26.01105336998527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>29.63606762698347</v>
+      </c>
+      <c r="M22">
+        <v>26.00590979139602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.77440151588712</v>
+        <v>15.77659016572666</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.390131669383313</v>
+        <v>4.381426480415733</v>
       </c>
       <c r="E23">
-        <v>12.60519274514747</v>
+        <v>12.59554114970086</v>
       </c>
       <c r="F23">
-        <v>45.57026627588849</v>
+        <v>45.53102309847444</v>
       </c>
       <c r="G23">
-        <v>35.65630903325826</v>
+        <v>35.70958166298283</v>
       </c>
       <c r="H23">
-        <v>8.997646385670716</v>
+        <v>35.45165042699118</v>
       </c>
       <c r="I23">
-        <v>8.780547102232301</v>
+        <v>8.994737796576029</v>
       </c>
       <c r="J23">
-        <v>44.99556191949801</v>
+        <v>8.777343630520805</v>
       </c>
       <c r="K23">
-        <v>29.02023016202363</v>
+        <v>44.9814305596672</v>
       </c>
       <c r="L23">
-        <v>25.49028772010415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>29.01117318245479</v>
+      </c>
+      <c r="M23">
+        <v>25.48536311509161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.57784885945231</v>
+        <v>14.57997437528435</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.958238194553976</v>
+        <v>3.950535329200778</v>
       </c>
       <c r="E24">
-        <v>11.90648702053125</v>
+        <v>11.89824355432604</v>
       </c>
       <c r="F24">
-        <v>41.53589775935482</v>
+        <v>41.50070591818329</v>
       </c>
       <c r="G24">
-        <v>32.41472755590543</v>
+        <v>32.46373246186594</v>
       </c>
       <c r="H24">
-        <v>10.10421464907415</v>
+        <v>32.31114401525865</v>
       </c>
       <c r="I24">
-        <v>8.526366446874915</v>
+        <v>10.10170520479614</v>
       </c>
       <c r="J24">
-        <v>41.38646705021868</v>
+        <v>8.523716665712456</v>
       </c>
       <c r="K24">
-        <v>26.59755265333864</v>
+        <v>41.37426340066263</v>
       </c>
       <c r="L24">
-        <v>23.46536122918646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>26.5897453478582</v>
+      </c>
+      <c r="M24">
+        <v>23.46121689239112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.19307952042139</v>
+        <v>13.19509981639214</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.492438821695382</v>
+        <v>3.485820547726521</v>
       </c>
       <c r="E25">
-        <v>11.14096717311449</v>
+        <v>11.1342630398658</v>
       </c>
       <c r="F25">
-        <v>37.310095021441</v>
+        <v>37.28010174821769</v>
       </c>
       <c r="G25">
-        <v>29.01338521128354</v>
+        <v>28.91980488197486</v>
       </c>
       <c r="H25">
-        <v>11.30644626789683</v>
+        <v>29.05736904267683</v>
       </c>
       <c r="I25">
-        <v>8.25721238848287</v>
+        <v>11.30417889387429</v>
       </c>
       <c r="J25">
-        <v>37.26801207003507</v>
+        <v>8.255158981723126</v>
       </c>
       <c r="K25">
-        <v>23.8479655741152</v>
+        <v>37.2577704670915</v>
       </c>
       <c r="L25">
-        <v>21.15541837821186</v>
+        <v>23.84140847374315</v>
+      </c>
+      <c r="M25">
+        <v>21.15204933947991</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.09055160475126</v>
+        <v>17.02583029364394</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.137811461082959</v>
+        <v>6.102480724768656</v>
       </c>
       <c r="E2">
-        <v>10.55780614904345</v>
+        <v>11.41082902200423</v>
       </c>
       <c r="F2">
-        <v>34.32959037510173</v>
+        <v>36.30956508319483</v>
       </c>
       <c r="G2">
-        <v>26.36861981252273</v>
+        <v>2.097530435873852</v>
       </c>
       <c r="H2">
-        <v>26.83941037612957</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>12.2026250511201</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.060185054740385</v>
+        <v>7.831224517791631</v>
       </c>
       <c r="K2">
-        <v>34.01169434626298</v>
+        <v>24.20374617748986</v>
       </c>
       <c r="L2">
-        <v>21.68405536572948</v>
+        <v>9.870264732451577</v>
       </c>
       <c r="M2">
-        <v>19.33248464478583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.98790378932935</v>
+      </c>
+      <c r="N2">
+        <v>14.34100066439141</v>
+      </c>
+      <c r="O2">
+        <v>28.67107276356454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.28740394411127</v>
+        <v>16.20007003047497</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.895991537201088</v>
+        <v>5.777081879470523</v>
       </c>
       <c r="E3">
-        <v>10.15751643047782</v>
+        <v>10.95952335771534</v>
       </c>
       <c r="F3">
-        <v>32.32964624107853</v>
+        <v>35.27224358726366</v>
       </c>
       <c r="G3">
-        <v>24.6232568308174</v>
+        <v>2.108597954801053</v>
       </c>
       <c r="H3">
-        <v>25.34854465450946</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.82267283152863</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.929294937393064</v>
+        <v>7.679383337954319</v>
       </c>
       <c r="K3">
-        <v>31.66901075124171</v>
+        <v>22.48852747396669</v>
       </c>
       <c r="L3">
-        <v>20.13176950471672</v>
+        <v>9.394864007364147</v>
       </c>
       <c r="M3">
-        <v>18.02042203768114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.44338809341149</v>
+      </c>
+      <c r="N3">
+        <v>14.6252386428064</v>
+      </c>
+      <c r="O3">
+        <v>27.77738233253471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.76688022154605</v>
+        <v>15.68240087634448</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.743932778818607</v>
+        <v>5.571113055836062</v>
       </c>
       <c r="E4">
-        <v>9.906919705535907</v>
+        <v>10.67540654398451</v>
       </c>
       <c r="F4">
-        <v>31.10228473182136</v>
+        <v>34.65925836685255</v>
       </c>
       <c r="G4">
-        <v>23.53940356709342</v>
+        <v>2.115555386088787</v>
       </c>
       <c r="H4">
-        <v>24.43974580965165</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>13.20984259784202</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.849446621162401</v>
+        <v>7.585255278558408</v>
       </c>
       <c r="K4">
-        <v>30.15775460296949</v>
+        <v>21.38024245917144</v>
       </c>
       <c r="L4">
-        <v>19.13221061073599</v>
+        <v>9.097263692197259</v>
       </c>
       <c r="M4">
-        <v>17.17464932302346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.1066064701357</v>
+      </c>
+      <c r="N4">
+        <v>14.80231486122659</v>
+      </c>
+      <c r="O4">
+        <v>27.24603820624796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.54781608060685</v>
+        <v>15.46901793798774</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.680985068200483</v>
+        <v>5.48561553885519</v>
       </c>
       <c r="E5">
-        <v>9.803600643527446</v>
+        <v>10.55788511434592</v>
       </c>
       <c r="F5">
-        <v>30.60257499840805</v>
+        <v>34.41553287631829</v>
       </c>
       <c r="G5">
-        <v>23.0948217107272</v>
+        <v>2.118433886308785</v>
       </c>
       <c r="H5">
-        <v>24.0712719071133</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>13.36937435902896</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.817029597547942</v>
+        <v>7.546666482912157</v>
       </c>
       <c r="K5">
-        <v>29.52327391526746</v>
+        <v>20.91456105932213</v>
       </c>
       <c r="L5">
-        <v>18.71294060855002</v>
+        <v>8.974685944351519</v>
       </c>
       <c r="M5">
-        <v>16.81973453638122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.96891513769456</v>
+      </c>
+      <c r="N5">
+        <v>14.87517616543778</v>
+      </c>
+      <c r="O5">
+        <v>27.03396365815481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.511019498855</v>
+        <v>15.43344737278685</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.670471090084777</v>
+        <v>5.471324215488027</v>
       </c>
       <c r="E6">
-        <v>9.786372909144497</v>
+        <v>10.53826652414558</v>
       </c>
       <c r="F6">
-        <v>30.51963729624009</v>
+        <v>34.37543063466816</v>
       </c>
       <c r="G6">
-        <v>23.02083148045343</v>
+        <v>2.118914545275902</v>
       </c>
       <c r="H6">
-        <v>24.01020807288199</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>13.39597436029497</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.811653953768281</v>
+        <v>7.540244796552709</v>
       </c>
       <c r="K6">
-        <v>29.41678499249971</v>
+        <v>20.83638157411847</v>
       </c>
       <c r="L6">
-        <v>18.64259263325789</v>
+        <v>8.954257629800971</v>
       </c>
       <c r="M6">
-        <v>16.76017762747987</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.94602965694234</v>
+      </c>
+      <c r="N6">
+        <v>14.88731874307483</v>
+      </c>
+      <c r="O6">
+        <v>26.99902021978247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.76395404556699</v>
+        <v>15.67953258926227</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.743087923745147</v>
+        <v>5.569966343164219</v>
       </c>
       <c r="E7">
-        <v>9.905531132505864</v>
+        <v>10.67382862008071</v>
       </c>
       <c r="F7">
-        <v>31.09554314857125</v>
+        <v>34.6559467490637</v>
       </c>
       <c r="G7">
-        <v>23.53341921288087</v>
+        <v>2.115594028005674</v>
       </c>
       <c r="H7">
-        <v>24.43476852207418</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>13.2119868142047</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.849008949207054</v>
+        <v>7.584735796308147</v>
       </c>
       <c r="K7">
-        <v>30.14927360638891</v>
+        <v>21.37401922185444</v>
       </c>
       <c r="L7">
-        <v>19.12660487157222</v>
+        <v>9.095615650274476</v>
       </c>
       <c r="M7">
-        <v>17.16990453425429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.10475110498344</v>
+      </c>
+      <c r="N7">
+        <v>14.80329457923003</v>
+      </c>
+      <c r="O7">
+        <v>27.24315995568784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.81927233815026</v>
+        <v>16.74345355338485</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.055122321281749</v>
+        <v>5.991553506891615</v>
       </c>
       <c r="E8">
-        <v>10.42078736879789</v>
+        <v>11.25668275682645</v>
       </c>
       <c r="F8">
-        <v>33.64001182930171</v>
+        <v>35.94695912087669</v>
       </c>
       <c r="G8">
-        <v>25.76940187267974</v>
+        <v>2.101314519656854</v>
       </c>
       <c r="H8">
-        <v>26.32408235879405</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>12.4151594148011</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>8.014939932530405</v>
+        <v>7.77905172102073</v>
       </c>
       <c r="K8">
-        <v>33.21885384657026</v>
+        <v>23.6236676863903</v>
       </c>
       <c r="L8">
-        <v>21.15830339399428</v>
+        <v>9.707600229269531</v>
       </c>
       <c r="M8">
-        <v>18.8883195998738</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.80075478411061</v>
+      </c>
+      <c r="N8">
+        <v>14.43851316354562</v>
+      </c>
+      <c r="O8">
+        <v>28.35936545982809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.67454125198058</v>
+        <v>18.73673961113989</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.64291851977684</v>
+        <v>6.770521286034477</v>
       </c>
       <c r="E9">
-        <v>11.39359101087021</v>
+        <v>12.34392869294698</v>
       </c>
       <c r="F9">
-        <v>38.63030780736398</v>
+        <v>38.6668958553553</v>
       </c>
       <c r="G9">
-        <v>30.12155546965469</v>
+        <v>2.074469672001553</v>
       </c>
       <c r="H9">
-        <v>30.07844695610384</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>10.89749831157167</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>8.345111543181503</v>
+        <v>8.153413002628936</v>
       </c>
       <c r="K9">
-        <v>38.67656486002094</v>
+        <v>27.60674142492179</v>
       </c>
       <c r="L9">
-        <v>24.78697586921243</v>
+        <v>10.85810590280948</v>
       </c>
       <c r="M9">
-        <v>21.94776582040326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.14016571654266</v>
+      </c>
+      <c r="N9">
+        <v>13.74050475858298</v>
+      </c>
+      <c r="O9">
+        <v>30.683494604098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.91196693412407</v>
+        <v>20.13626475856402</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.067160525538402</v>
+        <v>7.316426290991266</v>
       </c>
       <c r="E10">
-        <v>12.08819554127604</v>
+        <v>13.11003701139243</v>
       </c>
       <c r="F10">
-        <v>42.5961282650313</v>
+        <v>40.7799148546561</v>
       </c>
       <c r="G10">
-        <v>33.34675806533356</v>
+        <v>2.055254333126204</v>
       </c>
       <c r="H10">
-        <v>33.16360889693212</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>9.800833237968156</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>8.592067032962216</v>
+        <v>8.425298796813994</v>
       </c>
       <c r="K10">
-        <v>42.369952506369</v>
+        <v>30.28563079397723</v>
       </c>
       <c r="L10">
-        <v>27.2568379403841</v>
+        <v>11.80179064831021</v>
       </c>
       <c r="M10">
-        <v>24.01991790969753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.10251394354667</v>
+      </c>
+      <c r="N10">
+        <v>13.23373615389272</v>
+      </c>
+      <c r="O10">
+        <v>32.47209327686064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.44890670304297</v>
+        <v>20.75798626625468</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.260463320274295</v>
+        <v>7.559934947733085</v>
       </c>
       <c r="E11">
-        <v>12.40108297745001</v>
+        <v>13.45215048690145</v>
       </c>
       <c r="F11">
-        <v>44.40459084626711</v>
+        <v>41.76692311716104</v>
       </c>
       <c r="G11">
-        <v>34.80317355714282</v>
+        <v>2.046572490919353</v>
       </c>
       <c r="H11">
-        <v>34.57280530460322</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>9.304025693858854</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>8.705882204022936</v>
+        <v>8.548611477565363</v>
       </c>
       <c r="K11">
-        <v>43.98843700593952</v>
+        <v>31.45401885673252</v>
       </c>
       <c r="L11">
-        <v>28.34327839326408</v>
+        <v>12.25413866200813</v>
       </c>
       <c r="M11">
-        <v>24.92813621798246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.53484020932681</v>
+      </c>
+      <c r="N11">
+        <v>13.00337852567191</v>
+      </c>
+      <c r="O11">
+        <v>33.30392457110237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.64862021464234</v>
+        <v>20.99125100153379</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.333907815877554</v>
+        <v>7.65154747820932</v>
       </c>
       <c r="E12">
-        <v>12.51927866070367</v>
+        <v>13.5808667218526</v>
       </c>
       <c r="F12">
-        <v>45.08903816670484</v>
+        <v>42.14452987844334</v>
       </c>
       <c r="G12">
-        <v>35.35399022085562</v>
+        <v>2.043288612896393</v>
       </c>
       <c r="H12">
-        <v>35.10671461185331</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>9.116066339703821</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>8.749254072544774</v>
+        <v>8.595288064416662</v>
       </c>
       <c r="K12">
-        <v>44.59314337576613</v>
+        <v>31.88955079879735</v>
       </c>
       <c r="L12">
-        <v>28.74988541988584</v>
+        <v>12.42277163740994</v>
       </c>
       <c r="M12">
-        <v>25.26747357952996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.69774145629184</v>
+      </c>
+      <c r="N12">
+        <v>12.91606715815251</v>
+      </c>
+      <c r="O12">
+        <v>33.62164907479126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.60576696177966</v>
+        <v>20.94110958364757</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.318075741997951</v>
+        <v>7.63184199481185</v>
       </c>
       <c r="E13">
-        <v>12.49383287930308</v>
+        <v>13.55318088269562</v>
       </c>
       <c r="F13">
-        <v>44.94162847158147</v>
+        <v>42.06303131556129</v>
       </c>
       <c r="G13">
-        <v>35.23537706197731</v>
+        <v>2.043995770922797</v>
       </c>
       <c r="H13">
-        <v>34.99170051210143</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>9.156540706096441</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>8.739899882553475</v>
+        <v>8.585235653022416</v>
       </c>
       <c r="K13">
-        <v>44.46326056719941</v>
+        <v>31.79605317584258</v>
       </c>
       <c r="L13">
-        <v>28.66251956587407</v>
+        <v>12.38656973117101</v>
       </c>
       <c r="M13">
-        <v>25.19458867566403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.66269396256252</v>
+      </c>
+      <c r="N13">
+        <v>12.93487657879633</v>
+      </c>
+      <c r="O13">
+        <v>33.55309756441576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.46540893037407</v>
+        <v>20.77722051808218</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.266499453600703</v>
+        <v>7.567483355004176</v>
       </c>
       <c r="E14">
-        <v>12.41081170335471</v>
+        <v>13.46275620304658</v>
       </c>
       <c r="F14">
-        <v>44.46090173561053</v>
+        <v>41.79791085844819</v>
       </c>
       <c r="G14">
-        <v>34.84849787764659</v>
+        <v>2.046302278791594</v>
       </c>
       <c r="H14">
-        <v>34.616719517383</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>9.28855931713597</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>8.709444559930121</v>
+        <v>8.55245175039374</v>
       </c>
       <c r="K14">
-        <v>44.0383461167447</v>
+        <v>31.48998691003709</v>
       </c>
       <c r="L14">
-        <v>28.37682312052902</v>
+        <v>12.26806476985202</v>
       </c>
       <c r="M14">
-        <v>24.95614329727861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.54825850491387</v>
+      </c>
+      <c r="N14">
+        <v>12.99619761287655</v>
+      </c>
+      <c r="O14">
+        <v>33.33000839617696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.37896881370973</v>
+        <v>20.67655149564061</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.234945961454217</v>
+        <v>7.527986985850873</v>
       </c>
       <c r="E15">
-        <v>12.35992682823892</v>
+        <v>13.40726271319913</v>
       </c>
       <c r="F15">
-        <v>44.16642716808659</v>
+        <v>41.63602350471922</v>
       </c>
       <c r="G15">
-        <v>34.61146148486687</v>
+        <v>2.047715417054421</v>
       </c>
       <c r="H15">
-        <v>34.38709590358103</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>9.369443708384987</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>8.690827392834843</v>
+        <v>8.532369303939904</v>
       </c>
       <c r="K15">
-        <v>43.77703104735734</v>
+        <v>31.30162239894055</v>
       </c>
       <c r="L15">
-        <v>28.20121742079703</v>
+        <v>12.1951344191228</v>
       </c>
       <c r="M15">
-        <v>24.80950333106167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.47805751444632</v>
+      </c>
+      <c r="N15">
+        <v>13.03374478840061</v>
+      </c>
+      <c r="O15">
+        <v>33.19371960529948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.87636399424142</v>
+        <v>20.09533068276506</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.054550288868473</v>
+        <v>7.300423007287171</v>
       </c>
       <c r="E16">
-        <v>12.0676976801747</v>
+        <v>13.08755711223243</v>
       </c>
       <c r="F16">
-        <v>42.47782875496405</v>
+        <v>40.71594074039406</v>
       </c>
       <c r="G16">
-        <v>33.25142932552732</v>
+        <v>2.055822510335025</v>
       </c>
       <c r="H16">
-        <v>33.07150595844745</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>9.83333077167001</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>8.584663385445765</v>
+        <v>8.417235299569377</v>
       </c>
       <c r="K16">
-        <v>42.26299625652562</v>
+        <v>30.20828880201595</v>
       </c>
       <c r="L16">
-        <v>27.18513327645792</v>
+        <v>11.77184909235816</v>
       </c>
       <c r="M16">
-        <v>23.95990091799595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.07414769698086</v>
+      </c>
+      <c r="N16">
+        <v>13.24878536241892</v>
+      </c>
+      <c r="O16">
+        <v>32.41810526253536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.56146116943431</v>
+        <v>19.73491924801898</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.944094567003457</v>
+        <v>7.159645497843785</v>
       </c>
       <c r="E17">
-        <v>11.88772916296543</v>
+        <v>12.88984310588265</v>
       </c>
       <c r="F17">
-        <v>41.44012716967399</v>
+        <v>40.15818128854927</v>
       </c>
       <c r="G17">
-        <v>32.41487872674814</v>
+        <v>2.060807923957556</v>
       </c>
       <c r="H17">
-        <v>32.26402672229501</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>10.11834005208243</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>8.519950472112754</v>
+        <v>8.346531272722938</v>
       </c>
       <c r="K17">
-        <v>41.31884777813303</v>
+        <v>29.52490642139353</v>
       </c>
       <c r="L17">
-        <v>26.55264586181153</v>
+        <v>11.50729888652475</v>
       </c>
       <c r="M17">
-        <v>23.43012328666637</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.82493715881756</v>
+      </c>
+      <c r="N17">
+        <v>13.38067930321629</v>
+      </c>
+      <c r="O17">
+        <v>31.94700913445498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.37788472250342</v>
+        <v>19.52621360333046</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.880578904304784</v>
+        <v>7.078212936427741</v>
       </c>
       <c r="E18">
-        <v>11.7839130022319</v>
+        <v>12.77551498264854</v>
       </c>
       <c r="F18">
-        <v>40.84230911654057</v>
+        <v>39.83978743167086</v>
       </c>
       <c r="G18">
-        <v>31.93264259371731</v>
+        <v>2.063681304130648</v>
       </c>
       <c r="H18">
-        <v>31.7991991330716</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>10.28247109296246</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>8.482863494199552</v>
+        <v>8.305826922680822</v>
       </c>
       <c r="K18">
-        <v>40.76994799321919</v>
+        <v>29.12709217227539</v>
       </c>
       <c r="L18">
-        <v>26.18532626768608</v>
+        <v>11.35330440614742</v>
       </c>
       <c r="M18">
-        <v>23.12214500210812</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.68108462753425</v>
+      </c>
+      <c r="N18">
+        <v>13.45656452045201</v>
+      </c>
+      <c r="O18">
+        <v>31.67774867479341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.31530422755992</v>
+        <v>19.4553091743333</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.859070755489316</v>
+        <v>7.050559491801332</v>
       </c>
       <c r="E19">
-        <v>11.74870659533395</v>
+        <v>12.73669880023852</v>
       </c>
       <c r="F19">
-        <v>40.63970808202208</v>
+        <v>39.73239635597763</v>
       </c>
       <c r="G19">
-        <v>31.7691588027429</v>
+        <v>2.064655331033185</v>
       </c>
       <c r="H19">
-        <v>31.64172993785681</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>10.33808202610582</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>8.470327957939276</v>
+        <v>8.292037826931519</v>
       </c>
       <c r="K19">
-        <v>40.58307598031393</v>
+        <v>28.99157412451717</v>
       </c>
       <c r="L19">
-        <v>26.06033710011923</v>
+        <v>11.30084624546095</v>
       </c>
       <c r="M19">
-        <v>23.01729810036716</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.63229180492962</v>
+      </c>
+      <c r="N19">
+        <v>13.48226496389714</v>
+      </c>
+      <c r="O19">
+        <v>31.58687159430131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.59523613238849</v>
+        <v>19.77343150748674</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.955849826401001</v>
+        <v>7.174678593684154</v>
       </c>
       <c r="E20">
-        <v>11.90691750144058</v>
+        <v>12.91095251780804</v>
       </c>
       <c r="F20">
-        <v>41.55068538994184</v>
+        <v>40.21730504627513</v>
       </c>
       <c r="G20">
-        <v>32.50403669315644</v>
+        <v>2.060276640046954</v>
       </c>
       <c r="H20">
-        <v>32.35001938111907</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>10.08798053523427</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>8.526825001842868</v>
+        <v>8.354061474088807</v>
       </c>
       <c r="K20">
-        <v>41.41995488523412</v>
+        <v>29.59814316106013</v>
       </c>
       <c r="L20">
-        <v>26.62033693814725</v>
+        <v>11.53564947012119</v>
       </c>
       <c r="M20">
-        <v>23.48685441011379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15.85151945550793</v>
+      </c>
+      <c r="N20">
+        <v>13.36663727837556</v>
+      </c>
+      <c r="O20">
+        <v>31.99698141113553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.50673252102456</v>
+        <v>20.82541750865524</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.281640229969453</v>
+        <v>7.586402447603975</v>
       </c>
       <c r="E21">
-        <v>12.4352033537139</v>
+        <v>13.48933797712643</v>
       </c>
       <c r="F21">
-        <v>44.60210393225831</v>
+        <v>41.87567723386078</v>
       </c>
       <c r="G21">
-        <v>34.96214470200615</v>
+        <v>2.045624741003306</v>
       </c>
       <c r="H21">
-        <v>34.72684566460417</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>9.249778415876145</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>8.71838205673312</v>
+        <v>8.562081388163655</v>
       </c>
       <c r="K21">
-        <v>44.16336969156715</v>
+        <v>31.58007087022558</v>
       </c>
       <c r="L21">
-        <v>28.46086479920227</v>
+        <v>12.30294371193953</v>
       </c>
       <c r="M21">
-        <v>25.02630171963808</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.58189306362444</v>
+      </c>
+      <c r="N21">
+        <v>12.97818920422384</v>
+      </c>
+      <c r="O21">
+        <v>33.39545981942213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.08145229210543</v>
+        <v>21.50033475873681</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.496112789410426</v>
+        <v>7.852055383771921</v>
       </c>
       <c r="E22">
-        <v>12.77890098681306</v>
+        <v>13.86253894594349</v>
       </c>
       <c r="F22">
-        <v>46.59484073145846</v>
+        <v>42.98207117273745</v>
       </c>
       <c r="G22">
-        <v>36.56516277551343</v>
+        <v>2.036068034710832</v>
       </c>
       <c r="H22">
-        <v>36.28238773177159</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>8.702940020083092</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>8.845206342311135</v>
+        <v>8.697944224223097</v>
       </c>
       <c r="K22">
-        <v>45.90908821449872</v>
+        <v>32.83526464353709</v>
       </c>
       <c r="L22">
-        <v>29.63606762698347</v>
+        <v>12.7889708663964</v>
       </c>
       <c r="M22">
-        <v>26.00590979139602</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17.05451405871373</v>
+      </c>
+      <c r="N22">
+        <v>12.72379232238722</v>
+      </c>
+      <c r="O22">
+        <v>34.32545066069087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.77659016572666</v>
+        <v>21.14126966219493</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.381426480415733</v>
+        <v>7.71054887858689</v>
       </c>
       <c r="E23">
-        <v>12.59554114970086</v>
+        <v>13.66375974114277</v>
       </c>
       <c r="F23">
-        <v>45.53102309847444</v>
+        <v>42.38943778372197</v>
       </c>
       <c r="G23">
-        <v>35.70958166298283</v>
+        <v>2.041168622403376</v>
       </c>
       <c r="H23">
-        <v>35.45165042699118</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>8.994737796576029</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>8.777343630520805</v>
+        <v>8.625426483777183</v>
       </c>
       <c r="K23">
-        <v>44.9814305596672</v>
+        <v>32.16890036049143</v>
       </c>
       <c r="L23">
-        <v>29.01117318245479</v>
+        <v>12.53093701003926</v>
       </c>
       <c r="M23">
-        <v>25.48536311509161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.80270055644066</v>
+      </c>
+      <c r="N23">
+        <v>12.85965453709988</v>
+      </c>
+      <c r="O23">
+        <v>33.82757720166252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.57997437528435</v>
+        <v>19.75602478603976</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.950535329200778</v>
+        <v>7.167883688188523</v>
       </c>
       <c r="E24">
-        <v>11.89824355432604</v>
+        <v>12.90141101356052</v>
       </c>
       <c r="F24">
-        <v>41.50070591818329</v>
+        <v>40.19056813604517</v>
       </c>
       <c r="G24">
-        <v>32.46373246186594</v>
+        <v>2.060516810725416</v>
       </c>
       <c r="H24">
-        <v>32.31114401525865</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>10.10170520479614</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>8.523716665712456</v>
+        <v>8.350657245870318</v>
       </c>
       <c r="K24">
-        <v>41.37426340066263</v>
+        <v>29.56504820591351</v>
       </c>
       <c r="L24">
-        <v>26.5897453478582</v>
+        <v>11.52283810187237</v>
       </c>
       <c r="M24">
-        <v>23.46121689239112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.83950339728037</v>
+      </c>
+      <c r="N24">
+        <v>13.3729854905214</v>
+      </c>
+      <c r="O24">
+        <v>31.97438403425732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.19509981639214</v>
+        <v>18.20847811273176</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.485820547726521</v>
+        <v>6.564676267923966</v>
       </c>
       <c r="E25">
-        <v>11.1342630398658</v>
+        <v>12.05570369916574</v>
       </c>
       <c r="F25">
-        <v>37.28010174821769</v>
+        <v>37.91105429156514</v>
       </c>
       <c r="G25">
-        <v>28.91980488197486</v>
+        <v>2.081627186514926</v>
       </c>
       <c r="H25">
-        <v>29.05736904267683</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>11.30417889387429</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>8.255158981723126</v>
+        <v>8.052777271253918</v>
       </c>
       <c r="K25">
-        <v>37.2577704670915</v>
+        <v>26.57374492350832</v>
       </c>
       <c r="L25">
-        <v>23.84140847374315</v>
+        <v>10.55267170588376</v>
       </c>
       <c r="M25">
-        <v>21.15204933947991</v>
+        <v>14.78128398325227</v>
+      </c>
+      <c r="N25">
+        <v>13.92791839282781</v>
+      </c>
+      <c r="O25">
+        <v>30.04054395430532</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.02583029364394</v>
+        <v>7.252242859975008</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.102480724768656</v>
+        <v>5.812674772168998</v>
       </c>
       <c r="E2">
-        <v>11.41082902200423</v>
+        <v>7.121133348927636</v>
       </c>
       <c r="F2">
-        <v>36.30956508319483</v>
+        <v>40.80607949066403</v>
       </c>
       <c r="G2">
-        <v>2.097530435873852</v>
+        <v>63.41676518819052</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>16.32061621332502</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.831224517791631</v>
+        <v>5.086241647423831</v>
       </c>
       <c r="K2">
-        <v>24.20374617748986</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>9.870264732451577</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.98790378932935</v>
+        <v>30.39191474505639</v>
       </c>
       <c r="N2">
-        <v>14.34100066439141</v>
+        <v>15.09462977426232</v>
       </c>
       <c r="O2">
-        <v>28.67107276356454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.20007003047497</v>
+        <v>6.896063876440111</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.777081879470523</v>
+        <v>5.662314236747874</v>
       </c>
       <c r="E3">
-        <v>10.95952335771534</v>
+        <v>7.182820782609263</v>
       </c>
       <c r="F3">
-        <v>35.27224358726366</v>
+        <v>38.36621135824681</v>
       </c>
       <c r="G3">
-        <v>2.108597954801053</v>
+        <v>59.07834720215603</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>15.48413078897301</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.679383337954319</v>
+        <v>5.198177426932114</v>
       </c>
       <c r="K3">
-        <v>22.48852747396669</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>9.394864007364147</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>13.44338809341149</v>
+        <v>28.27867503156219</v>
       </c>
       <c r="N3">
-        <v>14.6252386428064</v>
+        <v>14.86636612526505</v>
       </c>
       <c r="O3">
-        <v>27.77738233253471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.68240087634448</v>
+        <v>6.670755383427405</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.571113055836062</v>
+        <v>5.569831360481394</v>
       </c>
       <c r="E4">
-        <v>10.67540654398451</v>
+        <v>7.222685803675143</v>
       </c>
       <c r="F4">
-        <v>34.65925836685255</v>
+        <v>36.85339463166839</v>
       </c>
       <c r="G4">
-        <v>2.115555386088787</v>
+        <v>56.35017816141369</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>14.97199297795267</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.585255278558408</v>
+        <v>5.268264463191928</v>
       </c>
       <c r="K4">
-        <v>21.38024245917144</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>9.097263692197259</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.1066064701357</v>
+        <v>26.91256954585203</v>
       </c>
       <c r="N4">
-        <v>14.80231486122659</v>
+        <v>14.72920617160962</v>
       </c>
       <c r="O4">
-        <v>27.24603820624796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.46901793798774</v>
+        <v>6.577405957396232</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.48561553885519</v>
+        <v>5.532069533485065</v>
       </c>
       <c r="E5">
-        <v>10.55788511434592</v>
+        <v>7.239426369803772</v>
       </c>
       <c r="F5">
-        <v>34.41553287631829</v>
+        <v>36.23345657839238</v>
       </c>
       <c r="G5">
-        <v>2.118433886308785</v>
+        <v>55.22225549302581</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>14.76375714122045</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.546666482912157</v>
+        <v>5.29719078095812</v>
       </c>
       <c r="K5">
-        <v>20.91456105932213</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8.974685944351519</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>12.96891513769456</v>
+        <v>26.33833113382846</v>
       </c>
       <c r="N5">
-        <v>14.87517616543778</v>
+        <v>14.67411725752591</v>
       </c>
       <c r="O5">
-        <v>27.03396365815481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.43344737278685</v>
+        <v>6.561816847793183</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.471324215488027</v>
+        <v>5.525793875815166</v>
       </c>
       <c r="E6">
-        <v>10.53826652414558</v>
+        <v>7.242235921425831</v>
       </c>
       <c r="F6">
-        <v>34.37543063466816</v>
+        <v>36.13031884639972</v>
       </c>
       <c r="G6">
-        <v>2.118914545275902</v>
+        <v>55.03399465378382</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>14.72921166683057</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.540244796552709</v>
+        <v>5.302016695118692</v>
       </c>
       <c r="K6">
-        <v>20.83638157411847</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>8.954257629800971</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>12.94602965694234</v>
+        <v>26.24191174339271</v>
       </c>
       <c r="N6">
-        <v>14.88731874307483</v>
+        <v>14.66501990111793</v>
       </c>
       <c r="O6">
-        <v>26.99902021978247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.67953258926227</v>
+        <v>6.66950246799751</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.569966343164219</v>
+        <v>5.569322431398617</v>
       </c>
       <c r="E7">
-        <v>10.67382862008071</v>
+        <v>7.222909573047239</v>
       </c>
       <c r="F7">
-        <v>34.6559467490637</v>
+        <v>36.84504743877754</v>
       </c>
       <c r="G7">
-        <v>2.115594028005674</v>
+        <v>56.33503182991434</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>14.96918258845865</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.584735796308147</v>
+        <v>5.2686530645577</v>
       </c>
       <c r="K7">
-        <v>21.37401922185444</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>9.095615650274476</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>13.10475110498344</v>
+        <v>26.90489655685492</v>
       </c>
       <c r="N7">
-        <v>14.80329457923003</v>
+        <v>14.72845989624468</v>
       </c>
       <c r="O7">
-        <v>27.24315995568784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.74345355338485</v>
+        <v>7.130875737731364</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.991553506891615</v>
+        <v>5.760840935589192</v>
       </c>
       <c r="E8">
-        <v>11.25668275682645</v>
+        <v>7.141987113593279</v>
       </c>
       <c r="F8">
-        <v>35.94695912087669</v>
+        <v>39.96795835483567</v>
       </c>
       <c r="G8">
-        <v>2.101314519656854</v>
+        <v>61.93414482722489</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>16.03193004057798</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.77905172102073</v>
+        <v>5.124570221811383</v>
       </c>
       <c r="K8">
-        <v>23.6236676863903</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>9.707600229269531</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.80075478411061</v>
+        <v>29.67731318080638</v>
       </c>
       <c r="N8">
-        <v>14.43851316354562</v>
+        <v>15.01533405902579</v>
       </c>
       <c r="O8">
-        <v>28.35936545982809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.73673961113989</v>
+        <v>7.978514355397355</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.770521286034477</v>
+        <v>6.137158685469699</v>
       </c>
       <c r="E9">
-        <v>12.34392869294698</v>
+        <v>6.999376806238587</v>
       </c>
       <c r="F9">
-        <v>38.6668958553553</v>
+        <v>45.97509789629071</v>
       </c>
       <c r="G9">
-        <v>2.074469672001553</v>
+        <v>72.52073632751855</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>18.12691505772686</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.153413002628936</v>
+        <v>4.851605449642397</v>
       </c>
       <c r="K9">
-        <v>27.60674142492179</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>10.85810590280948</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>15.14016571654266</v>
+        <v>34.58501576144815</v>
       </c>
       <c r="N9">
-        <v>13.74050475858298</v>
+        <v>15.59938457639985</v>
       </c>
       <c r="O9">
-        <v>30.683494604098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.13626475856402</v>
+        <v>8.598671919793061</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.316426290991266</v>
+        <v>6.417888479669838</v>
       </c>
       <c r="E10">
-        <v>13.11003701139243</v>
+        <v>6.90499863153912</v>
       </c>
       <c r="F10">
-        <v>40.7799148546561</v>
+        <v>50.56987562111961</v>
       </c>
       <c r="G10">
-        <v>2.055254333126204</v>
+        <v>80.08020292256562</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>19.96817412597062</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.425298796813994</v>
+        <v>4.65502194407278</v>
       </c>
       <c r="K10">
-        <v>30.28563079397723</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>11.80179064831021</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>16.10251394354667</v>
+        <v>37.89232906663668</v>
       </c>
       <c r="N10">
-        <v>13.23373615389272</v>
+        <v>16.03859821909063</v>
       </c>
       <c r="O10">
-        <v>32.47209327686064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.75798626625468</v>
+        <v>8.905587295223544</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.559934947733085</v>
+        <v>6.547720813551257</v>
       </c>
       <c r="E11">
-        <v>13.45215048690145</v>
+        <v>6.864529494684681</v>
       </c>
       <c r="F11">
-        <v>41.76692311716104</v>
+        <v>52.67055339226069</v>
       </c>
       <c r="G11">
-        <v>2.046572490919353</v>
+        <v>83.4773692691647</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>20.80675738071443</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.548611477565363</v>
+        <v>4.565963282365601</v>
       </c>
       <c r="K11">
-        <v>31.45401885673252</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>12.25413866200813</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>16.53484020932681</v>
+        <v>39.3386298376973</v>
       </c>
       <c r="N11">
-        <v>13.00337852567191</v>
+        <v>16.23999354651045</v>
       </c>
       <c r="O11">
-        <v>33.30392457110237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.99125100153379</v>
+        <v>9.019373773962446</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.65154747820932</v>
+        <v>6.597325409501338</v>
       </c>
       <c r="E12">
-        <v>13.5808667218526</v>
+        <v>6.849584875930022</v>
       </c>
       <c r="F12">
-        <v>42.14452987844334</v>
+        <v>53.4647520734612</v>
       </c>
       <c r="G12">
-        <v>2.043288612896393</v>
+        <v>84.76003083765464</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>21.12356104430471</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.595288064416662</v>
+        <v>4.532244545089422</v>
       </c>
       <c r="K12">
-        <v>31.88955079879735</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>12.42277163740994</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>16.69774145629184</v>
+        <v>39.87859475479728</v>
       </c>
       <c r="N12">
-        <v>12.91606715815251</v>
+        <v>16.31643709678277</v>
       </c>
       <c r="O12">
-        <v>33.62164907479126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.94110958364757</v>
+        <v>8.994975627594497</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.63184199481185</v>
+        <v>6.586620089631234</v>
       </c>
       <c r="E13">
-        <v>13.55318088269562</v>
+        <v>6.85278605349222</v>
       </c>
       <c r="F13">
-        <v>42.06303131556129</v>
+        <v>53.29373949429051</v>
       </c>
       <c r="G13">
-        <v>2.043995770922797</v>
+        <v>84.48391296256915</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>21.05535492139738</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.585235653022416</v>
+        <v>4.539507043852818</v>
       </c>
       <c r="K13">
-        <v>31.79605317584258</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>12.38656973117101</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>16.66269396256252</v>
+        <v>39.76263516500146</v>
       </c>
       <c r="N13">
-        <v>12.93487657879633</v>
+        <v>16.29996639706056</v>
       </c>
       <c r="O13">
-        <v>33.55309756441576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.77722051808218</v>
+        <v>8.914997205802209</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.567483355004176</v>
+        <v>6.551792102945796</v>
       </c>
       <c r="E14">
-        <v>13.46275620304658</v>
+        <v>6.863292193876255</v>
       </c>
       <c r="F14">
-        <v>41.79791085844819</v>
+        <v>52.73590951934485</v>
       </c>
       <c r="G14">
-        <v>2.046302278791594</v>
+        <v>83.5829554471285</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>20.83283243501652</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.55245175039374</v>
+        <v>4.563189399109323</v>
       </c>
       <c r="K14">
-        <v>31.48998691003709</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>12.26806476985202</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>16.54825850491387</v>
+        <v>39.38320357131082</v>
       </c>
       <c r="N14">
-        <v>12.99619761287655</v>
+        <v>16.24627928345393</v>
       </c>
       <c r="O14">
-        <v>33.33000839617696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.67655149564061</v>
+        <v>8.86569187623739</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.527986985850873</v>
+        <v>6.530520821541354</v>
       </c>
       <c r="E15">
-        <v>13.40726271319913</v>
+        <v>6.869777930060341</v>
       </c>
       <c r="F15">
-        <v>41.63602350471922</v>
+        <v>52.39410046863267</v>
       </c>
       <c r="G15">
-        <v>2.047715417054421</v>
+        <v>83.03067733229025</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>20.69645178323999</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.532369303939904</v>
+        <v>4.577694770503463</v>
       </c>
       <c r="K15">
-        <v>31.30162239894055</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>12.1951344191228</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>16.47805751444632</v>
+        <v>39.14980714938643</v>
       </c>
       <c r="N15">
-        <v>13.03374478840061</v>
+        <v>16.21341631180076</v>
       </c>
       <c r="O15">
-        <v>33.19371960529948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.09533068276506</v>
+        <v>8.578271684017787</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.300423007287171</v>
+        <v>6.409457120829345</v>
       </c>
       <c r="E16">
-        <v>13.08755711223243</v>
+        <v>6.907694989721577</v>
       </c>
       <c r="F16">
-        <v>40.71594074039406</v>
+        <v>50.4323328367883</v>
       </c>
       <c r="G16">
-        <v>2.055822510335025</v>
+        <v>79.85752889611661</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>19.91323335557681</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.417235299569377</v>
+        <v>4.660845673087439</v>
       </c>
       <c r="K16">
-        <v>30.20828880201595</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>11.77184909235816</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>16.07414769698086</v>
+        <v>37.79669166751469</v>
       </c>
       <c r="N16">
-        <v>13.24878536241892</v>
+        <v>16.02546434516782</v>
       </c>
       <c r="O16">
-        <v>32.41810526253536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.73491924801898</v>
+        <v>8.397576261636242</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.159645497843785</v>
+        <v>6.335818250824114</v>
       </c>
       <c r="E17">
-        <v>12.88984310588265</v>
+        <v>6.931602864319856</v>
       </c>
       <c r="F17">
-        <v>40.15818128854927</v>
+        <v>49.22506302604939</v>
       </c>
       <c r="G17">
-        <v>2.060807923957556</v>
+        <v>77.90164245860673</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>19.43080020270359</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.346531272722938</v>
+        <v>4.711918923727004</v>
       </c>
       <c r="K17">
-        <v>29.52490642139353</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>11.50729888652475</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>15.82493715881756</v>
+        <v>36.95211805759563</v>
       </c>
       <c r="N17">
-        <v>13.38067930321629</v>
+        <v>15.91053425792453</v>
       </c>
       <c r="O17">
-        <v>31.94700913445498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.52621360333046</v>
+        <v>8.308587174562906</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.078212936427741</v>
+        <v>6.293653521136454</v>
       </c>
       <c r="E18">
-        <v>12.77551498264854</v>
+        <v>6.945584003292179</v>
       </c>
       <c r="F18">
-        <v>39.83978743167086</v>
+        <v>48.52888236435394</v>
       </c>
       <c r="G18">
-        <v>2.063681304130648</v>
+        <v>76.77258280374573</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>19.15243440798845</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.305826922680822</v>
+        <v>4.741332744659559</v>
       </c>
       <c r="K18">
-        <v>29.12709217227539</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>11.35330440614742</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>15.68108462753425</v>
+        <v>36.46081713096363</v>
       </c>
       <c r="N18">
-        <v>13.45656452045201</v>
+        <v>15.8445824778715</v>
       </c>
       <c r="O18">
-        <v>31.67774867479341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.4553091743333</v>
+        <v>8.27907013787031</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.050559491801332</v>
+        <v>6.279406424419763</v>
       </c>
       <c r="E19">
-        <v>12.73669880023852</v>
+        <v>6.950356614997083</v>
       </c>
       <c r="F19">
-        <v>39.73239635597763</v>
+        <v>48.29282588177548</v>
       </c>
       <c r="G19">
-        <v>2.064655331033185</v>
+        <v>76.38954204623283</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>19.05801869801776</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.292037826931519</v>
+        <v>4.751299584536238</v>
       </c>
       <c r="K19">
-        <v>28.99157412451717</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>11.30084624546095</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>15.63229180492962</v>
+        <v>36.29350421923817</v>
       </c>
       <c r="N19">
-        <v>13.48226496389714</v>
+        <v>15.8222801634339</v>
       </c>
       <c r="O19">
-        <v>31.58687159430131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.77343150748674</v>
+        <v>8.416978710968861</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.174678593684154</v>
+        <v>6.34363666518518</v>
       </c>
       <c r="E20">
-        <v>12.91095251780804</v>
+        <v>6.929033868909753</v>
       </c>
       <c r="F20">
-        <v>40.21730504627513</v>
+        <v>49.35375599592172</v>
       </c>
       <c r="G20">
-        <v>2.060276640046954</v>
+        <v>78.1102584019641</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>19.48224396456456</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.354061474088807</v>
+        <v>4.706478492573366</v>
       </c>
       <c r="K20">
-        <v>29.59814316106013</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>11.53564947012119</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>15.85151945550793</v>
+        <v>37.04259177230295</v>
       </c>
       <c r="N20">
-        <v>13.36663727837556</v>
+        <v>15.92275329822695</v>
       </c>
       <c r="O20">
-        <v>31.99698141113553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.82541750865524</v>
+        <v>8.938554651554025</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.586402447603975</v>
+        <v>6.562008743419108</v>
       </c>
       <c r="E21">
-        <v>13.48933797712643</v>
+        <v>6.860195719117369</v>
       </c>
       <c r="F21">
-        <v>41.87567723386078</v>
+        <v>52.89978029204484</v>
       </c>
       <c r="G21">
-        <v>2.045624741003306</v>
+        <v>83.84767034056661</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>20.89820802105397</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.562081388163655</v>
+        <v>4.556233568774383</v>
       </c>
       <c r="K21">
-        <v>31.58007087022558</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>12.30294371193953</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>16.58189306362444</v>
+        <v>39.49485546769601</v>
       </c>
       <c r="N21">
-        <v>12.97818920422384</v>
+        <v>16.26204400462294</v>
       </c>
       <c r="O21">
-        <v>33.39545981942213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.50033475873681</v>
+        <v>9.265253602920691</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.852055383771921</v>
+        <v>6.707381361556195</v>
       </c>
       <c r="E22">
-        <v>13.86253894594349</v>
+        <v>6.817440758301392</v>
       </c>
       <c r="F22">
-        <v>42.98207117273745</v>
+        <v>55.21072101719388</v>
       </c>
       <c r="G22">
-        <v>2.036068034710832</v>
+        <v>87.57688166587971</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>21.81961251917655</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.697944224223097</v>
+        <v>4.458046709064567</v>
       </c>
       <c r="K22">
-        <v>32.83526464353709</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>12.7889708663964</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>17.05451405871373</v>
+        <v>41.0529652153387</v>
       </c>
       <c r="N22">
-        <v>12.72379232238722</v>
+        <v>16.48481485399386</v>
       </c>
       <c r="O22">
-        <v>34.32545066069087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.14126966219493</v>
+        <v>9.092174877642426</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.71054887858689</v>
+        <v>6.629496397521534</v>
       </c>
       <c r="E23">
-        <v>13.66375974114277</v>
+        <v>6.840044450320476</v>
       </c>
       <c r="F23">
-        <v>42.38943778372197</v>
+        <v>53.97740119136832</v>
       </c>
       <c r="G23">
-        <v>2.041168622403376</v>
+        <v>85.58752035576423</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>21.32799150439918</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.625426483777183</v>
+        <v>4.510467714659755</v>
       </c>
       <c r="K23">
-        <v>32.16890036049143</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>12.53093701003926</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>16.80270055644066</v>
+        <v>40.22520263992379</v>
       </c>
       <c r="N23">
-        <v>12.85965453709988</v>
+        <v>16.36583999253035</v>
       </c>
       <c r="O23">
-        <v>33.82757720166252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.75602478603976</v>
+        <v>8.408212048445053</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.167883688188523</v>
+        <v>6.340101436323943</v>
       </c>
       <c r="E24">
-        <v>12.90141101356052</v>
+        <v>6.930194577904827</v>
       </c>
       <c r="F24">
-        <v>40.19056813604517</v>
+        <v>49.29558055505802</v>
       </c>
       <c r="G24">
-        <v>2.060516810725416</v>
+        <v>78.01595760498911</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>19.45898941999768</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.350657245870318</v>
+        <v>4.708937948775614</v>
       </c>
       <c r="K24">
-        <v>29.56504820591351</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>11.52283810187237</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>15.83950339728037</v>
+        <v>37.00170654579136</v>
       </c>
       <c r="N24">
-        <v>13.3729854905214</v>
+        <v>15.91722868300381</v>
       </c>
       <c r="O24">
-        <v>31.97438403425732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.20847811273176</v>
+        <v>7.755894090548556</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.564676267923966</v>
+        <v>6.034940741879928</v>
       </c>
       <c r="E25">
-        <v>12.05570369916574</v>
+        <v>7.0361853437722</v>
       </c>
       <c r="F25">
-        <v>37.91105429156514</v>
+        <v>44.36162730553576</v>
       </c>
       <c r="G25">
-        <v>2.081627186514926</v>
+        <v>69.68800821064109</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>17.55879097607726</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.052777271253918</v>
+        <v>4.924604414215727</v>
       </c>
       <c r="K25">
-        <v>26.57374492350832</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>10.55267170588376</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>14.78128398325227</v>
+        <v>33.31169595704716</v>
       </c>
       <c r="N25">
-        <v>13.92791839282781</v>
+        <v>15.43939491719501</v>
       </c>
       <c r="O25">
-        <v>30.04054395430532</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.252242859975008</v>
+        <v>7.783173581191642</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.812674772168998</v>
+        <v>7.839920480229148</v>
       </c>
       <c r="E2">
-        <v>7.121133348927636</v>
+        <v>12.02209393141306</v>
       </c>
       <c r="F2">
-        <v>40.80607949066403</v>
+        <v>40.04974693950228</v>
       </c>
       <c r="G2">
-        <v>63.41676518819052</v>
+        <v>50.40278016977956</v>
       </c>
       <c r="H2">
-        <v>16.32061621332502</v>
+        <v>18.53676769311976</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.086241647423831</v>
+        <v>9.510999597123126</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.39191474505639</v>
+        <v>23.80390300648689</v>
       </c>
       <c r="N2">
-        <v>15.09462977426232</v>
+        <v>17.81153797085744</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.896063876440111</v>
+        <v>7.709723325812419</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.662314236747874</v>
+        <v>7.808524432377236</v>
       </c>
       <c r="E3">
-        <v>7.182820782609263</v>
+        <v>12.05226414689429</v>
       </c>
       <c r="F3">
-        <v>38.36621135824681</v>
+        <v>39.67740257645623</v>
       </c>
       <c r="G3">
-        <v>59.07834720215603</v>
+        <v>49.37724731733471</v>
       </c>
       <c r="H3">
-        <v>15.48413078897301</v>
+        <v>18.45225351759321</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.198177426932114</v>
+        <v>9.548714958702895</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>28.27867503156219</v>
+        <v>23.18563396420499</v>
       </c>
       <c r="N3">
-        <v>14.86636612526505</v>
+        <v>17.7738682296755</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.670755383427405</v>
+        <v>7.666071942561167</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.569831360481394</v>
+        <v>7.788941521657875</v>
       </c>
       <c r="E4">
-        <v>7.222685803675143</v>
+        <v>12.07186712546299</v>
       </c>
       <c r="F4">
-        <v>36.85339463166839</v>
+        <v>39.46191230231511</v>
       </c>
       <c r="G4">
-        <v>56.35017816141369</v>
+        <v>48.75812006814865</v>
       </c>
       <c r="H4">
-        <v>14.97199297795267</v>
+        <v>18.40603214316965</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.268264463191928</v>
+        <v>9.572981056780449</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.91256954585203</v>
+        <v>22.80086583612374</v>
       </c>
       <c r="N4">
-        <v>14.72920617160962</v>
+        <v>17.75325082035187</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.577405957396232</v>
+        <v>7.648667800845041</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.532069533485065</v>
+        <v>7.78088504315551</v>
       </c>
       <c r="E5">
-        <v>7.239426369803772</v>
+        <v>12.08012739049211</v>
       </c>
       <c r="F5">
-        <v>36.23345657839238</v>
+        <v>39.37747959496287</v>
       </c>
       <c r="G5">
-        <v>55.22225549302581</v>
+        <v>48.50886067323514</v>
       </c>
       <c r="H5">
-        <v>14.76375714122045</v>
+        <v>18.38863130756727</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.29719078095812</v>
+        <v>9.583149466956103</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>26.33833113382846</v>
+        <v>22.64299723067514</v>
       </c>
       <c r="N5">
-        <v>14.67411725752591</v>
+        <v>17.74548818592557</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.561816847793183</v>
+        <v>7.645801634713722</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.525793875815166</v>
+        <v>7.779542679915674</v>
       </c>
       <c r="E6">
-        <v>7.242235921425831</v>
+        <v>12.08151544438165</v>
       </c>
       <c r="F6">
-        <v>36.13031884639972</v>
+        <v>39.36366599527291</v>
       </c>
       <c r="G6">
-        <v>55.03399465378382</v>
+        <v>48.4676661714293</v>
       </c>
       <c r="H6">
-        <v>14.72921166683057</v>
+        <v>18.38582878053411</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.302016695118692</v>
+        <v>9.584854850465447</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>26.24191174339271</v>
+        <v>22.61672521111601</v>
       </c>
       <c r="N6">
-        <v>14.66501990111793</v>
+        <v>17.74423801883558</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.66950246799751</v>
+        <v>7.665835642623647</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.569322431398617</v>
+        <v>7.788833177310882</v>
       </c>
       <c r="E7">
-        <v>7.222909573047239</v>
+        <v>12.07197742442069</v>
       </c>
       <c r="F7">
-        <v>36.84504743877754</v>
+        <v>39.46075982330647</v>
       </c>
       <c r="G7">
-        <v>56.33503182991434</v>
+        <v>48.75474565182966</v>
       </c>
       <c r="H7">
-        <v>14.96918258845865</v>
+        <v>18.40579165015515</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.2686530645577</v>
+        <v>9.57311705738991</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.90489655685492</v>
+        <v>22.79874080528145</v>
       </c>
       <c r="N7">
-        <v>14.72845989624468</v>
+        <v>17.75314353334516</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.130875737731364</v>
+        <v>7.757559854521983</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.760840935589192</v>
+        <v>7.829158889978405</v>
       </c>
       <c r="E8">
-        <v>7.141987113593279</v>
+        <v>12.03227325388373</v>
       </c>
       <c r="F8">
-        <v>39.96795835483567</v>
+        <v>39.91868748203282</v>
       </c>
       <c r="G8">
-        <v>61.93414482722489</v>
+        <v>50.04721809505018</v>
       </c>
       <c r="H8">
-        <v>16.03193004057798</v>
+        <v>18.50645621963617</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.124570221811383</v>
+        <v>9.523774334834009</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.67731318080638</v>
+        <v>23.59192201790287</v>
       </c>
       <c r="N8">
-        <v>15.01533405902579</v>
+        <v>17.79803268088581</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.978514355397355</v>
+        <v>7.947996968698414</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.137158685469699</v>
+        <v>7.905789688955638</v>
       </c>
       <c r="E9">
-        <v>6.999376806238587</v>
+        <v>11.96293626252313</v>
       </c>
       <c r="F9">
-        <v>45.97509789629071</v>
+        <v>40.91699769271266</v>
       </c>
       <c r="G9">
-        <v>72.52073632751855</v>
+        <v>52.64853613396208</v>
       </c>
       <c r="H9">
-        <v>18.12691505772686</v>
+        <v>18.74836345054039</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.851605449642397</v>
+        <v>9.435765175567516</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.58501576144815</v>
+        <v>25.09735941128893</v>
       </c>
       <c r="N9">
-        <v>15.59938457639985</v>
+        <v>17.90564832874191</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.598671919793061</v>
+        <v>8.093089462734838</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.417888479669838</v>
+        <v>7.960570364428005</v>
       </c>
       <c r="E10">
-        <v>6.90499863153912</v>
+        <v>11.91714341331563</v>
       </c>
       <c r="F10">
-        <v>50.56987562111961</v>
+        <v>41.70595765447587</v>
       </c>
       <c r="G10">
-        <v>80.08020292256562</v>
+        <v>54.57809004680612</v>
       </c>
       <c r="H10">
-        <v>19.96817412597062</v>
+        <v>18.95242519426461</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.65502194407278</v>
+        <v>9.376375902592486</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>37.89232906663668</v>
+        <v>26.16163077427799</v>
       </c>
       <c r="N10">
-        <v>16.03859821909063</v>
+        <v>17.99617406619567</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.905587295223544</v>
+        <v>8.159945912094404</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.547720813551257</v>
+        <v>7.985155530807855</v>
       </c>
       <c r="E11">
-        <v>6.864529494684681</v>
+        <v>11.89741919107877</v>
       </c>
       <c r="F11">
-        <v>52.67055339226069</v>
+        <v>42.07561145731312</v>
       </c>
       <c r="G11">
-        <v>83.4773692691647</v>
+        <v>55.45535116030212</v>
       </c>
       <c r="H11">
-        <v>20.80675738071443</v>
+        <v>19.05076352771231</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.565963282365601</v>
+        <v>9.35048895580565</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>39.3386298376973</v>
+        <v>26.63461367131775</v>
       </c>
       <c r="N11">
-        <v>16.23999354651045</v>
+        <v>18.03973531775564</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.019373773962446</v>
+        <v>8.185362316328961</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.597325409501338</v>
+        <v>7.994416528965517</v>
       </c>
       <c r="E12">
-        <v>6.849584875930022</v>
+        <v>11.89010859550982</v>
       </c>
       <c r="F12">
-        <v>53.4647520734612</v>
+        <v>42.21701967869757</v>
       </c>
       <c r="G12">
-        <v>84.76003083765464</v>
+        <v>55.78711757215908</v>
       </c>
       <c r="H12">
-        <v>21.12356104430471</v>
+        <v>19.08877315364387</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.532244545089422</v>
+        <v>9.340847622497263</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>39.87859475479728</v>
+        <v>26.81195838864105</v>
       </c>
       <c r="N12">
-        <v>16.31643709678277</v>
+        <v>18.05656330799093</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.994975627594497</v>
+        <v>8.179884392274969</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.586620089631234</v>
+        <v>7.992424192411633</v>
       </c>
       <c r="E13">
-        <v>6.85278605349222</v>
+        <v>11.89167602263029</v>
       </c>
       <c r="F13">
-        <v>53.29373949429051</v>
+        <v>42.18650326325506</v>
       </c>
       <c r="G13">
-        <v>84.48391296256915</v>
+        <v>55.71569056469757</v>
       </c>
       <c r="H13">
-        <v>21.05535492139738</v>
+        <v>19.08055316459813</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.539507043852818</v>
+        <v>9.342916888577674</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>39.76263516500146</v>
+        <v>26.77384485046684</v>
       </c>
       <c r="N13">
-        <v>16.29996639706056</v>
+        <v>18.05292448376005</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.914997205802209</v>
+        <v>8.162035077839201</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.551792102945796</v>
+        <v>7.985918422290614</v>
       </c>
       <c r="E14">
-        <v>6.863292193876255</v>
+        <v>11.89681457044601</v>
       </c>
       <c r="F14">
-        <v>52.73590951934485</v>
+        <v>42.08721725404867</v>
       </c>
       <c r="G14">
-        <v>83.5829554471285</v>
+        <v>55.48265647008098</v>
       </c>
       <c r="H14">
-        <v>20.83283243501652</v>
+        <v>19.05387527749317</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.563189399109323</v>
+        <v>9.349692526319062</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>39.38320357131082</v>
+        <v>26.6492401343712</v>
       </c>
       <c r="N14">
-        <v>16.24627928345393</v>
+        <v>18.04111316570079</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.86569187623739</v>
+        <v>8.151114100256091</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.530520821541354</v>
+        <v>7.98192706432862</v>
       </c>
       <c r="E15">
-        <v>6.869777930060341</v>
+        <v>11.89998270601171</v>
       </c>
       <c r="F15">
-        <v>52.39410046863267</v>
+        <v>42.02658418094016</v>
       </c>
       <c r="G15">
-        <v>83.03067733229025</v>
+        <v>55.33984952234515</v>
       </c>
       <c r="H15">
-        <v>20.69645178323999</v>
+        <v>19.03763405346398</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.577694770503463</v>
+        <v>9.353863803387682</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.14980714938643</v>
+        <v>26.57268199283256</v>
       </c>
       <c r="N15">
-        <v>16.21341631180076</v>
+        <v>18.03392136283404</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.578271684017787</v>
+        <v>8.088735404343128</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.409457120829345</v>
+        <v>7.958956866651463</v>
       </c>
       <c r="E16">
-        <v>6.907694989721577</v>
+        <v>11.91845465935043</v>
       </c>
       <c r="F16">
-        <v>50.4323328367883</v>
+        <v>41.68200626025839</v>
       </c>
       <c r="G16">
-        <v>79.85752889611661</v>
+        <v>54.52071758001351</v>
       </c>
       <c r="H16">
-        <v>19.91323335557681</v>
+        <v>18.94610764344904</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.660845673087439</v>
+        <v>9.378090324630897</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>37.79669166751469</v>
+        <v>26.13048176587063</v>
       </c>
       <c r="N16">
-        <v>16.02546434516782</v>
+        <v>17.99337428922453</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.397576261636242</v>
+        <v>8.05066995302467</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.335818250824114</v>
+        <v>7.944779123016375</v>
       </c>
       <c r="E17">
-        <v>6.931602864319856</v>
+        <v>11.93006969957034</v>
       </c>
       <c r="F17">
-        <v>49.22506302604939</v>
+        <v>41.47328980227752</v>
       </c>
       <c r="G17">
-        <v>77.90164245860673</v>
+        <v>54.0178153873763</v>
       </c>
       <c r="H17">
-        <v>19.43080020270359</v>
+        <v>18.89135573290799</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.711918923727004</v>
+        <v>9.393241145583488</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>36.95211805759563</v>
+        <v>25.85623048672781</v>
       </c>
       <c r="N17">
-        <v>15.91053425792453</v>
+        <v>17.96910266754167</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.308587174562906</v>
+        <v>8.02885740993784</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.293653521136454</v>
+        <v>7.936592986959756</v>
       </c>
       <c r="E18">
-        <v>6.945584003292179</v>
+        <v>11.93685461589007</v>
       </c>
       <c r="F18">
-        <v>48.52888236435394</v>
+        <v>41.35426089815189</v>
       </c>
       <c r="G18">
-        <v>76.77258280374573</v>
+        <v>53.72853256375436</v>
       </c>
       <c r="H18">
-        <v>19.15243440798845</v>
+        <v>18.86038385921725</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.741332744659559</v>
+        <v>9.402061869581514</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.46081713096363</v>
+        <v>25.69744661829358</v>
       </c>
       <c r="N18">
-        <v>15.8445824778715</v>
+        <v>17.9553669716024</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.27907013787031</v>
+        <v>8.021486802830676</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.279406424419763</v>
+        <v>7.933815918359222</v>
       </c>
       <c r="E19">
-        <v>6.950356614997083</v>
+        <v>11.93916979792714</v>
       </c>
       <c r="F19">
-        <v>48.29282588177548</v>
+        <v>41.3141383620619</v>
       </c>
       <c r="G19">
-        <v>76.38954204623283</v>
+        <v>53.63059306480424</v>
       </c>
       <c r="H19">
-        <v>19.05801869801776</v>
+        <v>18.84998724063735</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.751299584536238</v>
+        <v>9.405066713218911</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.29350421923817</v>
+        <v>25.64351127411796</v>
       </c>
       <c r="N19">
-        <v>15.8222801634339</v>
+        <v>17.95075519398397</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.416978710968861</v>
+        <v>8.054713799504805</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.34363666518518</v>
+        <v>7.946291630561547</v>
       </c>
       <c r="E20">
-        <v>6.929033868909753</v>
+        <v>11.92882247386104</v>
       </c>
       <c r="F20">
-        <v>49.35375599592172</v>
+        <v>41.49540337842407</v>
       </c>
       <c r="G20">
-        <v>78.1102584019641</v>
+        <v>54.07135562935063</v>
       </c>
       <c r="H20">
-        <v>19.48224396456456</v>
+        <v>18.8971305001193</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.706478492573366</v>
+        <v>9.391617312453562</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.04259177230295</v>
+        <v>25.88553402035647</v>
       </c>
       <c r="N20">
-        <v>15.92275329822695</v>
+        <v>17.97166323937482</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.938554651554025</v>
+        <v>8.167275344240011</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.562008743419108</v>
+        <v>7.987830656795795</v>
       </c>
       <c r="E21">
-        <v>6.860195719117369</v>
+        <v>11.89530095700767</v>
       </c>
       <c r="F21">
-        <v>52.89978029204484</v>
+        <v>42.11634214766852</v>
       </c>
       <c r="G21">
-        <v>83.84767034056661</v>
+        <v>55.55111877935561</v>
       </c>
       <c r="H21">
-        <v>20.89820802105397</v>
+        <v>19.06169047156384</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.556233568774383</v>
+        <v>9.347697981859717</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>39.49485546769601</v>
+        <v>26.68588862163758</v>
       </c>
       <c r="N21">
-        <v>16.26204400462294</v>
+        <v>18.04457349946859</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.265253602920691</v>
+        <v>8.241409004326362</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.707381361556195</v>
+        <v>8.014693617723047</v>
       </c>
       <c r="E22">
-        <v>6.817440758301392</v>
+        <v>11.87431648801574</v>
       </c>
       <c r="F22">
-        <v>55.21072101719388</v>
+        <v>42.53043086186955</v>
       </c>
       <c r="G22">
-        <v>87.57688166587971</v>
+        <v>56.51554959862131</v>
       </c>
       <c r="H22">
-        <v>21.81961251917655</v>
+        <v>19.17372310013478</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.458046709064567</v>
+        <v>9.319935025806075</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>41.0529652153387</v>
+        <v>27.19862286708542</v>
       </c>
       <c r="N22">
-        <v>16.48481485399386</v>
+        <v>18.09415653301901</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.092174877642426</v>
+        <v>8.20179816405664</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.629496397521534</v>
+        <v>8.000382684783066</v>
       </c>
       <c r="E23">
-        <v>6.840044450320476</v>
+        <v>11.88543198870351</v>
       </c>
       <c r="F23">
-        <v>53.97740119136832</v>
+        <v>42.30870678272957</v>
       </c>
       <c r="G23">
-        <v>85.58752035576423</v>
+        <v>56.00117438867333</v>
       </c>
       <c r="H23">
-        <v>21.32799150439918</v>
+        <v>19.11352640871217</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.510467714659755</v>
+        <v>9.334666856444269</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>40.22520263992379</v>
+        <v>26.92596230216598</v>
       </c>
       <c r="N23">
-        <v>16.36583999253035</v>
+        <v>18.0675197576975</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.408212048445053</v>
+        <v>8.052885351122358</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.340101436323943</v>
+        <v>7.945607935368393</v>
       </c>
       <c r="E24">
-        <v>6.930194577904827</v>
+        <v>11.92938601041592</v>
       </c>
       <c r="F24">
-        <v>49.29558055505802</v>
+        <v>41.48540281608688</v>
       </c>
       <c r="G24">
-        <v>78.01595760498911</v>
+        <v>54.04715054941344</v>
       </c>
       <c r="H24">
-        <v>19.45898941999768</v>
+        <v>18.89451815103929</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.708937948775614</v>
+        <v>9.39235110373386</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.00170654579136</v>
+        <v>25.87228934782278</v>
       </c>
       <c r="N24">
-        <v>15.91722868300381</v>
+        <v>17.97050492387823</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.755894090548556</v>
+        <v>7.895476574444182</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.034940741879928</v>
+        <v>7.885323887897025</v>
       </c>
       <c r="E25">
-        <v>7.0361853437722</v>
+        <v>11.98078617416179</v>
       </c>
       <c r="F25">
-        <v>44.36162730553576</v>
+        <v>40.63674925523083</v>
       </c>
       <c r="G25">
-        <v>69.68800821064109</v>
+        <v>51.94000216199047</v>
       </c>
       <c r="H25">
-        <v>17.55879097607726</v>
+        <v>18.67823080431054</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.924604414215727</v>
+        <v>9.458643701075568</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.31169595704716</v>
+        <v>24.6966706714888</v>
       </c>
       <c r="N25">
-        <v>15.43939491719501</v>
+        <v>17.87448656540692</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.783173581191642</v>
+        <v>7.252242859974996</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.839920480229148</v>
+        <v>5.812674772168943</v>
       </c>
       <c r="E2">
-        <v>12.02209393141306</v>
+        <v>7.121133348927637</v>
       </c>
       <c r="F2">
-        <v>40.04974693950228</v>
+        <v>40.80607949066403</v>
       </c>
       <c r="G2">
-        <v>50.40278016977956</v>
+        <v>63.41676518819058</v>
       </c>
       <c r="H2">
-        <v>18.53676769311976</v>
+        <v>16.32061621332503</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.510999597123126</v>
+        <v>5.086241647423831</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>23.80390300648689</v>
+        <v>30.3919147450564</v>
       </c>
       <c r="N2">
-        <v>17.81153797085744</v>
+        <v>15.09462977426231</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.709723325812419</v>
+        <v>6.896063876440168</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.808524432377236</v>
+        <v>5.662314236747943</v>
       </c>
       <c r="E3">
-        <v>12.05226414689429</v>
+        <v>7.18282078260953</v>
       </c>
       <c r="F3">
-        <v>39.67740257645623</v>
+        <v>38.36621135824675</v>
       </c>
       <c r="G3">
-        <v>49.37724731733471</v>
+        <v>59.0783472021559</v>
       </c>
       <c r="H3">
-        <v>18.45225351759321</v>
+        <v>15.484130788973</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.548714958702895</v>
+        <v>5.198177426932279</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23.18563396420499</v>
+        <v>28.27867503156208</v>
       </c>
       <c r="N3">
-        <v>17.7738682296755</v>
+        <v>14.86636612526502</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.666071942561167</v>
+        <v>6.670755383427357</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.788941521657875</v>
+        <v>5.569831360481333</v>
       </c>
       <c r="E4">
-        <v>12.07186712546299</v>
+        <v>7.222685803675209</v>
       </c>
       <c r="F4">
-        <v>39.46191230231511</v>
+        <v>36.85339463166828</v>
       </c>
       <c r="G4">
-        <v>48.75812006814865</v>
+        <v>56.35017816141365</v>
       </c>
       <c r="H4">
-        <v>18.40603214316965</v>
+        <v>14.97199297795261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.572981056780449</v>
+        <v>5.268264463191962</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>22.80086583612374</v>
+        <v>26.9125695458521</v>
       </c>
       <c r="N4">
-        <v>17.75325082035187</v>
+        <v>14.72920617160962</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.648667800845041</v>
+        <v>6.577405957396221</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.78088504315551</v>
+        <v>5.532069533485125</v>
       </c>
       <c r="E5">
-        <v>12.08012739049211</v>
+        <v>7.239426369803838</v>
       </c>
       <c r="F5">
-        <v>39.37747959496287</v>
+        <v>36.23345657839241</v>
       </c>
       <c r="G5">
-        <v>48.50886067323514</v>
+        <v>55.22225549302581</v>
       </c>
       <c r="H5">
-        <v>18.38863130756727</v>
+        <v>14.76375714122046</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.583149466956103</v>
+        <v>5.297190780958121</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>22.64299723067514</v>
+        <v>26.33833113382847</v>
       </c>
       <c r="N5">
-        <v>17.74548818592557</v>
+        <v>14.67411725752592</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.645801634713722</v>
+        <v>6.561816847793183</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.779542679915674</v>
+        <v>5.525793875815038</v>
       </c>
       <c r="E6">
-        <v>12.08151544438165</v>
+        <v>7.242235921425699</v>
       </c>
       <c r="F6">
-        <v>39.36366599527291</v>
+        <v>36.13031884639982</v>
       </c>
       <c r="G6">
-        <v>48.4676661714293</v>
+        <v>55.03399465378384</v>
       </c>
       <c r="H6">
-        <v>18.38582878053411</v>
+        <v>14.72921166683062</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.584854850465447</v>
+        <v>5.302016695118659</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>22.61672521111601</v>
+        <v>26.24191174339265</v>
       </c>
       <c r="N6">
-        <v>17.74423801883558</v>
+        <v>14.66501990111794</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.665835642623647</v>
+        <v>6.669502467997598</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.788833177310882</v>
+        <v>5.569322431398553</v>
       </c>
       <c r="E7">
-        <v>12.07197742442069</v>
+        <v>7.222909573047176</v>
       </c>
       <c r="F7">
-        <v>39.46075982330647</v>
+        <v>36.84504743877744</v>
       </c>
       <c r="G7">
-        <v>48.75474565182966</v>
+        <v>56.33503182991433</v>
       </c>
       <c r="H7">
-        <v>18.40579165015515</v>
+        <v>14.96918258845858</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.57311705738991</v>
+        <v>5.2686530645577</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>22.79874080528145</v>
+        <v>26.90489655685497</v>
       </c>
       <c r="N7">
-        <v>17.75314353334516</v>
+        <v>14.72845989624469</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.757559854521983</v>
+        <v>7.130875737731332</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.829158889978405</v>
+        <v>5.760840935589127</v>
       </c>
       <c r="E8">
-        <v>12.03227325388373</v>
+        <v>7.141987113593277</v>
       </c>
       <c r="F8">
-        <v>39.91868748203282</v>
+        <v>39.96795835483566</v>
       </c>
       <c r="G8">
-        <v>50.04721809505018</v>
+        <v>61.93414482722487</v>
       </c>
       <c r="H8">
-        <v>18.50645621963617</v>
+        <v>16.03193004057799</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.523774334834009</v>
+        <v>5.124570221811385</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>23.59192201790287</v>
+        <v>29.67731318080641</v>
       </c>
       <c r="N8">
-        <v>17.79803268088581</v>
+        <v>15.01533405902584</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.947996968698414</v>
+        <v>7.978514355397337</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.905789688955638</v>
+        <v>6.137158685469775</v>
       </c>
       <c r="E9">
-        <v>11.96293626252313</v>
+        <v>6.999376806238524</v>
       </c>
       <c r="F9">
-        <v>40.91699769271266</v>
+        <v>45.97509789629062</v>
       </c>
       <c r="G9">
-        <v>52.64853613396208</v>
+        <v>72.52073632751842</v>
       </c>
       <c r="H9">
-        <v>18.74836345054039</v>
+        <v>18.12691505772686</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.435765175567516</v>
+        <v>4.851605449642332</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>25.09735941128893</v>
+        <v>34.5850157614481</v>
       </c>
       <c r="N9">
-        <v>17.90564832874191</v>
+        <v>15.59938457639986</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.093089462734838</v>
+        <v>8.598671919793061</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.960570364428005</v>
+        <v>6.417888479669763</v>
       </c>
       <c r="E10">
-        <v>11.91714341331563</v>
+        <v>6.904998631539083</v>
       </c>
       <c r="F10">
-        <v>41.70595765447587</v>
+        <v>50.56987562111959</v>
       </c>
       <c r="G10">
-        <v>54.57809004680612</v>
+        <v>80.08020292256555</v>
       </c>
       <c r="H10">
-        <v>18.95242519426461</v>
+        <v>19.9681741259706</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.376375902592486</v>
+        <v>4.655021944072778</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>26.16163077427799</v>
+        <v>37.89232906663667</v>
       </c>
       <c r="N10">
-        <v>17.99617406619567</v>
+        <v>16.03859821909066</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.159945912094404</v>
+        <v>8.905587295223546</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.985155530807855</v>
+        <v>6.547720813551311</v>
       </c>
       <c r="E11">
-        <v>11.89741919107877</v>
+        <v>6.864529494684744</v>
       </c>
       <c r="F11">
-        <v>42.07561145731312</v>
+        <v>52.67055339226074</v>
       </c>
       <c r="G11">
-        <v>55.45535116030212</v>
+        <v>83.47736926916477</v>
       </c>
       <c r="H11">
-        <v>19.05076352771231</v>
+        <v>20.80675738071443</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.35048895580565</v>
+        <v>4.565963282365605</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>26.63461367131775</v>
+        <v>39.33862983769731</v>
       </c>
       <c r="N11">
-        <v>18.03973531775564</v>
+        <v>16.23999354651043</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.185362316328961</v>
+        <v>9.019373773962416</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.994416528965517</v>
+        <v>6.597325409501323</v>
       </c>
       <c r="E12">
-        <v>11.89010859550982</v>
+        <v>6.849584875929987</v>
       </c>
       <c r="F12">
-        <v>42.21701967869757</v>
+        <v>53.46475207346122</v>
       </c>
       <c r="G12">
-        <v>55.78711757215908</v>
+        <v>84.76003083765463</v>
       </c>
       <c r="H12">
-        <v>19.08877315364387</v>
+        <v>21.12356104430473</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.340847622497263</v>
+        <v>4.532244545089455</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>26.81195838864105</v>
+        <v>39.87859475479731</v>
       </c>
       <c r="N12">
-        <v>18.05656330799093</v>
+        <v>16.31643709678281</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.179884392274969</v>
+        <v>8.994975627594497</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.992424192411633</v>
+        <v>6.586620089631349</v>
       </c>
       <c r="E13">
-        <v>11.89167602263029</v>
+        <v>6.852786053492251</v>
       </c>
       <c r="F13">
-        <v>42.18650326325506</v>
+        <v>53.29373949429059</v>
       </c>
       <c r="G13">
-        <v>55.71569056469757</v>
+        <v>84.48391296256935</v>
       </c>
       <c r="H13">
-        <v>19.08055316459813</v>
+        <v>21.0553549213974</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.342916888577674</v>
+        <v>4.539507043852852</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26.77384485046684</v>
+        <v>39.76263516500152</v>
       </c>
       <c r="N13">
-        <v>18.05292448376005</v>
+        <v>16.29996639706059</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.162035077839201</v>
+        <v>8.914997205802191</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.985918422290614</v>
+        <v>6.551792102945734</v>
       </c>
       <c r="E14">
-        <v>11.89681457044601</v>
+        <v>6.863292193876291</v>
       </c>
       <c r="F14">
-        <v>42.08721725404867</v>
+        <v>52.73590951934484</v>
       </c>
       <c r="G14">
-        <v>55.48265647008098</v>
+        <v>83.5829554471284</v>
       </c>
       <c r="H14">
-        <v>19.05387527749317</v>
+        <v>20.83283243501652</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.349692526319062</v>
+        <v>4.563189399109355</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26.6492401343712</v>
+        <v>39.38320357131085</v>
       </c>
       <c r="N14">
-        <v>18.04111316570079</v>
+        <v>16.24627928345397</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.151114100256091</v>
+        <v>8.865691876237406</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.98192706432862</v>
+        <v>6.530520821541414</v>
       </c>
       <c r="E15">
-        <v>11.89998270601171</v>
+        <v>6.869777930060374</v>
       </c>
       <c r="F15">
-        <v>42.02658418094016</v>
+        <v>52.39410046863276</v>
       </c>
       <c r="G15">
-        <v>55.33984952234515</v>
+        <v>83.03067733229045</v>
       </c>
       <c r="H15">
-        <v>19.03763405346398</v>
+        <v>20.69645178324004</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.353863803387682</v>
+        <v>4.577694770503498</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>26.57268199283256</v>
+        <v>39.14980714938643</v>
       </c>
       <c r="N15">
-        <v>18.03392136283404</v>
+        <v>16.21341631180071</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.088735404343128</v>
+        <v>8.578271684017775</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.958956866651463</v>
+        <v>6.409457120829358</v>
       </c>
       <c r="E16">
-        <v>11.91845465935043</v>
+        <v>6.907694989721447</v>
       </c>
       <c r="F16">
-        <v>41.68200626025839</v>
+        <v>50.43233283678832</v>
       </c>
       <c r="G16">
-        <v>54.52071758001351</v>
+        <v>79.85752889611668</v>
       </c>
       <c r="H16">
-        <v>18.94610764344904</v>
+        <v>19.91323335557682</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.378090324630897</v>
+        <v>4.660845673087439</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>26.13048176587063</v>
+        <v>37.79669166751473</v>
       </c>
       <c r="N16">
-        <v>17.99337428922453</v>
+        <v>16.02546434516777</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.05066995302467</v>
+        <v>8.397576261636242</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.944779123016375</v>
+        <v>6.335818250824109</v>
       </c>
       <c r="E17">
-        <v>11.93006969957034</v>
+        <v>6.931602864319856</v>
       </c>
       <c r="F17">
-        <v>41.47328980227752</v>
+        <v>49.22506302604933</v>
       </c>
       <c r="G17">
-        <v>54.0178153873763</v>
+        <v>77.90164245860664</v>
       </c>
       <c r="H17">
-        <v>18.89135573290799</v>
+        <v>19.43080020270359</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.393241145583488</v>
+        <v>4.711918923727004</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>25.85623048672781</v>
+        <v>36.95211805759559</v>
       </c>
       <c r="N17">
-        <v>17.96910266754167</v>
+        <v>15.91053425792453</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.02885740993784</v>
+        <v>8.308587174562849</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.936592986959756</v>
+        <v>6.293653521136523</v>
       </c>
       <c r="E18">
-        <v>11.93685461589007</v>
+        <v>6.945584003292112</v>
       </c>
       <c r="F18">
-        <v>41.35426089815189</v>
+        <v>48.52888236435391</v>
       </c>
       <c r="G18">
-        <v>53.72853256375436</v>
+        <v>76.77258280374569</v>
       </c>
       <c r="H18">
-        <v>18.86038385921725</v>
+        <v>19.15243440798845</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.402061869581514</v>
+        <v>4.741332744659495</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>25.69744661829358</v>
+        <v>36.46081713096358</v>
       </c>
       <c r="N18">
-        <v>17.9553669716024</v>
+        <v>15.8445824778715</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.021486802830676</v>
+        <v>8.279070137870313</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.933815918359222</v>
+        <v>6.279406424419574</v>
       </c>
       <c r="E19">
-        <v>11.93916979792714</v>
+        <v>6.950356614997082</v>
       </c>
       <c r="F19">
-        <v>41.3141383620619</v>
+        <v>48.29282588177553</v>
       </c>
       <c r="G19">
-        <v>53.63059306480424</v>
+        <v>76.3895420462329</v>
       </c>
       <c r="H19">
-        <v>18.84998724063735</v>
+        <v>19.05801869801778</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.405066713218911</v>
+        <v>4.751299584536206</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>25.64351127411796</v>
+        <v>36.29350421923821</v>
       </c>
       <c r="N19">
-        <v>17.95075519398397</v>
+        <v>15.82228016343387</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.054713799504805</v>
+        <v>8.416978710968861</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.946291630561547</v>
+        <v>6.34363666518525</v>
       </c>
       <c r="E20">
-        <v>11.92882247386104</v>
+        <v>6.929033868909886</v>
       </c>
       <c r="F20">
-        <v>41.49540337842407</v>
+        <v>49.35375599592173</v>
       </c>
       <c r="G20">
-        <v>54.07135562935063</v>
+        <v>78.11025840196417</v>
       </c>
       <c r="H20">
-        <v>18.8971305001193</v>
+        <v>19.48224396456456</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.391617312453562</v>
+        <v>4.7064784925734</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>25.88553402035647</v>
+        <v>37.04259177230301</v>
       </c>
       <c r="N20">
-        <v>17.97166323937482</v>
+        <v>15.92275329822697</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.167275344240011</v>
+        <v>8.938554651554087</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.987830656795795</v>
+        <v>6.562008743419166</v>
       </c>
       <c r="E21">
-        <v>11.89530095700767</v>
+        <v>6.860195719117369</v>
       </c>
       <c r="F21">
-        <v>42.11634214766852</v>
+        <v>52.89978029204484</v>
       </c>
       <c r="G21">
-        <v>55.55111877935561</v>
+        <v>83.84767034056662</v>
       </c>
       <c r="H21">
-        <v>19.06169047156384</v>
+        <v>20.89820802105397</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.347697981859717</v>
+        <v>4.556233568774382</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>26.68588862163758</v>
+        <v>39.49485546769601</v>
       </c>
       <c r="N21">
-        <v>18.04457349946859</v>
+        <v>16.26204400462294</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.241409004326362</v>
+        <v>9.265253602920657</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.014693617723047</v>
+        <v>6.707381361556253</v>
       </c>
       <c r="E22">
-        <v>11.87431648801574</v>
+        <v>6.817440758301394</v>
       </c>
       <c r="F22">
-        <v>42.53043086186955</v>
+        <v>55.21072101719388</v>
       </c>
       <c r="G22">
-        <v>56.51554959862131</v>
+        <v>87.57688166587972</v>
       </c>
       <c r="H22">
-        <v>19.17372310013478</v>
+        <v>21.81961251917654</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.319935025806075</v>
+        <v>4.458046709064599</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>27.19862286708542</v>
+        <v>41.05296521533873</v>
       </c>
       <c r="N22">
-        <v>18.09415653301901</v>
+        <v>16.48481485399389</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.20179816405664</v>
+        <v>9.09217487764244</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.000382684783066</v>
+        <v>6.629496397521542</v>
       </c>
       <c r="E23">
-        <v>11.88543198870351</v>
+        <v>6.840044450320476</v>
       </c>
       <c r="F23">
-        <v>42.30870678272957</v>
+        <v>53.97740119136828</v>
       </c>
       <c r="G23">
-        <v>56.00117438867333</v>
+        <v>85.58752035576418</v>
       </c>
       <c r="H23">
-        <v>19.11352640871217</v>
+        <v>21.32799150439915</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.334666856444269</v>
+        <v>4.510467714659789</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>26.92596230216598</v>
+        <v>40.22520263992374</v>
       </c>
       <c r="N23">
-        <v>18.0675197576975</v>
+        <v>16.36583999253033</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.052885351122358</v>
+        <v>8.408212048445082</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.945607935368393</v>
+        <v>6.340101436323948</v>
       </c>
       <c r="E24">
-        <v>11.92938601041592</v>
+        <v>6.930194577904956</v>
       </c>
       <c r="F24">
-        <v>41.48540281608688</v>
+        <v>49.29558055505808</v>
       </c>
       <c r="G24">
-        <v>54.04715054941344</v>
+        <v>78.01595760498917</v>
       </c>
       <c r="H24">
-        <v>18.89451815103929</v>
+        <v>19.4589894199977</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.39235110373386</v>
+        <v>4.708937948775619</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>25.87228934782278</v>
+        <v>37.00170654579139</v>
       </c>
       <c r="N24">
-        <v>17.97050492387823</v>
+        <v>15.91722868300383</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.895476574444182</v>
+        <v>7.755894090548603</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.885323887897025</v>
+        <v>6.034940741879867</v>
       </c>
       <c r="E25">
-        <v>11.98078617416179</v>
+        <v>7.03618534377213</v>
       </c>
       <c r="F25">
-        <v>40.63674925523083</v>
+        <v>44.3616273055358</v>
       </c>
       <c r="G25">
-        <v>51.94000216199047</v>
+        <v>69.68800821064124</v>
       </c>
       <c r="H25">
-        <v>18.67823080431054</v>
+        <v>17.55879097607728</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.458643701075568</v>
+        <v>4.924604414215765</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>24.6966706714888</v>
+        <v>33.31169595704723</v>
       </c>
       <c r="N25">
-        <v>17.87448656540692</v>
+        <v>15.439394917195</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.252242859974996</v>
+        <v>11.39831662320697</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.812674772168943</v>
+        <v>6.505724407448908</v>
       </c>
       <c r="E2">
-        <v>7.121133348927637</v>
+        <v>9.95328597020999</v>
       </c>
       <c r="F2">
-        <v>40.80607949066403</v>
+        <v>20.48557671062964</v>
       </c>
       <c r="G2">
-        <v>63.41676518819058</v>
+        <v>21.98005441243869</v>
       </c>
       <c r="H2">
-        <v>16.32061621332503</v>
+        <v>2.955122710785695</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.159274372815276</v>
       </c>
       <c r="J2">
-        <v>5.086241647423831</v>
+        <v>8.992025706045235</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.7969502984901</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.219212528637731</v>
       </c>
       <c r="M2">
-        <v>30.3919147450564</v>
+        <v>12.33298555073154</v>
       </c>
       <c r="N2">
-        <v>15.09462977426231</v>
+        <v>6.185788495231342</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.625943810049838</v>
+      </c>
+      <c r="P2">
+        <v>13.5031651950581</v>
+      </c>
+      <c r="Q2">
+        <v>14.56184735112069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.896063876440168</v>
+        <v>10.79937513211739</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.662314236747943</v>
+        <v>6.409683420904912</v>
       </c>
       <c r="E3">
-        <v>7.18282078260953</v>
+        <v>9.897442781237812</v>
       </c>
       <c r="F3">
-        <v>38.36621135824675</v>
+        <v>20.31400612565343</v>
       </c>
       <c r="G3">
-        <v>59.0783472021559</v>
+        <v>21.66258371845661</v>
       </c>
       <c r="H3">
-        <v>15.484130788973</v>
+        <v>3.113429626007348</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.263952153232258</v>
       </c>
       <c r="J3">
-        <v>5.198177426932279</v>
+        <v>9.014878329201455</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.91527635915531</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.180228025613316</v>
       </c>
       <c r="M3">
-        <v>28.27867503156208</v>
+        <v>11.71316214592323</v>
       </c>
       <c r="N3">
-        <v>14.86636612526502</v>
+        <v>5.960081271890005</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.294202278240737</v>
+      </c>
+      <c r="P3">
+        <v>13.61590985231834</v>
+      </c>
+      <c r="Q3">
+        <v>14.52545042002821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.670755383427357</v>
+        <v>10.41103550026969</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.569831360481333</v>
+        <v>6.35036210417303</v>
       </c>
       <c r="E4">
-        <v>7.222685803675209</v>
+        <v>9.861941578927519</v>
       </c>
       <c r="F4">
-        <v>36.85339463166828</v>
+        <v>20.21526636383594</v>
       </c>
       <c r="G4">
-        <v>56.35017816141365</v>
+        <v>21.47665347060224</v>
       </c>
       <c r="H4">
-        <v>14.97199297795261</v>
+        <v>3.214421713287434</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.331450308059873</v>
       </c>
       <c r="J4">
-        <v>5.268264463191962</v>
+        <v>9.031748623983921</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.9902122691603</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.155383403947703</v>
       </c>
       <c r="M4">
-        <v>26.9125695458521</v>
+        <v>11.31511261324711</v>
       </c>
       <c r="N4">
-        <v>14.72920617160962</v>
+        <v>5.819426528843727</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.084842721163616</v>
+      </c>
+      <c r="P4">
+        <v>13.68697578822264</v>
+      </c>
+      <c r="Q4">
+        <v>14.5089373190718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.577405957396221</v>
+        <v>10.23932384747188</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.532069533485125</v>
+        <v>6.325053833213685</v>
       </c>
       <c r="E5">
-        <v>7.239426369803838</v>
+        <v>9.845737407003776</v>
       </c>
       <c r="F5">
-        <v>36.23345657839241</v>
+        <v>20.17210996763225</v>
       </c>
       <c r="G5">
-        <v>55.22225549302581</v>
+        <v>21.39641032718829</v>
       </c>
       <c r="H5">
-        <v>14.76375714122046</v>
+        <v>3.256800572570985</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.362196126390196</v>
       </c>
       <c r="J5">
-        <v>5.297190780958121</v>
+        <v>9.038247583316641</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.01740333090983</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.14480311914197</v>
       </c>
       <c r="M5">
-        <v>26.33833113382847</v>
+        <v>11.1512259746862</v>
       </c>
       <c r="N5">
-        <v>14.67411725752592</v>
+        <v>5.7658944414262</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.997693593703339</v>
+      </c>
+      <c r="P5">
+        <v>13.71630976957647</v>
+      </c>
+      <c r="Q5">
+        <v>14.50091768657501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.561816847793183</v>
+        <v>10.20021915285451</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.525793875815038</v>
+        <v>6.319541950246873</v>
       </c>
       <c r="E6">
-        <v>7.242235921425699</v>
+        <v>9.841285608686867</v>
       </c>
       <c r="F6">
-        <v>36.13031884639982</v>
+        <v>20.159436237669</v>
       </c>
       <c r="G6">
-        <v>55.03399465378384</v>
+        <v>21.37494223225672</v>
       </c>
       <c r="H6">
-        <v>14.72921166683062</v>
+        <v>3.264213732445394</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.370439123221952</v>
       </c>
       <c r="J6">
-        <v>5.302016695118659</v>
+        <v>9.038052582882084</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.01716858531579</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.14276326865085</v>
       </c>
       <c r="M6">
-        <v>26.24191174339265</v>
+        <v>11.12695699898416</v>
       </c>
       <c r="N6">
-        <v>14.66501990111794</v>
+        <v>5.762165446954008</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.982511842729068</v>
+      </c>
+      <c r="P6">
+        <v>13.72110350985315</v>
+      </c>
+      <c r="Q6">
+        <v>14.49633366166782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.669502467997598</v>
+        <v>10.38116135751838</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.569322431398553</v>
+        <v>6.346478238195233</v>
       </c>
       <c r="E7">
-        <v>7.222909573047176</v>
+        <v>9.857008038961009</v>
       </c>
       <c r="F7">
-        <v>36.84504743877744</v>
+        <v>20.19943152852387</v>
       </c>
       <c r="G7">
-        <v>56.33503182991433</v>
+        <v>21.45307690910887</v>
       </c>
       <c r="H7">
-        <v>14.96918258845858</v>
+        <v>3.215838770438212</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.340011636825585</v>
       </c>
       <c r="J7">
-        <v>5.2686530645577</v>
+        <v>9.028250424659864</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.97753922445146</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.154537238005466</v>
       </c>
       <c r="M7">
-        <v>26.90489655685497</v>
+        <v>11.32152367799322</v>
       </c>
       <c r="N7">
-        <v>14.72845989624469</v>
+        <v>5.83267425500754</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.081956941369198</v>
+      </c>
+      <c r="P7">
+        <v>13.68714456330743</v>
+      </c>
+      <c r="Q7">
+        <v>14.49973699302372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.130875737731332</v>
+        <v>11.16195609008873</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.760840935589127</v>
+        <v>6.468120604722646</v>
       </c>
       <c r="E8">
-        <v>7.141987113593277</v>
+        <v>9.928240429722822</v>
       </c>
       <c r="F8">
-        <v>39.96795835483566</v>
+        <v>20.40522149847401</v>
       </c>
       <c r="G8">
-        <v>61.93414482722487</v>
+        <v>21.83967308989038</v>
       </c>
       <c r="H8">
-        <v>16.03193004057799</v>
+        <v>3.00997047335685</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.204905775161538</v>
       </c>
       <c r="J8">
-        <v>5.124570221811385</v>
+        <v>8.994614735096869</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.82018801216234</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.205157458695433</v>
       </c>
       <c r="M8">
-        <v>29.67731318080641</v>
+        <v>12.13373388031085</v>
       </c>
       <c r="N8">
-        <v>15.01533405902584</v>
+        <v>6.126069839034723</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.510611098788663</v>
+      </c>
+      <c r="P8">
+        <v>13.5416379603251</v>
+      </c>
+      <c r="Q8">
+        <v>14.53619459933154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.978514355397337</v>
+        <v>12.57015098149732</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.137158685469775</v>
+        <v>6.70906874886933</v>
       </c>
       <c r="E9">
-        <v>6.999376806238524</v>
+        <v>10.06655194691177</v>
       </c>
       <c r="F9">
-        <v>45.97509789629062</v>
+        <v>20.88753031695019</v>
       </c>
       <c r="G9">
-        <v>72.52073632751842</v>
+        <v>22.706455341545</v>
       </c>
       <c r="H9">
-        <v>18.12691505772686</v>
+        <v>2.634515759363111</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.952115870456632</v>
       </c>
       <c r="J9">
-        <v>4.851605449642332</v>
+        <v>8.958139976611406</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.55274738964108</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.298467915365291</v>
       </c>
       <c r="M9">
-        <v>34.5850157614481</v>
+        <v>13.57007180294794</v>
       </c>
       <c r="N9">
-        <v>15.59938457639986</v>
+        <v>6.658780142319359</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.30482039450981</v>
+      </c>
+      <c r="P9">
+        <v>13.27072609223925</v>
+      </c>
+      <c r="Q9">
+        <v>14.67121527624604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.598671919793061</v>
+        <v>13.43934905276755</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.417888479669763</v>
+        <v>6.845447607283435</v>
       </c>
       <c r="E10">
-        <v>6.904998631539083</v>
+        <v>10.1269183160346</v>
       </c>
       <c r="F10">
-        <v>50.56987562111959</v>
+        <v>21.17345652988365</v>
       </c>
       <c r="G10">
-        <v>80.08020292256555</v>
+        <v>23.25658605949502</v>
       </c>
       <c r="H10">
-        <v>19.9681741259706</v>
+        <v>2.40162462591418</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.790141458275956</v>
       </c>
       <c r="J10">
-        <v>4.655021944072778</v>
+        <v>8.925625591128334</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.32224543525341</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.36380782148416</v>
       </c>
       <c r="M10">
-        <v>37.89232906663667</v>
+        <v>14.54527687804304</v>
       </c>
       <c r="N10">
-        <v>16.03859821909066</v>
+        <v>6.976143375147386</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.79676963105211</v>
+      </c>
+      <c r="P10">
+        <v>13.08382146345692</v>
+      </c>
+      <c r="Q10">
+        <v>14.7482635835534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.905587295223546</v>
+        <v>13.37232973341833</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.547720813551311</v>
+        <v>6.599510671239941</v>
       </c>
       <c r="E11">
-        <v>6.864529494684744</v>
+        <v>9.935100958644115</v>
       </c>
       <c r="F11">
-        <v>52.67055339226074</v>
+        <v>20.48526095161632</v>
       </c>
       <c r="G11">
-        <v>83.47736926916477</v>
+        <v>22.47423844427799</v>
       </c>
       <c r="H11">
-        <v>20.80675738071443</v>
+        <v>3.217424632371869</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.767475456302723</v>
       </c>
       <c r="J11">
-        <v>4.565963282365605</v>
+        <v>8.742585183759212</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.87932671159246</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.442871049188102</v>
       </c>
       <c r="M11">
-        <v>39.33862983769731</v>
+        <v>15.03709021216615</v>
       </c>
       <c r="N11">
-        <v>16.23999354651043</v>
+        <v>6.576766950461415</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.52924382347939</v>
+      </c>
+      <c r="P11">
+        <v>13.04184340037605</v>
+      </c>
+      <c r="Q11">
+        <v>14.35434425790069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.019373773962416</v>
+        <v>13.1672887786705</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.597325409501323</v>
+        <v>6.373234255389139</v>
       </c>
       <c r="E12">
-        <v>6.849584875929987</v>
+        <v>9.871568269795487</v>
       </c>
       <c r="F12">
-        <v>53.46475207346122</v>
+        <v>19.85400689271107</v>
       </c>
       <c r="G12">
-        <v>84.76003083765463</v>
+        <v>21.70975548560381</v>
       </c>
       <c r="H12">
-        <v>21.12356104430473</v>
+        <v>4.468038022592222</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.765392368598142</v>
       </c>
       <c r="J12">
-        <v>4.532244545089455</v>
+        <v>8.596671512621695</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.59065939647973</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.549251872074938</v>
       </c>
       <c r="M12">
-        <v>39.87859475479731</v>
+        <v>15.24345451540081</v>
       </c>
       <c r="N12">
-        <v>16.31643709678281</v>
+        <v>6.151520228335849</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.19737127634134</v>
+      </c>
+      <c r="P12">
+        <v>13.05782983214031</v>
+      </c>
+      <c r="Q12">
+        <v>14.01029161778196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.994975627594497</v>
+        <v>12.80420227454372</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.586620089631349</v>
+        <v>6.142725265301794</v>
       </c>
       <c r="E13">
-        <v>6.852786053492251</v>
+        <v>9.894036422253297</v>
       </c>
       <c r="F13">
-        <v>53.29373949429059</v>
+        <v>19.20164499338024</v>
       </c>
       <c r="G13">
-        <v>84.48391296256935</v>
+        <v>20.86846835305478</v>
       </c>
       <c r="H13">
-        <v>21.0553549213974</v>
+        <v>5.819620788385666</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.791765819143869</v>
       </c>
       <c r="J13">
-        <v>4.539507043852852</v>
+        <v>8.464833493822937</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.38504427232786</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.677454232833686</v>
       </c>
       <c r="M13">
-        <v>39.76263516500152</v>
+        <v>15.25895992957427</v>
       </c>
       <c r="N13">
-        <v>16.29996639706059</v>
+        <v>5.691354664866988</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.787334596643278</v>
+      </c>
+      <c r="P13">
+        <v>13.11634150641698</v>
+      </c>
+      <c r="Q13">
+        <v>13.66824408133412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.914997205802191</v>
+        <v>12.46702200112116</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.551792102945734</v>
+        <v>5.980412063442077</v>
       </c>
       <c r="E14">
-        <v>6.863292193876291</v>
+        <v>9.961004245847635</v>
       </c>
       <c r="F14">
-        <v>52.73590951934484</v>
+        <v>18.73239086637194</v>
       </c>
       <c r="G14">
-        <v>83.5829554471284</v>
+        <v>20.2362735905424</v>
       </c>
       <c r="H14">
-        <v>20.83283243501652</v>
+        <v>6.795137907362665</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.825530872967144</v>
       </c>
       <c r="J14">
-        <v>4.563189399109355</v>
+        <v>8.378501223388602</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.28034221797522</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.781832620597393</v>
       </c>
       <c r="M14">
-        <v>39.38320357131085</v>
+        <v>15.18580327922778</v>
       </c>
       <c r="N14">
-        <v>16.24627928345397</v>
+        <v>5.35481474541599</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.461298549026521</v>
+      </c>
+      <c r="P14">
+        <v>13.17714225153302</v>
+      </c>
+      <c r="Q14">
+        <v>13.42808032571061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.865691876237406</v>
+        <v>12.34165277578776</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.530520821541414</v>
+        <v>5.938505239556595</v>
       </c>
       <c r="E15">
-        <v>6.869777930060374</v>
+        <v>9.981928287534545</v>
       </c>
       <c r="F15">
-        <v>52.39410046863276</v>
+        <v>18.61056901418611</v>
       </c>
       <c r="G15">
-        <v>83.03067733229045</v>
+        <v>20.06062752619112</v>
       </c>
       <c r="H15">
-        <v>20.69645178324004</v>
+        <v>7.023958465501249</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.843862847211674</v>
       </c>
       <c r="J15">
-        <v>4.577694770503498</v>
+        <v>8.35988493218489</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.26764106592765</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.805766154060774</v>
       </c>
       <c r="M15">
-        <v>39.14980714938643</v>
+        <v>15.1295761344309</v>
       </c>
       <c r="N15">
-        <v>16.21341631180071</v>
+        <v>5.269659262795779</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.364846939162888</v>
+      </c>
+      <c r="P15">
+        <v>13.19974646561687</v>
+      </c>
+      <c r="Q15">
+        <v>13.36833962573914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.578271684017775</v>
+        <v>12.0171959059309</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.409457120829358</v>
+        <v>5.922592905489408</v>
       </c>
       <c r="E16">
-        <v>6.907694989721447</v>
+        <v>9.942925963842802</v>
       </c>
       <c r="F16">
-        <v>50.43233283678832</v>
+        <v>18.60211882748772</v>
       </c>
       <c r="G16">
-        <v>79.85752889611668</v>
+        <v>19.9548039813462</v>
       </c>
       <c r="H16">
-        <v>19.91323335557682</v>
+        <v>6.834427659784508</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.913147032698205</v>
       </c>
       <c r="J16">
-        <v>4.660845673087439</v>
+        <v>8.397630152988235</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.40238055264297</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.746447183824497</v>
       </c>
       <c r="M16">
-        <v>37.79669166751473</v>
+        <v>14.73188544616382</v>
       </c>
       <c r="N16">
-        <v>16.02546434516777</v>
+        <v>5.21649234762249</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.223235077995588</v>
+      </c>
+      <c r="P16">
+        <v>13.25846092405948</v>
+      </c>
+      <c r="Q16">
+        <v>13.39479913251531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.397576261636242</v>
+        <v>11.95080265380221</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.335818250824109</v>
+        <v>5.99607635940714</v>
       </c>
       <c r="E17">
-        <v>6.931602864319856</v>
+        <v>9.868876333658255</v>
       </c>
       <c r="F17">
-        <v>49.22506302604933</v>
+        <v>18.84714451392641</v>
       </c>
       <c r="G17">
-        <v>77.90164245860664</v>
+        <v>20.21725750526053</v>
       </c>
       <c r="H17">
-        <v>19.43080020270359</v>
+        <v>6.141695811427269</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.948937896308281</v>
       </c>
       <c r="J17">
-        <v>4.711918923727004</v>
+        <v>8.47268523288048</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.55865100800049</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.641723305798516</v>
       </c>
       <c r="M17">
-        <v>36.95211805759559</v>
+        <v>14.46165557780515</v>
       </c>
       <c r="N17">
-        <v>15.91053425792453</v>
+        <v>5.359252274951063</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.29212055871043</v>
+      </c>
+      <c r="P17">
+        <v>13.27242334930666</v>
+      </c>
+      <c r="Q17">
+        <v>13.54389023757218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.308587174562849</v>
+        <v>12.12195111263919</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.293653521136523</v>
+        <v>6.162220038066706</v>
       </c>
       <c r="E18">
-        <v>6.945584003292112</v>
+        <v>9.807087064308835</v>
       </c>
       <c r="F18">
-        <v>48.52888236435391</v>
+        <v>19.34651063327916</v>
       </c>
       <c r="G18">
-        <v>76.77258280374569</v>
+        <v>20.83563197800253</v>
       </c>
       <c r="H18">
-        <v>19.15243440798845</v>
+        <v>4.980601349468312</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.949875266729588</v>
       </c>
       <c r="J18">
-        <v>4.741332744659495</v>
+        <v>8.589809383365306</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.76919736331369</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.507211000843266</v>
       </c>
       <c r="M18">
-        <v>36.46081713096358</v>
+        <v>14.26947916390436</v>
       </c>
       <c r="N18">
-        <v>15.8445824778715</v>
+        <v>5.680230721389053</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.551390981915905</v>
+      </c>
+      <c r="P18">
+        <v>13.25347315416787</v>
+      </c>
+      <c r="Q18">
+        <v>13.8192139575503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.279070137870313</v>
+        <v>12.42516233098539</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.279406424419574</v>
+        <v>6.392765630595106</v>
       </c>
       <c r="E19">
-        <v>6.950356614997082</v>
+        <v>9.836899761611329</v>
       </c>
       <c r="F19">
-        <v>48.29282588177553</v>
+        <v>19.98854114055156</v>
       </c>
       <c r="G19">
-        <v>76.3895420462329</v>
+        <v>21.65029048539605</v>
       </c>
       <c r="H19">
-        <v>19.05801869801778</v>
+        <v>3.669724752089274</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.937015639454811</v>
       </c>
       <c r="J19">
-        <v>4.751299584536206</v>
+        <v>8.725805657727692</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.00781100248292</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.397133610046207</v>
       </c>
       <c r="M19">
-        <v>36.29350421923821</v>
+        <v>14.17132434406316</v>
       </c>
       <c r="N19">
-        <v>15.82228016343387</v>
+        <v>6.14280786461062</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.93870888193411</v>
+      </c>
+      <c r="P19">
+        <v>13.22003272383033</v>
+      </c>
+      <c r="Q19">
+        <v>14.15940666880117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.416978710968861</v>
+        <v>13.14698039204649</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.34363666518525</v>
+        <v>6.798221983861348</v>
       </c>
       <c r="E20">
-        <v>6.929033868909886</v>
+        <v>10.09707170942585</v>
       </c>
       <c r="F20">
-        <v>49.35375599592173</v>
+        <v>21.04777536764675</v>
       </c>
       <c r="G20">
-        <v>78.11025840196417</v>
+        <v>23.04029955069739</v>
       </c>
       <c r="H20">
-        <v>19.48224396456456</v>
+        <v>2.463400267111143</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.857441898063541</v>
       </c>
       <c r="J20">
-        <v>4.7064784925734</v>
+        <v>8.921515743044722</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.34131151500121</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.345828718876589</v>
       </c>
       <c r="M20">
-        <v>37.04259177230301</v>
+        <v>14.31799938462732</v>
       </c>
       <c r="N20">
-        <v>15.92275329822697</v>
+        <v>6.927528427036613</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.66269836984418</v>
+      </c>
+      <c r="P20">
+        <v>13.13383221514752</v>
+      </c>
+      <c r="Q20">
+        <v>14.69680420057555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.938554651554087</v>
+        <v>13.87102154441018</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.562008743419166</v>
+        <v>6.958919116684988</v>
       </c>
       <c r="E21">
-        <v>6.860195719117369</v>
+        <v>10.19679093420734</v>
       </c>
       <c r="F21">
-        <v>52.89978029204484</v>
+        <v>21.43036494281516</v>
       </c>
       <c r="G21">
-        <v>83.84767034056662</v>
+        <v>23.66978292734284</v>
       </c>
       <c r="H21">
-        <v>20.89820802105397</v>
+        <v>2.251811870050135</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.72602932680361</v>
       </c>
       <c r="J21">
-        <v>4.556233568774382</v>
+        <v>8.933406034586236</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.23631072178404</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.393797596963458</v>
       </c>
       <c r="M21">
-        <v>39.49485546769601</v>
+        <v>15.02105211929316</v>
       </c>
       <c r="N21">
-        <v>16.26204400462294</v>
+        <v>7.25716734385543</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.11560477814218</v>
+      </c>
+      <c r="P21">
+        <v>12.98841443575962</v>
+      </c>
+      <c r="Q21">
+        <v>14.84716236051595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.265253602920657</v>
+        <v>14.32572864477928</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.707381361556253</v>
+        <v>7.048821920331873</v>
       </c>
       <c r="E22">
-        <v>6.817440758301394</v>
+        <v>10.24926937153614</v>
       </c>
       <c r="F22">
-        <v>55.21072101719388</v>
+        <v>21.65635240680449</v>
       </c>
       <c r="G22">
-        <v>87.57688166587972</v>
+        <v>24.0531705670513</v>
       </c>
       <c r="H22">
-        <v>21.81961251917654</v>
+        <v>2.127659210695577</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.634545140557893</v>
       </c>
       <c r="J22">
-        <v>4.458046709064599</v>
+        <v>8.938919862287285</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.16638985108849</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.42544355818399</v>
       </c>
       <c r="M22">
-        <v>41.05296521533873</v>
+        <v>15.45843220784951</v>
       </c>
       <c r="N22">
-        <v>16.48481485399389</v>
+        <v>7.42140393807892</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.37726423664684</v>
+      </c>
+      <c r="P22">
+        <v>12.89569798121064</v>
+      </c>
+      <c r="Q22">
+        <v>14.93763228478191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.09217487764244</v>
+        <v>14.10953758959323</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.629496397521542</v>
+        <v>7.004651569795</v>
       </c>
       <c r="E23">
-        <v>6.840044450320476</v>
+        <v>10.22617411669808</v>
       </c>
       <c r="F23">
-        <v>53.97740119136828</v>
+        <v>21.55168450265712</v>
       </c>
       <c r="G23">
-        <v>85.58752035576418</v>
+        <v>23.8713916091535</v>
       </c>
       <c r="H23">
-        <v>21.32799150439915</v>
+        <v>2.192915414987961</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.673254512115611</v>
       </c>
       <c r="J23">
-        <v>4.510467714659789</v>
+        <v>8.939743472138996</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.2183483616383</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.408989022603836</v>
       </c>
       <c r="M23">
-        <v>40.22520263992374</v>
+        <v>15.21857750240132</v>
       </c>
       <c r="N23">
-        <v>16.36583999253033</v>
+        <v>7.320746846532774</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.24001879118426</v>
+      </c>
+      <c r="P23">
+        <v>12.94433881689462</v>
+      </c>
+      <c r="Q23">
+        <v>14.8988420909827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.408212048445082</v>
+        <v>13.21279471969748</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.340101436323948</v>
+        <v>6.829728362514244</v>
       </c>
       <c r="E24">
-        <v>6.930194577904956</v>
+        <v>10.12951278869068</v>
       </c>
       <c r="F24">
-        <v>49.29558055505808</v>
+        <v>21.14092065836733</v>
       </c>
       <c r="G24">
-        <v>78.01595760498917</v>
+        <v>23.15987421804282</v>
       </c>
       <c r="H24">
-        <v>19.4589894199977</v>
+        <v>2.447117920743915</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.840667550063342</v>
       </c>
       <c r="J24">
-        <v>4.708937948775619</v>
+        <v>8.942703155817116</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.39631623658814</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.344914123247525</v>
       </c>
       <c r="M24">
-        <v>37.00170654579139</v>
+        <v>14.28806496421108</v>
       </c>
       <c r="N24">
-        <v>15.91722868300383</v>
+        <v>6.952762607582224</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.70249291500544</v>
+      </c>
+      <c r="P24">
+        <v>13.13289987092969</v>
+      </c>
+      <c r="Q24">
+        <v>14.74856448315872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.755894090548603</v>
+        <v>12.16491470875206</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.034940741879867</v>
+        <v>6.6383770147216</v>
       </c>
       <c r="E25">
-        <v>7.03618534377213</v>
+        <v>10.02223284622866</v>
       </c>
       <c r="F25">
-        <v>44.3616273055358</v>
+        <v>20.72513498771602</v>
       </c>
       <c r="G25">
-        <v>69.68800821064124</v>
+        <v>22.42646636565175</v>
       </c>
       <c r="H25">
-        <v>17.55879097607728</v>
+        <v>2.734275866691279</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.032050776183134</v>
       </c>
       <c r="J25">
-        <v>4.924604414215765</v>
+        <v>8.95910710939679</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.60013036152058</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.273076144269481</v>
       </c>
       <c r="M25">
-        <v>33.31169595704723</v>
+        <v>13.21081464597711</v>
       </c>
       <c r="N25">
-        <v>15.439394917195</v>
+        <v>6.539675355237434</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>10.09296672284876</v>
+      </c>
+      <c r="P25">
+        <v>13.34292214501661</v>
+      </c>
+      <c r="Q25">
+        <v>14.61350025854029</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.39831662320697</v>
+        <v>10.85640898942489</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.505724407448908</v>
+        <v>6.361149798083865</v>
       </c>
       <c r="E2">
-        <v>9.95328597020999</v>
+        <v>9.599009206487857</v>
       </c>
       <c r="F2">
-        <v>20.48557671062964</v>
+        <v>20.15598350696647</v>
       </c>
       <c r="G2">
-        <v>21.98005441243869</v>
+        <v>21.00768409038387</v>
       </c>
       <c r="H2">
-        <v>2.955122710785695</v>
+        <v>2.806257358640373</v>
       </c>
       <c r="I2">
-        <v>4.159274372815276</v>
+        <v>3.882836868851507</v>
       </c>
       <c r="J2">
-        <v>8.992025706045235</v>
+        <v>9.313894176518014</v>
       </c>
       <c r="K2">
-        <v>16.7969502984901</v>
+        <v>16.01017832821175</v>
       </c>
       <c r="L2">
-        <v>7.219212528637731</v>
+        <v>12.4248706940648</v>
       </c>
       <c r="M2">
-        <v>12.33298555073154</v>
+        <v>11.18213572190677</v>
       </c>
       <c r="N2">
-        <v>6.185788495231342</v>
+        <v>7.0321792209468</v>
       </c>
       <c r="O2">
-        <v>9.625943810049838</v>
+        <v>12.33884919107894</v>
       </c>
       <c r="P2">
-        <v>13.5031651950581</v>
+        <v>6.571959128630156</v>
       </c>
       <c r="Q2">
-        <v>14.56184735112069</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.57924462789933</v>
+      </c>
+      <c r="R2">
+        <v>13.31656659857393</v>
+      </c>
+      <c r="S2">
+        <v>14.37722857794116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.79937513211739</v>
+        <v>10.29088420393879</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.409683420904912</v>
+        <v>6.272123132535065</v>
       </c>
       <c r="E3">
-        <v>9.897442781237812</v>
+        <v>9.550048684467322</v>
       </c>
       <c r="F3">
-        <v>20.31400612565343</v>
+        <v>20.00633476402611</v>
       </c>
       <c r="G3">
-        <v>21.66258371845661</v>
+        <v>20.74359323504039</v>
       </c>
       <c r="H3">
-        <v>3.113429626007348</v>
+        <v>2.956061878844373</v>
       </c>
       <c r="I3">
-        <v>4.263952153232258</v>
+        <v>3.973989912137023</v>
       </c>
       <c r="J3">
-        <v>9.014878329201455</v>
+        <v>9.311557385101095</v>
       </c>
       <c r="K3">
-        <v>16.91527635915531</v>
+        <v>16.13759655339128</v>
       </c>
       <c r="L3">
-        <v>7.180228025613316</v>
+        <v>12.57583176485247</v>
       </c>
       <c r="M3">
-        <v>11.71316214592323</v>
+        <v>11.27016753587224</v>
       </c>
       <c r="N3">
-        <v>5.960081271890005</v>
+        <v>6.990519756676602</v>
       </c>
       <c r="O3">
-        <v>9.294202278240737</v>
+        <v>11.69587033574336</v>
       </c>
       <c r="P3">
-        <v>13.61590985231834</v>
+        <v>6.332992491534981</v>
       </c>
       <c r="Q3">
-        <v>14.52545042002821</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.247805534093439</v>
+      </c>
+      <c r="R3">
+        <v>13.4194663510016</v>
+      </c>
+      <c r="S3">
+        <v>14.35251636966627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.41103550026969</v>
+        <v>9.922339543571454</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.35036210417303</v>
+        <v>6.217084867758994</v>
       </c>
       <c r="E4">
-        <v>9.861941578927519</v>
+        <v>9.518806881406663</v>
       </c>
       <c r="F4">
-        <v>20.21526636383594</v>
+        <v>19.92028704886414</v>
       </c>
       <c r="G4">
-        <v>21.47665347060224</v>
+        <v>20.59268899057753</v>
       </c>
       <c r="H4">
-        <v>3.214421713287434</v>
+        <v>3.051639808576408</v>
       </c>
       <c r="I4">
-        <v>4.331450308059873</v>
+        <v>4.033042309475597</v>
       </c>
       <c r="J4">
-        <v>9.031748623983921</v>
+        <v>9.311476669472905</v>
       </c>
       <c r="K4">
-        <v>16.9902122691603</v>
+        <v>16.21740711217628</v>
       </c>
       <c r="L4">
-        <v>7.155383403947703</v>
+        <v>12.67237948881927</v>
       </c>
       <c r="M4">
-        <v>11.31511261324711</v>
+        <v>11.33557733084898</v>
       </c>
       <c r="N4">
-        <v>5.819426528843727</v>
+        <v>6.964134185045694</v>
       </c>
       <c r="O4">
-        <v>9.084842721163616</v>
+        <v>11.28279109935792</v>
       </c>
       <c r="P4">
-        <v>13.68697578822264</v>
+        <v>6.184788183016196</v>
       </c>
       <c r="Q4">
-        <v>14.5089373190718</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.038416799591964</v>
+      </c>
+      <c r="R4">
+        <v>13.48472163034321</v>
+      </c>
+      <c r="S4">
+        <v>14.34257516635699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.23932384747188</v>
+        <v>9.758478065201787</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.325053833213685</v>
+        <v>6.193538130122416</v>
       </c>
       <c r="E5">
-        <v>9.845737407003776</v>
+        <v>9.504422989721844</v>
       </c>
       <c r="F5">
-        <v>20.17210996763225</v>
+        <v>19.88222032718877</v>
       </c>
       <c r="G5">
-        <v>21.39641032718829</v>
+        <v>20.52732829453626</v>
       </c>
       <c r="H5">
-        <v>3.256800572570985</v>
+        <v>3.091751723870985</v>
       </c>
       <c r="I5">
-        <v>4.362196126390196</v>
+        <v>4.060721992893843</v>
       </c>
       <c r="J5">
-        <v>9.038247583316641</v>
+        <v>9.310724834564473</v>
       </c>
       <c r="K5">
-        <v>17.01740333090983</v>
+        <v>16.24657457663129</v>
       </c>
       <c r="L5">
-        <v>7.14480311914197</v>
+        <v>12.70845152114052</v>
       </c>
       <c r="M5">
-        <v>11.1512259746862</v>
+        <v>11.36360305081355</v>
       </c>
       <c r="N5">
-        <v>5.7658944414262</v>
+        <v>6.952997065604618</v>
       </c>
       <c r="O5">
-        <v>8.997693593703339</v>
+        <v>11.11255112829909</v>
       </c>
       <c r="P5">
-        <v>13.71630976957647</v>
+        <v>6.128082886812206</v>
       </c>
       <c r="Q5">
-        <v>14.50091768657501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.951212215216119</v>
+      </c>
+      <c r="R5">
+        <v>13.51179823618664</v>
+      </c>
+      <c r="S5">
+        <v>14.33715591743589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.20021915285451</v>
+        <v>9.720685134361908</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.319541950246873</v>
+        <v>6.188348706356132</v>
       </c>
       <c r="E6">
-        <v>9.841285608686867</v>
+        <v>9.500370042647843</v>
       </c>
       <c r="F6">
-        <v>20.159436237669</v>
+        <v>19.87052529724538</v>
       </c>
       <c r="G6">
-        <v>21.37494223225672</v>
+        <v>20.5084733213309</v>
       </c>
       <c r="H6">
-        <v>3.264213732445394</v>
+        <v>3.098771738444411</v>
       </c>
       <c r="I6">
-        <v>4.370439123221952</v>
+        <v>4.068995979982687</v>
       </c>
       <c r="J6">
-        <v>9.038052582882084</v>
+        <v>9.309328837397391</v>
       </c>
       <c r="K6">
-        <v>17.01716858531579</v>
+        <v>16.24686159802452</v>
       </c>
       <c r="L6">
-        <v>7.14276326865085</v>
+        <v>12.70934018771193</v>
       </c>
       <c r="M6">
-        <v>11.12695699898416</v>
+        <v>11.36662798501729</v>
       </c>
       <c r="N6">
-        <v>5.762165446954008</v>
+        <v>6.950922641235819</v>
       </c>
       <c r="O6">
-        <v>8.982511842729068</v>
+        <v>11.08717359592661</v>
       </c>
       <c r="P6">
-        <v>13.72110350985315</v>
+        <v>6.123515091617954</v>
       </c>
       <c r="Q6">
-        <v>14.49633366166782</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.936032782940032</v>
+      </c>
+      <c r="R6">
+        <v>13.51628782423364</v>
+      </c>
+      <c r="S6">
+        <v>14.3330862047669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.38116135751838</v>
+        <v>9.893232418029429</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.346478238195233</v>
+        <v>6.216083759938509</v>
       </c>
       <c r="E7">
-        <v>9.857008038961009</v>
+        <v>9.514690310875363</v>
       </c>
       <c r="F7">
-        <v>20.19943152852387</v>
+        <v>19.89548584403092</v>
       </c>
       <c r="G7">
-        <v>21.45307690910887</v>
+        <v>20.64834462582853</v>
       </c>
       <c r="H7">
-        <v>3.215838770438212</v>
+        <v>3.053422300252513</v>
       </c>
       <c r="I7">
-        <v>4.340011636825585</v>
+        <v>4.043226039758556</v>
       </c>
       <c r="J7">
-        <v>9.028250424659864</v>
+        <v>9.275353633471159</v>
       </c>
       <c r="K7">
-        <v>16.97753922445146</v>
+        <v>16.20305933702943</v>
       </c>
       <c r="L7">
-        <v>7.154537238005466</v>
+        <v>12.65675022866347</v>
       </c>
       <c r="M7">
-        <v>11.32152367799322</v>
+        <v>11.32963029232472</v>
       </c>
       <c r="N7">
-        <v>5.83267425500754</v>
+        <v>6.963146878441272</v>
       </c>
       <c r="O7">
-        <v>9.081956941369198</v>
+        <v>11.28368799369255</v>
       </c>
       <c r="P7">
-        <v>13.68714456330743</v>
+        <v>6.195138492337281</v>
       </c>
       <c r="Q7">
-        <v>14.49973699302372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.034561633986213</v>
+      </c>
+      <c r="R7">
+        <v>13.48517466914812</v>
+      </c>
+      <c r="S7">
+        <v>14.32577248085335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.16195609008873</v>
+        <v>10.63369955317472</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.468120604722646</v>
+        <v>6.335197185360821</v>
       </c>
       <c r="E8">
-        <v>9.928240429722822</v>
+        <v>9.578504535317354</v>
       </c>
       <c r="F8">
-        <v>20.40522149847401</v>
+        <v>20.05292927809449</v>
       </c>
       <c r="G8">
-        <v>21.83967308989038</v>
+        <v>21.1445447977935</v>
       </c>
       <c r="H8">
-        <v>3.00997047335685</v>
+        <v>2.859499993200393</v>
       </c>
       <c r="I8">
-        <v>4.204905775161538</v>
+        <v>3.926384397506249</v>
       </c>
       <c r="J8">
-        <v>8.994614735096869</v>
+        <v>9.201817192284961</v>
       </c>
       <c r="K8">
-        <v>16.82018801216234</v>
+        <v>16.03029831839486</v>
       </c>
       <c r="L8">
-        <v>7.205157458695433</v>
+        <v>12.45289398923419</v>
       </c>
       <c r="M8">
-        <v>12.13373388031085</v>
+        <v>11.19745293877583</v>
       </c>
       <c r="N8">
-        <v>6.126069839034723</v>
+        <v>7.01648960758848</v>
       </c>
       <c r="O8">
-        <v>9.510611098788663</v>
+        <v>12.11502361310117</v>
       </c>
       <c r="P8">
-        <v>13.5416379603251</v>
+        <v>6.500141655515855</v>
       </c>
       <c r="Q8">
-        <v>14.53619459933154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.460880283125785</v>
+      </c>
+      <c r="R8">
+        <v>13.35257365597642</v>
+      </c>
+      <c r="S8">
+        <v>14.33000462193906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.57015098149732</v>
+        <v>11.95643549262781</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.70906874886933</v>
+        <v>6.560710401134286</v>
       </c>
       <c r="E9">
-        <v>10.06655194691177</v>
+        <v>9.700063367523917</v>
       </c>
       <c r="F9">
-        <v>20.88753031695019</v>
+        <v>20.46859686650163</v>
       </c>
       <c r="G9">
-        <v>22.706455341545</v>
+        <v>21.95268431868413</v>
       </c>
       <c r="H9">
-        <v>2.634515759363111</v>
+        <v>2.504469871895577</v>
       </c>
       <c r="I9">
-        <v>3.952115870456632</v>
+        <v>3.70516886425184</v>
       </c>
       <c r="J9">
-        <v>8.958139976611406</v>
+        <v>9.190533056200412</v>
       </c>
       <c r="K9">
-        <v>16.55274738964108</v>
+        <v>15.73370628684099</v>
       </c>
       <c r="L9">
-        <v>7.298467915365291</v>
+        <v>12.11375103131628</v>
       </c>
       <c r="M9">
-        <v>13.57007180294794</v>
+        <v>11.04489602432002</v>
       </c>
       <c r="N9">
-        <v>6.658780142319359</v>
+        <v>7.116651155723703</v>
       </c>
       <c r="O9">
-        <v>10.30482039450981</v>
+        <v>13.60187173530174</v>
       </c>
       <c r="P9">
-        <v>13.27072609223925</v>
+        <v>7.068191343581259</v>
       </c>
       <c r="Q9">
-        <v>14.67121527624604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.25254291873547</v>
+      </c>
+      <c r="R9">
+        <v>13.10812185081485</v>
+      </c>
+      <c r="S9">
+        <v>14.42545709242393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.43934905276755</v>
+        <v>12.77309056632949</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.845447607283435</v>
+        <v>6.702234934367303</v>
       </c>
       <c r="E10">
-        <v>10.1269183160346</v>
+        <v>9.756327599821921</v>
       </c>
       <c r="F10">
-        <v>21.17345652988365</v>
+        <v>20.65665345342207</v>
       </c>
       <c r="G10">
-        <v>23.25658605949502</v>
+        <v>22.91011644251406</v>
       </c>
       <c r="H10">
-        <v>2.40162462591418</v>
+        <v>2.287803906983578</v>
       </c>
       <c r="I10">
-        <v>3.790141458275956</v>
+        <v>3.567294931097275</v>
       </c>
       <c r="J10">
-        <v>8.925625591128334</v>
+        <v>8.993298467922086</v>
       </c>
       <c r="K10">
-        <v>16.32224543525341</v>
+        <v>15.47385818031854</v>
       </c>
       <c r="L10">
-        <v>7.36380782148416</v>
+        <v>11.84737925883929</v>
       </c>
       <c r="M10">
-        <v>14.54527687804304</v>
+        <v>10.94965320684257</v>
       </c>
       <c r="N10">
-        <v>6.976143375147386</v>
+        <v>7.188567344094486</v>
       </c>
       <c r="O10">
-        <v>10.79676963105211</v>
+        <v>14.58236022983833</v>
       </c>
       <c r="P10">
-        <v>13.08382146345692</v>
+        <v>7.399004564488587</v>
       </c>
       <c r="Q10">
-        <v>14.7482635835534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.73707818782257</v>
+      </c>
+      <c r="R10">
+        <v>12.9458711134038</v>
+      </c>
+      <c r="S10">
+        <v>14.42959348929545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.37232973341833</v>
+        <v>12.75481683982399</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.599510671239941</v>
+        <v>6.491668901574362</v>
       </c>
       <c r="E11">
-        <v>9.935100958644115</v>
+        <v>9.601194763280569</v>
       </c>
       <c r="F11">
-        <v>20.48526095161632</v>
+        <v>19.88836099346224</v>
       </c>
       <c r="G11">
-        <v>22.47423844427799</v>
+        <v>23.10796499777176</v>
       </c>
       <c r="H11">
-        <v>3.217424632371869</v>
+        <v>3.138534326250025</v>
       </c>
       <c r="I11">
-        <v>3.767475456302723</v>
+        <v>3.555665391088097</v>
       </c>
       <c r="J11">
-        <v>8.742585183759212</v>
+        <v>8.500324993458056</v>
       </c>
       <c r="K11">
-        <v>15.87932671159246</v>
+        <v>15.06637646424887</v>
       </c>
       <c r="L11">
-        <v>7.442871049188102</v>
+        <v>11.53192627994512</v>
       </c>
       <c r="M11">
-        <v>15.03709021216615</v>
+        <v>10.67246915749101</v>
       </c>
       <c r="N11">
-        <v>6.576766950461415</v>
+        <v>7.286702030378743</v>
       </c>
       <c r="O11">
-        <v>10.52924382347939</v>
+        <v>15.01141703533169</v>
       </c>
       <c r="P11">
-        <v>13.04184340037605</v>
+        <v>6.957872564578802</v>
       </c>
       <c r="Q11">
-        <v>14.35434425790069</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.46126853575218</v>
+      </c>
+      <c r="R11">
+        <v>12.93282502114943</v>
+      </c>
+      <c r="S11">
+        <v>13.95956370187567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.1672887786705</v>
+        <v>12.60099185074511</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.373234255389139</v>
+        <v>6.282305238060587</v>
       </c>
       <c r="E12">
-        <v>9.871568269795487</v>
+        <v>9.559356047356442</v>
       </c>
       <c r="F12">
-        <v>19.85400689271107</v>
+        <v>19.24432568587137</v>
       </c>
       <c r="G12">
-        <v>21.70975548560381</v>
+        <v>22.81578412422805</v>
       </c>
       <c r="H12">
-        <v>4.468038022592222</v>
+        <v>4.412056481278862</v>
       </c>
       <c r="I12">
-        <v>3.765392368598142</v>
+        <v>3.554908798118444</v>
       </c>
       <c r="J12">
-        <v>8.596671512621695</v>
+        <v>8.256975975255965</v>
       </c>
       <c r="K12">
-        <v>15.59065939647973</v>
+        <v>14.82009274338555</v>
       </c>
       <c r="L12">
-        <v>7.549251872074938</v>
+        <v>11.36233675636856</v>
       </c>
       <c r="M12">
-        <v>15.24345451540081</v>
+        <v>10.48008012220329</v>
       </c>
       <c r="N12">
-        <v>6.151520228335849</v>
+        <v>7.404495649831645</v>
       </c>
       <c r="O12">
-        <v>10.19737127634134</v>
+        <v>15.17843327091225</v>
       </c>
       <c r="P12">
-        <v>13.05782983214031</v>
+        <v>6.502419868926089</v>
       </c>
       <c r="Q12">
-        <v>14.01029161778196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.12725779714936</v>
+      </c>
+      <c r="R12">
+        <v>12.96558707582413</v>
+      </c>
+      <c r="S12">
+        <v>13.59622080671284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.80420227454372</v>
+        <v>12.29504857001481</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.142725265301794</v>
+        <v>6.05095741403066</v>
       </c>
       <c r="E13">
-        <v>9.894036422253297</v>
+        <v>9.598669936264857</v>
       </c>
       <c r="F13">
-        <v>19.20164499338024</v>
+        <v>18.65114692547284</v>
       </c>
       <c r="G13">
-        <v>20.86846835305478</v>
+        <v>21.88717766901491</v>
       </c>
       <c r="H13">
-        <v>5.819620788385666</v>
+        <v>5.774878659138765</v>
       </c>
       <c r="I13">
-        <v>3.791765819143869</v>
+        <v>3.577220398608282</v>
       </c>
       <c r="J13">
-        <v>8.464833493822937</v>
+        <v>8.203372951720365</v>
       </c>
       <c r="K13">
-        <v>15.38504427232786</v>
+        <v>14.66553259071466</v>
       </c>
       <c r="L13">
-        <v>7.677454232833686</v>
+        <v>11.26557943315141</v>
       </c>
       <c r="M13">
-        <v>15.25895992957427</v>
+        <v>10.33809772276792</v>
       </c>
       <c r="N13">
-        <v>5.691354664866988</v>
+        <v>7.541014926436302</v>
       </c>
       <c r="O13">
-        <v>9.787334596643278</v>
+        <v>15.18018734189965</v>
       </c>
       <c r="P13">
-        <v>13.11634150641698</v>
+        <v>6.022815502117956</v>
       </c>
       <c r="Q13">
-        <v>13.66824408133412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.721688135274171</v>
+      </c>
+      <c r="R13">
+        <v>13.0281419685789</v>
+      </c>
+      <c r="S13">
+        <v>13.29561569076421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.46702200112116</v>
+        <v>12.00128382440709</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.980412063442077</v>
+        <v>5.881510796692178</v>
       </c>
       <c r="E14">
-        <v>9.961004245847635</v>
+        <v>9.677339950869312</v>
       </c>
       <c r="F14">
-        <v>18.73239086637194</v>
+        <v>18.25288834028892</v>
       </c>
       <c r="G14">
-        <v>20.2362735905424</v>
+        <v>20.95172211011767</v>
       </c>
       <c r="H14">
-        <v>6.795137907362665</v>
+        <v>6.754861838644353</v>
       </c>
       <c r="I14">
-        <v>3.825530872967144</v>
+        <v>3.606235631192644</v>
       </c>
       <c r="J14">
-        <v>8.378501223388602</v>
+        <v>8.238541056605737</v>
       </c>
       <c r="K14">
-        <v>15.28034221797522</v>
+        <v>14.59702397303192</v>
       </c>
       <c r="L14">
-        <v>7.781832620597393</v>
+        <v>11.22450824683242</v>
       </c>
       <c r="M14">
-        <v>15.18580327922778</v>
+        <v>10.26492025850003</v>
       </c>
       <c r="N14">
-        <v>5.35481474541599</v>
+        <v>7.649874565499956</v>
       </c>
       <c r="O14">
-        <v>9.461298549026521</v>
+        <v>15.10842416678162</v>
       </c>
       <c r="P14">
-        <v>13.17714225153302</v>
+        <v>5.677603396235276</v>
       </c>
       <c r="Q14">
-        <v>13.42808032571061</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.4015140127339</v>
+      </c>
+      <c r="R14">
+        <v>13.08475972144646</v>
+      </c>
+      <c r="S14">
+        <v>13.10940206656971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.34165277578776</v>
+        <v>11.88793632411555</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.938505239556595</v>
+        <v>5.835435353894282</v>
       </c>
       <c r="E15">
-        <v>9.981928287534545</v>
+        <v>9.702015296358109</v>
       </c>
       <c r="F15">
-        <v>18.61056901418611</v>
+        <v>18.16086476150033</v>
       </c>
       <c r="G15">
-        <v>20.06062752619112</v>
+        <v>20.60074338900185</v>
       </c>
       <c r="H15">
-        <v>7.023958465501249</v>
+        <v>6.98403345517543</v>
       </c>
       <c r="I15">
-        <v>3.843862847211674</v>
+        <v>3.622940080514724</v>
       </c>
       <c r="J15">
-        <v>8.35988493218489</v>
+        <v>8.278910943682462</v>
       </c>
       <c r="K15">
-        <v>15.26764106592765</v>
+        <v>14.59398503512298</v>
       </c>
       <c r="L15">
-        <v>7.805766154060774</v>
+        <v>11.22273826842753</v>
       </c>
       <c r="M15">
-        <v>15.1295761344309</v>
+        <v>10.25623905714185</v>
       </c>
       <c r="N15">
-        <v>5.269659262795779</v>
+        <v>7.674844012720302</v>
       </c>
       <c r="O15">
-        <v>9.364846939162888</v>
+        <v>15.05724537630385</v>
       </c>
       <c r="P15">
-        <v>13.19974646561687</v>
+        <v>5.591960353858293</v>
       </c>
       <c r="Q15">
-        <v>13.36833962573914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.307649142801331</v>
+      </c>
+      <c r="R15">
+        <v>13.10360789297658</v>
+      </c>
+      <c r="S15">
+        <v>13.0733153762307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.0171959059309</v>
+        <v>11.57382989832707</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.922592905489408</v>
+        <v>5.799627548610411</v>
       </c>
       <c r="E16">
-        <v>9.942925963842802</v>
+        <v>9.669568071526118</v>
       </c>
       <c r="F16">
-        <v>18.60211882748772</v>
+        <v>18.2551520407582</v>
       </c>
       <c r="G16">
-        <v>19.9548039813462</v>
+        <v>19.67170770455288</v>
       </c>
       <c r="H16">
-        <v>6.834427659784508</v>
+        <v>6.788295328583628</v>
       </c>
       <c r="I16">
-        <v>3.913147032698205</v>
+        <v>3.6820287634174</v>
       </c>
       <c r="J16">
-        <v>8.397630152988235</v>
+        <v>8.575791438437266</v>
       </c>
       <c r="K16">
-        <v>15.40238055264297</v>
+        <v>14.73582887725996</v>
       </c>
       <c r="L16">
-        <v>7.746447183824497</v>
+        <v>11.31320648786772</v>
       </c>
       <c r="M16">
-        <v>14.73188544616382</v>
+        <v>10.35278010515094</v>
       </c>
       <c r="N16">
-        <v>5.21649234762249</v>
+        <v>7.615309820020297</v>
       </c>
       <c r="O16">
-        <v>9.223235077995588</v>
+        <v>14.69845457524949</v>
       </c>
       <c r="P16">
-        <v>13.25846092405948</v>
+        <v>5.552432758786781</v>
       </c>
       <c r="Q16">
-        <v>13.39479913251531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.175517251714979</v>
+      </c>
+      <c r="R16">
+        <v>13.14004302283112</v>
+      </c>
+      <c r="S16">
+        <v>13.18592404494349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.95080265380221</v>
+        <v>11.49200898118359</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.99607635940714</v>
+        <v>5.863406908445675</v>
       </c>
       <c r="E17">
-        <v>9.868876333658255</v>
+        <v>9.590084680573344</v>
       </c>
       <c r="F17">
-        <v>18.84714451392641</v>
+        <v>18.53043927430087</v>
       </c>
       <c r="G17">
-        <v>20.21725750526053</v>
+        <v>19.58080732543507</v>
       </c>
       <c r="H17">
-        <v>6.141695811427269</v>
+        <v>6.087249410495366</v>
       </c>
       <c r="I17">
-        <v>3.948937896308281</v>
+        <v>3.712866918280814</v>
       </c>
       <c r="J17">
-        <v>8.47268523288048</v>
+        <v>8.762812984009297</v>
       </c>
       <c r="K17">
-        <v>15.55865100800049</v>
+        <v>14.88033895545742</v>
       </c>
       <c r="L17">
-        <v>7.641723305798516</v>
+        <v>11.41381807501104</v>
       </c>
       <c r="M17">
-        <v>14.46165557780515</v>
+        <v>10.45867809017975</v>
       </c>
       <c r="N17">
-        <v>5.359252274951063</v>
+        <v>7.506904169326205</v>
       </c>
       <c r="O17">
-        <v>9.29212055871043</v>
+        <v>14.45072095445957</v>
       </c>
       <c r="P17">
-        <v>13.27242334930666</v>
+        <v>5.707543533645729</v>
       </c>
       <c r="Q17">
-        <v>13.54389023757218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.247439644492864</v>
+      </c>
+      <c r="R17">
+        <v>13.14248199170879</v>
+      </c>
+      <c r="S17">
+        <v>13.36278048971672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.12195111263919</v>
+        <v>11.62302521462795</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.162220038066706</v>
+        <v>6.021848989141663</v>
       </c>
       <c r="E18">
-        <v>9.807087064308835</v>
+        <v>9.51128837284134</v>
       </c>
       <c r="F18">
-        <v>19.34651063327916</v>
+        <v>19.02048516447046</v>
       </c>
       <c r="G18">
-        <v>20.83563197800253</v>
+        <v>20.03183412791249</v>
       </c>
       <c r="H18">
-        <v>4.980601349468312</v>
+        <v>4.912265030654192</v>
       </c>
       <c r="I18">
-        <v>3.949875266729588</v>
+        <v>3.711041134281471</v>
       </c>
       <c r="J18">
-        <v>8.589809383365306</v>
+        <v>8.92040202740921</v>
       </c>
       <c r="K18">
-        <v>15.76919736331369</v>
+        <v>15.06243545079518</v>
       </c>
       <c r="L18">
-        <v>7.507211000843266</v>
+        <v>11.55118331344892</v>
       </c>
       <c r="M18">
-        <v>14.26947916390436</v>
+        <v>10.59307101595877</v>
       </c>
       <c r="N18">
-        <v>5.680230721389053</v>
+        <v>7.364970859491732</v>
       </c>
       <c r="O18">
-        <v>9.551390981915905</v>
+        <v>14.27866491593365</v>
       </c>
       <c r="P18">
-        <v>13.25347315416787</v>
+        <v>6.045913635896836</v>
       </c>
       <c r="Q18">
-        <v>13.8192139575503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.506462274732137</v>
+      </c>
+      <c r="R18">
+        <v>13.11652764525315</v>
+      </c>
+      <c r="S18">
+        <v>13.63579612499522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.42516233098539</v>
+        <v>11.87035587244894</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.392765630595106</v>
+        <v>6.244826098448671</v>
       </c>
       <c r="E19">
-        <v>9.836899761611329</v>
+        <v>9.514671761419191</v>
       </c>
       <c r="F19">
-        <v>19.98854114055156</v>
+        <v>19.629839515238</v>
       </c>
       <c r="G19">
-        <v>21.65029048539605</v>
+        <v>20.77054551709298</v>
       </c>
       <c r="H19">
-        <v>3.669724752089274</v>
+        <v>3.578773353394646</v>
       </c>
       <c r="I19">
-        <v>3.937015639454811</v>
+        <v>3.700815740523365</v>
       </c>
       <c r="J19">
-        <v>8.725805657727692</v>
+        <v>9.058276479297554</v>
       </c>
       <c r="K19">
-        <v>16.00781100248292</v>
+        <v>15.26042924603275</v>
       </c>
       <c r="L19">
-        <v>7.397133610046207</v>
+        <v>11.70622981635662</v>
       </c>
       <c r="M19">
-        <v>14.17132434406316</v>
+        <v>10.73931022084042</v>
       </c>
       <c r="N19">
-        <v>6.14280786461062</v>
+        <v>7.243537612597777</v>
       </c>
       <c r="O19">
-        <v>9.93870888193411</v>
+        <v>14.20061771657239</v>
       </c>
       <c r="P19">
-        <v>13.22003272383033</v>
+        <v>6.530372576925757</v>
       </c>
       <c r="Q19">
-        <v>14.15940666880117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.891681484076747</v>
+      </c>
+      <c r="R19">
+        <v>13.07799913672625</v>
+      </c>
+      <c r="S19">
+        <v>13.95652545856686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.14698039204649</v>
+        <v>12.49467906028551</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.798221983861348</v>
+        <v>6.644527177338391</v>
       </c>
       <c r="E20">
-        <v>10.09707170942585</v>
+        <v>9.727288369412536</v>
       </c>
       <c r="F20">
-        <v>21.04777536764675</v>
+        <v>20.59084440320553</v>
       </c>
       <c r="G20">
-        <v>23.04029955069739</v>
+        <v>22.31999771144622</v>
       </c>
       <c r="H20">
-        <v>2.463400267111143</v>
+        <v>2.343975852867131</v>
       </c>
       <c r="I20">
-        <v>3.857441898063541</v>
+        <v>3.632538792679171</v>
       </c>
       <c r="J20">
-        <v>8.921515743044722</v>
+        <v>9.142949880755785</v>
       </c>
       <c r="K20">
-        <v>16.34131151500121</v>
+        <v>15.51261123761857</v>
       </c>
       <c r="L20">
-        <v>7.345828718876589</v>
+        <v>11.89308408667535</v>
       </c>
       <c r="M20">
-        <v>14.31799938462732</v>
+        <v>10.9493707327525</v>
       </c>
       <c r="N20">
-        <v>6.927528427036613</v>
+        <v>7.170682898453016</v>
       </c>
       <c r="O20">
-        <v>10.66269836984418</v>
+        <v>14.3688207624432</v>
       </c>
       <c r="P20">
-        <v>13.13383221514752</v>
+        <v>7.351353059285125</v>
       </c>
       <c r="Q20">
-        <v>14.69680420057555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.60829459138638</v>
+      </c>
+      <c r="R20">
+        <v>12.98898797516163</v>
+      </c>
+      <c r="S20">
+        <v>14.42637922239678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.87102154441018</v>
+        <v>13.17410002994455</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.958919116684988</v>
+        <v>6.85820599725043</v>
       </c>
       <c r="E21">
-        <v>10.19679093420734</v>
+        <v>9.8278345189281</v>
       </c>
       <c r="F21">
-        <v>21.43036494281516</v>
+        <v>20.7183678582828</v>
       </c>
       <c r="G21">
-        <v>23.66978292734284</v>
+        <v>24.67040218893229</v>
       </c>
       <c r="H21">
-        <v>2.251811870050135</v>
+        <v>2.150364365258085</v>
       </c>
       <c r="I21">
-        <v>3.72602932680361</v>
+        <v>3.522785636049692</v>
       </c>
       <c r="J21">
-        <v>8.933406034586236</v>
+        <v>8.498777115184401</v>
       </c>
       <c r="K21">
-        <v>16.23631072178404</v>
+        <v>15.33222078948374</v>
       </c>
       <c r="L21">
-        <v>7.393797596963458</v>
+        <v>11.71382931562781</v>
       </c>
       <c r="M21">
-        <v>15.02105211929316</v>
+        <v>10.90127691514592</v>
       </c>
       <c r="N21">
-        <v>7.25716734385543</v>
+        <v>7.21534348991857</v>
       </c>
       <c r="O21">
-        <v>11.11560477814218</v>
+        <v>15.00022312960952</v>
       </c>
       <c r="P21">
-        <v>12.98841443575962</v>
+        <v>7.664629337186676</v>
       </c>
       <c r="Q21">
-        <v>14.84716236051595</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.03819565098535</v>
+      </c>
+      <c r="R21">
+        <v>12.86942914358391</v>
+      </c>
+      <c r="S21">
+        <v>14.3671810855435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.32572864477928</v>
+        <v>13.60373997531893</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.048821920331873</v>
+        <v>6.988240521748168</v>
       </c>
       <c r="E22">
-        <v>10.24926937153614</v>
+        <v>9.885644458591401</v>
       </c>
       <c r="F22">
-        <v>21.65635240680449</v>
+        <v>20.76554910861029</v>
       </c>
       <c r="G22">
-        <v>24.0531705670513</v>
+        <v>26.2967443266883</v>
       </c>
       <c r="H22">
-        <v>2.127659210695577</v>
+        <v>2.0377327018792</v>
       </c>
       <c r="I22">
-        <v>3.634545140557893</v>
+        <v>3.442994133703243</v>
       </c>
       <c r="J22">
-        <v>8.938919862287285</v>
+        <v>8.107857666435271</v>
       </c>
       <c r="K22">
-        <v>16.16638985108849</v>
+        <v>15.21031724905572</v>
       </c>
       <c r="L22">
-        <v>7.42544355818399</v>
+        <v>11.59828142944269</v>
       </c>
       <c r="M22">
-        <v>15.45843220784951</v>
+        <v>10.87426864984729</v>
       </c>
       <c r="N22">
-        <v>7.42140393807892</v>
+        <v>7.246056042814425</v>
       </c>
       <c r="O22">
-        <v>11.37726423664684</v>
+        <v>15.3861075588993</v>
       </c>
       <c r="P22">
-        <v>12.89569798121064</v>
+        <v>7.815038286671482</v>
       </c>
       <c r="Q22">
-        <v>14.93763228478191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.28382234138028</v>
+      </c>
+      <c r="R22">
+        <v>12.79573704991536</v>
+      </c>
+      <c r="S22">
+        <v>14.30830813339098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.10953758959323</v>
+        <v>13.39930164123951</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.004651569795</v>
+        <v>6.915234696976219</v>
       </c>
       <c r="E23">
-        <v>10.22617411669808</v>
+        <v>9.857297568444444</v>
       </c>
       <c r="F23">
-        <v>21.55168450265712</v>
+        <v>20.77961148902741</v>
       </c>
       <c r="G23">
-        <v>23.8713916091535</v>
+        <v>25.25106108891219</v>
       </c>
       <c r="H23">
-        <v>2.192915414987961</v>
+        <v>2.0961943082348</v>
       </c>
       <c r="I23">
-        <v>3.673254512115611</v>
+        <v>3.473110714100177</v>
       </c>
       <c r="J23">
-        <v>8.939743472138996</v>
+        <v>8.37276398339756</v>
       </c>
       <c r="K23">
-        <v>16.2183483616383</v>
+        <v>15.29380765062973</v>
       </c>
       <c r="L23">
-        <v>7.408989022603836</v>
+        <v>11.67175728881362</v>
       </c>
       <c r="M23">
-        <v>15.21857750240132</v>
+        <v>10.90382141947138</v>
       </c>
       <c r="N23">
-        <v>7.320746846532774</v>
+        <v>7.230319059035803</v>
       </c>
       <c r="O23">
-        <v>11.24001879118426</v>
+        <v>15.18450892677043</v>
       </c>
       <c r="P23">
-        <v>12.94433881689462</v>
+        <v>7.726882902779149</v>
       </c>
       <c r="Q23">
-        <v>14.8988420909827</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.15737748107777</v>
+      </c>
+      <c r="R23">
+        <v>12.83227807006068</v>
+      </c>
+      <c r="S23">
+        <v>14.36959013951044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.21279471969748</v>
+        <v>12.55426359920159</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.829728362514244</v>
+        <v>6.674662842368048</v>
       </c>
       <c r="E24">
-        <v>10.12951278869068</v>
+        <v>9.755318556928911</v>
       </c>
       <c r="F24">
-        <v>21.14092065836733</v>
+        <v>20.68098063031721</v>
       </c>
       <c r="G24">
-        <v>23.15987421804282</v>
+        <v>22.42048424528909</v>
       </c>
       <c r="H24">
-        <v>2.447117920743915</v>
+        <v>2.32748758639362</v>
       </c>
       <c r="I24">
-        <v>3.840667550063342</v>
+        <v>3.61278781616784</v>
       </c>
       <c r="J24">
-        <v>8.942703155817116</v>
+        <v>9.167886006528285</v>
       </c>
       <c r="K24">
-        <v>16.39631623658814</v>
+        <v>15.5603707353428</v>
       </c>
       <c r="L24">
-        <v>7.344914123247525</v>
+        <v>11.93041324399198</v>
       </c>
       <c r="M24">
-        <v>14.28806496421108</v>
+        <v>10.98467347637078</v>
       </c>
       <c r="N24">
-        <v>6.952762607582224</v>
+        <v>7.167379772141107</v>
       </c>
       <c r="O24">
-        <v>10.70249291500544</v>
+        <v>14.34154365455887</v>
       </c>
       <c r="P24">
-        <v>13.13289987092969</v>
+        <v>7.380260980632554</v>
       </c>
       <c r="Q24">
-        <v>14.74856448315872</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.6479076936355</v>
+      </c>
+      <c r="R24">
+        <v>12.98616038964214</v>
+      </c>
+      <c r="S24">
+        <v>14.47662334037631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.16491470875206</v>
+        <v>11.57450404385467</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.6383770147216</v>
+        <v>6.490520615641032</v>
       </c>
       <c r="E25">
-        <v>10.02223284622866</v>
+        <v>9.660218762330938</v>
       </c>
       <c r="F25">
-        <v>20.72513498771602</v>
+        <v>20.33869812507996</v>
       </c>
       <c r="G25">
-        <v>22.42646636565175</v>
+        <v>21.57824584901098</v>
       </c>
       <c r="H25">
-        <v>2.734275866691279</v>
+        <v>2.598260693605233</v>
       </c>
       <c r="I25">
-        <v>4.032050776183134</v>
+        <v>3.779007477408215</v>
       </c>
       <c r="J25">
-        <v>8.95910710939679</v>
+        <v>9.231428583094955</v>
       </c>
       <c r="K25">
-        <v>16.60013036152058</v>
+        <v>15.79469062661717</v>
       </c>
       <c r="L25">
-        <v>7.273076144269481</v>
+        <v>12.18666450467559</v>
       </c>
       <c r="M25">
-        <v>13.21081464597711</v>
+        <v>11.0643398982755</v>
       </c>
       <c r="N25">
-        <v>6.539675355237434</v>
+        <v>7.090138659042094</v>
       </c>
       <c r="O25">
-        <v>10.09296672284876</v>
+        <v>13.23609343618914</v>
       </c>
       <c r="P25">
-        <v>13.34292214501661</v>
+        <v>6.940776348008285</v>
       </c>
       <c r="Q25">
-        <v>14.61350025854029</v>
+        <v>10.04293372200016</v>
+      </c>
+      <c r="R25">
+        <v>13.17307464589028</v>
+      </c>
+      <c r="S25">
+        <v>14.390612126205</v>
       </c>
     </row>
   </sheetData>
